--- a/Computer/OpCodes.xlsx
+++ b/Computer/OpCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D86A7A-49A8-486E-A2D9-20EDC3EE4241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22E8D35-B904-4BF2-9EA7-A6064D21BEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="672">
   <si>
     <t>hlt</t>
   </si>
@@ -1357,387 +1357,575 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>fss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fsc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bcs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bcc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bsc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bzs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bzc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EX/EH/EL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT/RH/RL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC (DON’T USE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXTRA (DON’T USE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpCodes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ld</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syscall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mov</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set the sign flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear the sign flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set the interrupt flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear the interrupt flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fsn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fsi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fci</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fca</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear all flags</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set the carry flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear the carry flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from function</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from interrupt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delay 4.5ms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>??</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Branch if carry set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if carry clear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bnc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if negative set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if negative clear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if zero set (Branch if equal)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if zero clear (Branch if not equal)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if less than</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if greater than or equal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if greater than</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if less than or equal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bs1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bs2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bs3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if sense switch 1 is set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if sense switch 2 is set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if sense switch 3 is set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bs4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if sense switch 4 is set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_L/H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment byte of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement byte of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invert byte of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of explicit register left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of explicit register right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate byte of explicit register right (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate byte of explicit register left (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>AL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX register into immediate address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX register into direct address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX register into indirect address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX register into direct Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX register into indirect Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX register into indexed register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX? register into full word of PC? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX? register into full word of SP? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX? register into full word of RT? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX? register into full word of AX? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX? register into full word of BX? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX? register into full word of CX? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of AX? register into full word of DX? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load immediate address into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct address into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect address into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct Program Counter offset by N address into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect Program Counter offset by N address into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indexed register into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load lower byte of explicit AL? register into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load lower byte of explicit BL? register into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load lower byte of explicit CL? register into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load lower byte of explicit DL? register into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load lower byte of explicit RT? register into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load lower byte of explicit SP? register into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load lower byte of explicit PC? register into lower byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load immediate address into full word of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct address into full word of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect address into full word of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct Program Counter offset by N address into full word of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect Program Counter offset by N address into full word of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indexed register into full word of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load full word of explicit AX? register into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load full word of explicit BX? register into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load full word of explicit CX? register into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load full word of explicit DX? register into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load full word of explicit RT? register into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load full word of explicit SP? register into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load full word of explicit PC? register into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL register into immediate address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL register into direct address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL register into indirect address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL register into direct Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL register into indirect Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL register into indexed register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL? register into lower byte of AL? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL? register into lower byte of BL? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL? register into lower byte of CL? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL? register into lower byte of DL? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL? register into lower byte of RT? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL? register into lower byte of SP? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store lower byte of BL? register into lower byte of PC? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX register into immediate address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX register into direct address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX register into indirect address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX register into direct Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX register into indirect Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX register into indexed register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX? register into full word of AX? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX? register into full word of BX? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX? register into full word of CX? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX? register into full word of DX? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX? register into full word of RT? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX? register into full word of SP? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store full word of BX? register into full word of PC? register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fss</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fsc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fcs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fcc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fac</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ret</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reti</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bcs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bcc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bss</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bsc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bzs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bzc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>glt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bgt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ble</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EX/EH/EL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT/RH/RL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC (DON’T USE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EXTRA (DON’T USE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ld.bl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpCodes</t>
+    <t>Increment byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invert byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of implicit AL register left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of implicit AL register right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memory mapping?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear byte of explicit register (22 32 = CPU ID)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment full word of implicit RT register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement full word of implicit RT register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Execute micro code?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR bytes of two explicit registers (left XOR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR bytes of two explicit registers (left OR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND bytes of two explicit registers (left AND right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract bytes of two explicit registers (left minus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_L/H, _L/H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one explicit register into other explicit register (right into left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, AL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR bytes of two implicit registers (AL XOR BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AL into BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_X, _X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add two explicit registers (left plus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract two explicit registers (left minus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND two explicit registers (left AND right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR two explicit registers (left OR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR two explicit registers (left XOR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy one explicit register into other explicit register (right into left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add bytes of two explicit registers (left plus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add bytes of implicit AL and BL (AL plus BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract bytes of implicit AL and BL (AL minus BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND bytes of implicit AL and BL (AL AND BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR bytes of implicit AL and BL (AL OR BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add implicit AX and BX (AX plus BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract implicit AX and BX (AX minus BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND implicit AX and BX (AX AND BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR implicit AX and BX (AX OR BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DX, AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EX, AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SP, AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AX into DX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AX into BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AX into SP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AX into EX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syscall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Call interrupt level 15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memory banking?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load immediate address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indexed register into byte of AL register</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1745,478 +1933,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>st</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>syscall</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mov</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set the sign flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear the sign flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set the interrupt flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear the interrupt flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fsn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fcn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fsi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fci</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fca</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear all flags</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set the carry flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear the carry flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ret</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reti</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Return from function</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Return from interrupt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Delay 4.5ms</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if carry set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if carry clear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bns</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bnc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if negative set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if negative clear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if zero set (Branch if equal)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if zero clear (Branch if not equal)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if less than</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if greater than or equal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if greater than</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if less than or equal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bs1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bs2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bs3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if sense switch 1 is set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if sense switch 2 is set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if sense switch 3 is set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bs4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if sense switch 4 is set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_L/H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Increment byte of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement byte of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invert byte of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of explicit register left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of explicit register right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rotate byte of explicit register right (wraps through carry)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rotate byte of explicit register left (wraps through carry)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Increment byte of implicit AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement byte of implicit AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear byte of implicit AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invert byte of implicit AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of implicit AL register left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of implicit AL register right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Memory mapping?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DMA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear byte of explicit register (22 32 = CPU ID)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>inc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Increment full word of implicit RT register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dec</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement full word of implicit RT register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Execute micro code?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XOR bytes of two explicit registers (left XOR right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OR bytes of two explicit registers (left OR right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AND bytes of two explicit registers (left AND right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subtract bytes of two explicit registers (left minus right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_L/H, _L/H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one explicit register into other explicit register (right into left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, AL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XOR bytes of two implicit registers (AL XOR BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AL into BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_X, _X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add two explicit registers (left plus right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subtract two explicit registers (left minus right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AND two explicit registers (left AND right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OR two explicit registers (left OR right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XOR two explicit registers (left XOR right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy one explicit register into other explicit register (right into left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add bytes of two explicit registers (left plus right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add bytes of implicit AL and BL (AL plus BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subtract bytes of implicit AL and BL (AL minus BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AND bytes of implicit AL and BL (AL AND BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OR bytes of implicit AL and BL (AL OR BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add implicit AX and BX (AX plus BX stored in BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subtract implicit AX and BX (AX minus BX stored in BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AND implicit AX and BX (AX AND BX stored in BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OR implicit AX and BX (AX OR BX stored in BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DX, AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EX, AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SP, AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AX into DX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AX into BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AX into SP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AX into EX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>syscall</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Call interrupt level 15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Memory banking?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load immediate address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct Program Counter offset by N address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect Program Counter offset by N address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indexed register into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ld</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AL, [AX]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2426,6 +2142,350 @@
   </si>
   <si>
     <t>Store byte from AL register to memory address stored in SP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into indexed register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in BX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in EX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in SP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, #Imm.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, Addr.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, [Addr.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, [PC+N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, _[R]_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, #Imm.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, Addr.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [Addr.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [PC+N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, _[R]_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [AX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [BX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [RT]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [DX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [EX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [SP]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, #Imm.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, Addr.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [Addr.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [PC+N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, _[R]_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [AX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [BX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [RT]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [DX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [EX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [SP]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load immediate address into byte ofBL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indexed register into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in AX into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in BX into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in RT into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in DX into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in EX into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in SP into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load immediate address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in AX into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in BX into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in RT into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in DX into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in EX into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in SP into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into indexed register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in BX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in EX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in SP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into indexed register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in BX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in EX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in SP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2477,7 +2537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2517,6 +2577,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,9 +2591,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2547,72 +2610,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>240193</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>237712</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>217002</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23BBECD-A7CD-4397-A467-00BA75491E48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10253871" y="2642150"/>
-          <a:ext cx="2498863" cy="1997765"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2978,10 +2975,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:N287"/>
+  <dimension ref="B2:N288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J199" sqref="J199"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J286" sqref="J286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3004,10 +3001,10 @@
       <c r="B2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="15"/>
       <c r="G2" s="9" t="s">
         <v>314</v>
       </c>
@@ -3073,13 +3070,13 @@
         <v>10</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>493</v>
+        <v>422</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>489</v>
+        <v>418</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -3093,10 +3090,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>494</v>
+        <v>423</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>490</v>
+        <v>419</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>350</v>
@@ -3113,13 +3110,13 @@
         <v>100</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>495</v>
+        <v>424</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>491</v>
+        <v>420</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>479</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -3133,10 +3130,10 @@
         <v>101</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>496</v>
+        <v>425</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>283</v>
@@ -3156,13 +3153,13 @@
         <v>110</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>499</v>
+        <v>428</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>481</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -3176,13 +3173,13 @@
         <v>111</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>482</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -3196,10 +3193,10 @@
         <v>1000</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>497</v>
+        <v>426</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>498</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -3213,10 +3210,10 @@
         <v>1001</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>501</v>
+        <v>430</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>503</v>
+        <v>432</v>
       </c>
       <c r="N12" s="8"/>
     </row>
@@ -3231,10 +3228,10 @@
         <v>1010</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>502</v>
+        <v>431</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>504</v>
+        <v>433</v>
       </c>
       <c r="N13" s="8"/>
     </row>
@@ -3249,7 +3246,7 @@
         <v>1011</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>507</v>
+        <v>436</v>
       </c>
       <c r="N14" s="8"/>
     </row>
@@ -3264,7 +3261,7 @@
         <v>1100</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>507</v>
+        <v>436</v>
       </c>
       <c r="N15" s="8"/>
     </row>
@@ -3279,7 +3276,7 @@
         <v>1101</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>507</v>
+        <v>436</v>
       </c>
       <c r="N16" s="8"/>
     </row>
@@ -3294,10 +3291,10 @@
         <v>1110</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>505</v>
+        <v>434</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>506</v>
+        <v>435</v>
       </c>
       <c r="N17" s="8"/>
     </row>
@@ -3312,7 +3309,7 @@
         <v>1111</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>507</v>
+        <v>436</v>
       </c>
       <c r="N18" s="8"/>
     </row>
@@ -3330,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>469</v>
+        <v>399</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>508</v>
+        <v>437</v>
       </c>
       <c r="N20" s="8"/>
     </row>
@@ -3351,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>509</v>
+        <v>438</v>
       </c>
       <c r="N21" s="8"/>
     </row>
@@ -3372,13 +3369,13 @@
         <v>10</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>510</v>
+        <v>439</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>512</v>
+        <v>441</v>
       </c>
       <c r="N22" s="8"/>
     </row>
@@ -3393,13 +3390,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>511</v>
+        <v>440</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>513</v>
+        <v>442</v>
       </c>
       <c r="N23" s="8"/>
     </row>
@@ -3414,13 +3411,13 @@
         <v>100</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>473</v>
+        <v>403</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>514</v>
+        <v>443</v>
       </c>
       <c r="N24" s="8"/>
     </row>
@@ -3435,13 +3432,13 @@
         <v>101</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>515</v>
+        <v>444</v>
       </c>
       <c r="N25" s="8"/>
     </row>
@@ -3456,13 +3453,13 @@
         <v>110</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>516</v>
+        <v>445</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>517</v>
+        <v>446</v>
       </c>
       <c r="N26" s="8"/>
     </row>
@@ -3477,13 +3474,13 @@
         <v>111</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>518</v>
+        <v>447</v>
       </c>
       <c r="N27" s="8"/>
     </row>
@@ -3498,13 +3495,13 @@
         <v>1000</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>519</v>
+        <v>448</v>
       </c>
       <c r="N28" s="8"/>
     </row>
@@ -3519,19 +3516,19 @@
         <v>1001</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>520</v>
+        <v>449</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
-        <v>521</v>
+        <v>450</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -3541,21 +3538,21 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11" t="s">
-        <v>525</v>
+        <v>454</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="12" t="s">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="1" t="s">
-        <v>522</v>
+        <v>451</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
@@ -3565,21 +3562,21 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11" t="s">
-        <v>526</v>
+        <v>455</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="12" t="s">
-        <v>529</v>
+        <v>458</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
-        <v>523</v>
+        <v>452</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -3589,21 +3586,21 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11" t="s">
-        <v>527</v>
+        <v>456</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="12" t="s">
-        <v>530</v>
+        <v>459</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="1" t="s">
-        <v>524</v>
+        <v>453</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -3613,14 +3610,14 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11" t="s">
-        <v>531</v>
+        <v>460</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="12" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="10"/>
@@ -3666,14 +3663,14 @@
         <v>298</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
+        <v>463</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="1">
@@ -3689,14 +3686,14 @@
         <v>299</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
+        <v>464</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="1">
@@ -3712,14 +3709,14 @@
         <v>300</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
+        <v>479</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="2:14">
       <c r="B40" s="1">
@@ -3735,14 +3732,14 @@
         <v>301</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
+        <v>465</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="2:14">
       <c r="B41" s="1">
@@ -3758,14 +3755,14 @@
         <v>302</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
+        <v>466</v>
+      </c>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="1">
@@ -3781,14 +3778,14 @@
         <v>303</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
+        <v>467</v>
+      </c>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="1">
@@ -3804,14 +3801,14 @@
         <v>305</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+        <v>468</v>
+      </c>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="1">
@@ -3827,10 +3824,10 @@
         <v>306</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>540</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="6.75" customHeight="1"/>
@@ -3848,10 +3845,10 @@
         <v>298</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>541</v>
+        <v>470</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>542</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="2:14">
@@ -3868,10 +3865,10 @@
         <v>299</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>541</v>
+        <v>470</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>543</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="2:14">
@@ -3888,10 +3885,10 @@
         <v>300</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>541</v>
+        <v>470</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>544</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -3908,10 +3905,10 @@
         <v>301</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>541</v>
+        <v>470</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>545</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -3928,10 +3925,10 @@
         <v>302</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>541</v>
+        <v>470</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>546</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -3948,10 +3945,10 @@
         <v>303</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>541</v>
+        <v>470</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="2:10">
@@ -3965,7 +3962,7 @@
         <v>1110</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>548</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="2:10">
@@ -3979,7 +3976,7 @@
         <v>1111</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>549</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="6.75" customHeight="1"/>
@@ -3997,7 +3994,7 @@
         <v>298</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>551</v>
+        <v>480</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>357</v>
@@ -4017,7 +4014,7 @@
         <v>299</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>551</v>
+        <v>480</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>358</v>
@@ -4037,7 +4034,7 @@
         <v>300</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>551</v>
+        <v>480</v>
       </c>
       <c r="J57" s="12" t="s">
         <v>359</v>
@@ -4057,7 +4054,7 @@
         <v>301</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>551</v>
+        <v>480</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>360</v>
@@ -4077,7 +4074,7 @@
         <v>302</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>551</v>
+        <v>480</v>
       </c>
       <c r="J59" s="12" t="s">
         <v>361</v>
@@ -4097,7 +4094,7 @@
         <v>303</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>551</v>
+        <v>480</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>362</v>
@@ -4117,7 +4114,7 @@
         <v>305</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>363</v>
@@ -4137,7 +4134,7 @@
         <v>306</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>364</v>
@@ -4158,7 +4155,7 @@
         <v>298</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="J64" s="12" t="s">
         <v>351</v>
@@ -4178,7 +4175,7 @@
         <v>299</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="J65" s="12" t="s">
         <v>352</v>
@@ -4198,7 +4195,7 @@
         <v>300</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="J66" s="12" t="s">
         <v>353</v>
@@ -4218,7 +4215,7 @@
         <v>301</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="J67" s="12" t="s">
         <v>354</v>
@@ -4238,7 +4235,7 @@
         <v>302</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="J68" s="12" t="s">
         <v>355</v>
@@ -4258,7 +4255,7 @@
         <v>303</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="J69" s="12" t="s">
         <v>356</v>
@@ -4275,13 +4272,13 @@
         <v>1110</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>554</v>
+        <v>483</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>555</v>
+        <v>484</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>556</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -4295,13 +4292,13 @@
         <v>1111</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>557</v>
+        <v>486</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>555</v>
+        <v>484</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>558</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="7.5" customHeight="1"/>
@@ -4319,10 +4316,10 @@
         <v>250</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>576</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="2:10">
@@ -4339,10 +4336,10 @@
         <v>251</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>563</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -4359,10 +4356,10 @@
         <v>252</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>562</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -4379,10 +4376,10 @@
         <v>253</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>561</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -4399,10 +4396,10 @@
         <v>254</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>560</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="2:10">
@@ -4419,10 +4416,10 @@
         <v>256</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>565</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -4449,7 +4446,7 @@
       </c>
       <c r="H80" s="11"/>
       <c r="J80" s="12" t="s">
-        <v>559</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="7.5" customHeight="1"/>
@@ -4467,10 +4464,10 @@
         <v>250</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>577</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="2:10">
@@ -4487,10 +4484,10 @@
         <v>251</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>578</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -4507,10 +4504,10 @@
         <v>252</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>579</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -4527,10 +4524,10 @@
         <v>253</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>580</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86" spans="2:10">
@@ -4547,10 +4544,10 @@
         <v>254</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>567</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -4567,10 +4564,10 @@
         <v>256</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>568</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -4610,10 +4607,10 @@
         <v>250</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -4630,10 +4627,10 @@
         <v>251</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>571</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="2:10">
@@ -4650,10 +4647,10 @@
         <v>252</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>572</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -4670,10 +4667,10 @@
         <v>253</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>573</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -4690,10 +4687,10 @@
         <v>254</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>574</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -4710,10 +4707,10 @@
         <v>256</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>575</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="2:10">
@@ -4753,10 +4750,10 @@
         <v>250</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>585</v>
+        <v>514</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>581</v>
+        <v>510</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -4773,10 +4770,10 @@
         <v>251</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>585</v>
+        <v>514</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>582</v>
+        <v>511</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -4793,10 +4790,10 @@
         <v>252</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>585</v>
+        <v>514</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>583</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103" spans="2:10">
@@ -4813,10 +4810,10 @@
         <v>253</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>585</v>
+        <v>514</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>584</v>
+        <v>513</v>
       </c>
     </row>
     <row r="104" spans="2:10">
@@ -4830,13 +4827,13 @@
         <v>1100</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>488</v>
+        <v>417</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>586</v>
+        <v>515</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>589</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="2:10">
@@ -4850,13 +4847,13 @@
         <v>1101</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>488</v>
+        <v>417</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>585</v>
+        <v>514</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>590</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="2:10">
@@ -4870,13 +4867,13 @@
         <v>1110</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>488</v>
+        <v>417</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>587</v>
+        <v>516</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>592</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="2:10">
@@ -4890,13 +4887,13 @@
         <v>1111</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>488</v>
+        <v>417</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>588</v>
+        <v>517</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>591</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="2:10" ht="7.5" customHeight="1"/>
@@ -4911,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>93</v>
+        <v>414</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>597</v>
       </c>
       <c r="J109" s="12" t="s">
         <v>367</v>
@@ -4931,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>94</v>
+        <v>414</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>598</v>
       </c>
       <c r="J110" s="12" t="s">
         <v>365</v>
@@ -4951,10 +4948,10 @@
         <v>10</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>95</v>
+        <v>414</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>599</v>
       </c>
       <c r="J111" s="12" t="s">
         <v>371</v>
@@ -4971,10 +4968,10 @@
         <v>11</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>21</v>
+        <v>414</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>600</v>
       </c>
       <c r="J112" s="12" t="s">
         <v>372</v>
@@ -4991,10 +4988,10 @@
         <v>100</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>96</v>
+        <v>414</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>601</v>
       </c>
       <c r="J113" s="12" t="s">
         <v>373</v>
@@ -5011,10 +5008,10 @@
         <v>101</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>97</v>
+        <v>414</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>602</v>
       </c>
       <c r="J114" s="12" t="s">
         <v>374</v>
@@ -5056,10 +5053,10 @@
         <v>1000</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>93</v>
+        <v>522</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>597</v>
       </c>
       <c r="J118" s="12" t="s">
         <v>368</v>
@@ -5076,10 +5073,10 @@
         <v>1001</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>94</v>
+        <v>522</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>598</v>
       </c>
       <c r="J119" s="12" t="s">
         <v>366</v>
@@ -5096,10 +5093,10 @@
         <v>1010</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>95</v>
+        <v>522</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>599</v>
       </c>
       <c r="J120" s="12" t="s">
         <v>369</v>
@@ -5116,10 +5113,10 @@
         <v>1011</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>21</v>
+        <v>522</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>600</v>
       </c>
       <c r="J121" s="12" t="s">
         <v>375</v>
@@ -5136,10 +5133,10 @@
         <v>1100</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>96</v>
+        <v>522</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>601</v>
       </c>
       <c r="J122" s="12" t="s">
         <v>376</v>
@@ -5156,10 +5153,10 @@
         <v>1101</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>97</v>
+        <v>522</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>602</v>
       </c>
       <c r="J123" s="12" t="s">
         <v>370</v>
@@ -5319,10 +5316,10 @@
         <v>110</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>595</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="2:10">
@@ -5468,7 +5465,7 @@
         <v>1110</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="2:10">
@@ -5482,7 +5479,7 @@
         <v>1111</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="7.5" customHeight="1"/>
@@ -5497,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>607</v>
+        <v>536</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>597</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="2:10">
@@ -5517,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>605</v>
+        <v>534</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>598</v>
+        <v>527</v>
       </c>
     </row>
     <row r="147" spans="2:10">
@@ -5537,13 +5534,13 @@
         <v>10</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>606</v>
+        <v>535</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>599</v>
+        <v>528</v>
       </c>
     </row>
     <row r="148" spans="2:10">
@@ -5557,13 +5554,13 @@
         <v>11</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>622</v>
+        <v>551</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>600</v>
+        <v>529</v>
       </c>
     </row>
     <row r="149" spans="2:10">
@@ -5577,13 +5574,13 @@
         <v>100</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>623</v>
+        <v>552</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>601</v>
+        <v>530</v>
       </c>
     </row>
     <row r="150" spans="2:10">
@@ -5597,13 +5594,13 @@
         <v>101</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>624</v>
+        <v>553</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>602</v>
+        <v>531</v>
       </c>
     </row>
     <row r="151" spans="2:10">
@@ -5640,13 +5637,13 @@
         <v>1000</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>604</v>
+        <v>533</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>613</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="2:10">
@@ -5660,13 +5657,13 @@
         <v>1001</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>614</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="2:10">
@@ -5680,13 +5677,13 @@
         <v>1010</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>609</v>
+        <v>538</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>615</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" spans="2:10">
@@ -5700,13 +5697,13 @@
         <v>1011</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>610</v>
+        <v>539</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>616</v>
+        <v>545</v>
       </c>
     </row>
     <row r="158" spans="2:10">
@@ -5720,13 +5717,13 @@
         <v>1100</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>617</v>
+        <v>546</v>
       </c>
     </row>
     <row r="159" spans="2:10">
@@ -5740,13 +5737,13 @@
         <v>1101</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>612</v>
+        <v>541</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>618</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="2:10">
@@ -5788,13 +5785,13 @@
         <v>0</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>619</v>
+        <v>548</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>628</v>
+        <v>557</v>
       </c>
     </row>
     <row r="164" spans="2:10">
@@ -5808,13 +5805,13 @@
         <v>1</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>620</v>
+        <v>549</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>629</v>
+        <v>558</v>
       </c>
     </row>
     <row r="165" spans="2:10">
@@ -5828,13 +5825,13 @@
         <v>10</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>621</v>
+        <v>550</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
     </row>
     <row r="166" spans="2:10">
@@ -5848,13 +5845,13 @@
         <v>11</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>625</v>
+        <v>554</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
     </row>
     <row r="167" spans="2:10">
@@ -5868,13 +5865,13 @@
         <v>100</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>626</v>
+        <v>555</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
     </row>
     <row r="168" spans="2:10">
@@ -5888,13 +5885,13 @@
         <v>101</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>627</v>
+        <v>556</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>633</v>
+        <v>562</v>
       </c>
     </row>
     <row r="169" spans="2:10">
@@ -5931,14 +5928,14 @@
         <v>1000</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>634</v>
+        <v>563</v>
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="12" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
     </row>
     <row r="173" spans="2:10">
@@ -5952,14 +5949,14 @@
         <v>1001</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>635</v>
+        <v>564</v>
       </c>
       <c r="I173" s="11"/>
       <c r="J173" s="12" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="2:10">
@@ -5973,14 +5970,14 @@
         <v>1010</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>636</v>
+        <v>565</v>
       </c>
       <c r="I174" s="11"/>
       <c r="J174" s="12" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="2:10">
@@ -5994,14 +5991,14 @@
         <v>1011</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>637</v>
+        <v>566</v>
       </c>
       <c r="I175" s="11"/>
       <c r="J175" s="12" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
     </row>
     <row r="176" spans="2:10">
@@ -6015,14 +6012,14 @@
         <v>1100</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>638</v>
+        <v>567</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="12" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="2:10">
@@ -6036,14 +6033,14 @@
         <v>1101</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>639</v>
+        <v>568</v>
       </c>
       <c r="I177" s="11"/>
       <c r="J177" s="12" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
     </row>
     <row r="178" spans="2:10">
@@ -6091,13 +6088,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H182" s="9" t="s">
-        <v>94</v>
+        <v>415</v>
+      </c>
+      <c r="H182" s="13" t="s">
+        <v>534</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>646</v>
+        <v>575</v>
       </c>
     </row>
     <row r="183" spans="2:10">
@@ -6111,13 +6108,13 @@
         <v>10</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H183" s="9" t="s">
-        <v>95</v>
+        <v>415</v>
+      </c>
+      <c r="H183" s="13" t="s">
+        <v>535</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>647</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" spans="2:10">
@@ -6131,13 +6128,13 @@
         <v>11</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H184" s="9" t="s">
-        <v>21</v>
+        <v>415</v>
+      </c>
+      <c r="H184" s="13" t="s">
+        <v>551</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>648</v>
+        <v>577</v>
       </c>
     </row>
     <row r="185" spans="2:10">
@@ -6151,13 +6148,13 @@
         <v>100</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H185" s="9" t="s">
-        <v>96</v>
+        <v>415</v>
+      </c>
+      <c r="H185" s="13" t="s">
+        <v>552</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>649</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186" spans="2:10">
@@ -6171,13 +6168,13 @@
         <v>101</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H186" s="9" t="s">
-        <v>97</v>
+        <v>415</v>
+      </c>
+      <c r="H186" s="13" t="s">
+        <v>553</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>650</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="2:10">
@@ -6214,14 +6211,14 @@
         <v>1000</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>604</v>
+        <v>533</v>
       </c>
       <c r="I190" s="11"/>
       <c r="J190" s="12" t="s">
-        <v>651</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="2:10">
@@ -6235,14 +6232,14 @@
         <v>1001</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="I191" s="11"/>
       <c r="J191" s="12" t="s">
-        <v>652</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="2:10">
@@ -6256,14 +6253,14 @@
         <v>1010</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>609</v>
+        <v>538</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="12" t="s">
-        <v>653</v>
+        <v>582</v>
       </c>
     </row>
     <row r="193" spans="2:10">
@@ -6277,14 +6274,14 @@
         <v>1011</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>610</v>
+        <v>539</v>
       </c>
       <c r="I193" s="11"/>
       <c r="J193" s="12" t="s">
-        <v>654</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="2:10">
@@ -6298,14 +6295,14 @@
         <v>1100</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="I194" s="11"/>
       <c r="J194" s="12" t="s">
-        <v>655</v>
+        <v>584</v>
       </c>
     </row>
     <row r="195" spans="2:10">
@@ -6319,14 +6316,14 @@
         <v>1101</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>612</v>
+        <v>541</v>
       </c>
       <c r="I195" s="11"/>
       <c r="J195" s="12" t="s">
-        <v>656</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196" spans="2:10">
@@ -6362,15 +6359,6 @@
       <c r="E199" s="8">
         <v>0</v>
       </c>
-      <c r="G199" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H199" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J199" s="12" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="200" spans="2:10">
       <c r="B200" s="1" t="s">
@@ -6382,14 +6370,15 @@
       <c r="E200" s="8">
         <v>1</v>
       </c>
-      <c r="G200" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H200" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="G200" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H200" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="I200" s="13"/>
       <c r="J200" s="12" t="s">
-        <v>395</v>
+        <v>586</v>
       </c>
     </row>
     <row r="201" spans="2:10">
@@ -6402,14 +6391,15 @@
       <c r="E201" s="8">
         <v>10</v>
       </c>
-      <c r="G201" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H201" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="G201" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H201" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="I201" s="13"/>
       <c r="J201" s="12" t="s">
-        <v>396</v>
+        <v>587</v>
       </c>
     </row>
     <row r="202" spans="2:10">
@@ -6422,14 +6412,15 @@
       <c r="E202" s="8">
         <v>11</v>
       </c>
-      <c r="G202" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H202" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="G202" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H202" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="I202" s="13"/>
       <c r="J202" s="12" t="s">
-        <v>397</v>
+        <v>588</v>
       </c>
     </row>
     <row r="203" spans="2:10">
@@ -6442,14 +6433,15 @@
       <c r="E203" s="8">
         <v>100</v>
       </c>
-      <c r="G203" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H203" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="G203" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H203" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="I203" s="13"/>
       <c r="J203" s="12" t="s">
-        <v>398</v>
+        <v>589</v>
       </c>
     </row>
     <row r="204" spans="2:10">
@@ -6462,14 +6454,15 @@
       <c r="E204" s="8">
         <v>101</v>
       </c>
-      <c r="G204" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H204" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="G204" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H204" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I204" s="13"/>
       <c r="J204" s="12" t="s">
-        <v>399</v>
+        <v>590</v>
       </c>
     </row>
     <row r="205" spans="2:10">
@@ -6482,12 +6475,6 @@
       <c r="E205" s="8">
         <v>110</v>
       </c>
-      <c r="G205" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H205" s="9" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="206" spans="2:10">
       <c r="B206" s="1" t="s">
@@ -6498,12 +6485,6 @@
       </c>
       <c r="E206" s="8">
         <v>111</v>
-      </c>
-      <c r="G206" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H206" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="207" spans="2:10" ht="6.75" customHeight="1"/>
@@ -6517,14 +6498,15 @@
       <c r="E208" s="8">
         <v>1000</v>
       </c>
-      <c r="G208" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H208" s="9" t="s">
-        <v>390</v>
-      </c>
+      <c r="G208" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H208" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="I208" s="13"/>
       <c r="J208" s="12" t="s">
-        <v>403</v>
+        <v>591</v>
       </c>
     </row>
     <row r="209" spans="2:10">
@@ -6537,14 +6519,15 @@
       <c r="E209" s="8">
         <v>1001</v>
       </c>
-      <c r="G209" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H209" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="G209" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H209" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="I209" s="13"/>
       <c r="J209" s="12" t="s">
-        <v>404</v>
+        <v>592</v>
       </c>
     </row>
     <row r="210" spans="2:10">
@@ -6557,14 +6540,15 @@
       <c r="E210" s="8">
         <v>1010</v>
       </c>
-      <c r="G210" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H210" s="9" t="s">
-        <v>392</v>
-      </c>
+      <c r="G210" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H210" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="I210" s="13"/>
       <c r="J210" s="12" t="s">
-        <v>405</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211" spans="2:10">
@@ -6577,14 +6561,15 @@
       <c r="E211" s="8">
         <v>1011</v>
       </c>
-      <c r="G211" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H211" s="9" t="s">
-        <v>393</v>
-      </c>
+      <c r="G211" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H211" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="I211" s="13"/>
       <c r="J211" s="12" t="s">
-        <v>406</v>
+        <v>594</v>
       </c>
     </row>
     <row r="212" spans="2:10">
@@ -6597,14 +6582,15 @@
       <c r="E212" s="8">
         <v>1100</v>
       </c>
-      <c r="G212" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H212" s="9" t="s">
-        <v>282</v>
-      </c>
+      <c r="G212" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H212" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="I212" s="13"/>
       <c r="J212" s="12" t="s">
-        <v>402</v>
+        <v>595</v>
       </c>
     </row>
     <row r="213" spans="2:10">
@@ -6617,14 +6603,15 @@
       <c r="E213" s="8">
         <v>1101</v>
       </c>
-      <c r="G213" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H213" s="9" t="s">
-        <v>283</v>
-      </c>
+      <c r="G213" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H213" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="I213" s="13"/>
       <c r="J213" s="12" t="s">
-        <v>401</v>
+        <v>596</v>
       </c>
     </row>
     <row r="214" spans="2:10">
@@ -6637,15 +6624,6 @@
       <c r="E214" s="8">
         <v>1110</v>
       </c>
-      <c r="G214" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H214" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="J214" s="12" t="s">
-        <v>400</v>
-      </c>
     </row>
     <row r="215" spans="2:10">
       <c r="B215" s="1" t="s">
@@ -6656,12 +6634,6 @@
       </c>
       <c r="E215" s="8">
         <v>1111</v>
-      </c>
-      <c r="G215" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H215" s="9" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="216" spans="2:10" ht="6.75" customHeight="1"/>
@@ -6675,14 +6647,14 @@
       <c r="E217" s="8">
         <v>0</v>
       </c>
-      <c r="G217" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="H217" s="9" t="s">
-        <v>93</v>
+      <c r="G217" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H217" s="13" t="s">
+        <v>603</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>407</v>
+        <v>627</v>
       </c>
     </row>
     <row r="218" spans="2:10">
@@ -6695,14 +6667,14 @@
       <c r="E218" s="8">
         <v>1</v>
       </c>
-      <c r="G218" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H218" s="9" t="s">
-        <v>94</v>
+      <c r="G218" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H218" s="13" t="s">
+        <v>604</v>
       </c>
       <c r="J218" s="12" t="s">
-        <v>408</v>
+        <v>628</v>
       </c>
     </row>
     <row r="219" spans="2:10">
@@ -6715,14 +6687,14 @@
       <c r="E219" s="8">
         <v>10</v>
       </c>
-      <c r="G219" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H219" s="9" t="s">
-        <v>95</v>
+      <c r="G219" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H219" s="13" t="s">
+        <v>605</v>
       </c>
       <c r="J219" s="12" t="s">
-        <v>409</v>
+        <v>629</v>
       </c>
     </row>
     <row r="220" spans="2:10">
@@ -6735,14 +6707,14 @@
       <c r="E220" s="8">
         <v>11</v>
       </c>
-      <c r="G220" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H220" s="9" t="s">
-        <v>21</v>
+      <c r="G220" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H220" s="13" t="s">
+        <v>606</v>
       </c>
       <c r="J220" s="12" t="s">
-        <v>410</v>
+        <v>630</v>
       </c>
     </row>
     <row r="221" spans="2:10">
@@ -6755,14 +6727,14 @@
       <c r="E221" s="8">
         <v>100</v>
       </c>
-      <c r="G221" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H221" s="9" t="s">
-        <v>96</v>
+      <c r="G221" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H221" s="13" t="s">
+        <v>607</v>
       </c>
       <c r="J221" s="12" t="s">
-        <v>411</v>
+        <v>631</v>
       </c>
     </row>
     <row r="222" spans="2:10">
@@ -6775,14 +6747,14 @@
       <c r="E222" s="8">
         <v>101</v>
       </c>
-      <c r="G222" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H222" s="9" t="s">
-        <v>97</v>
+      <c r="G222" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H222" s="13" t="s">
+        <v>608</v>
       </c>
       <c r="J222" s="12" t="s">
-        <v>412</v>
+        <v>632</v>
       </c>
     </row>
     <row r="223" spans="2:10">
@@ -6795,12 +6767,8 @@
       <c r="E223" s="8">
         <v>110</v>
       </c>
-      <c r="G223" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H223" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="G223" s="13"/>
+      <c r="H223" s="13"/>
     </row>
     <row r="224" spans="2:10">
       <c r="B224" s="1" t="s">
@@ -6812,14 +6780,13 @@
       <c r="E224" s="8">
         <v>111</v>
       </c>
-      <c r="G224" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H224" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="225" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="13"/>
+    </row>
+    <row r="225" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G225" s="13"/>
+      <c r="H225" s="13"/>
+    </row>
     <row r="226" spans="2:10">
       <c r="B226" s="1" t="s">
         <v>179</v>
@@ -6830,14 +6797,14 @@
       <c r="E226" s="8">
         <v>1000</v>
       </c>
-      <c r="G226" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H226" s="9" t="s">
-        <v>390</v>
+      <c r="G226" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H226" s="13" t="s">
+        <v>609</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>413</v>
+        <v>633</v>
       </c>
     </row>
     <row r="227" spans="2:10">
@@ -6850,14 +6817,14 @@
       <c r="E227" s="8">
         <v>1001</v>
       </c>
-      <c r="G227" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H227" s="9" t="s">
-        <v>391</v>
+      <c r="G227" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H227" s="13" t="s">
+        <v>610</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>414</v>
+        <v>634</v>
       </c>
     </row>
     <row r="228" spans="2:10">
@@ -6870,14 +6837,14 @@
       <c r="E228" s="8">
         <v>1010</v>
       </c>
-      <c r="G228" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H228" s="9" t="s">
-        <v>392</v>
+      <c r="G228" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H228" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="J228" s="12" t="s">
-        <v>415</v>
+        <v>635</v>
       </c>
     </row>
     <row r="229" spans="2:10">
@@ -6890,14 +6857,14 @@
       <c r="E229" s="8">
         <v>1011</v>
       </c>
-      <c r="G229" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H229" s="9" t="s">
-        <v>393</v>
+      <c r="G229" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H229" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>416</v>
+        <v>636</v>
       </c>
     </row>
     <row r="230" spans="2:10">
@@ -6910,14 +6877,14 @@
       <c r="E230" s="8">
         <v>1100</v>
       </c>
-      <c r="G230" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H230" s="9" t="s">
-        <v>282</v>
+      <c r="G230" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H230" s="13" t="s">
+        <v>613</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>417</v>
+        <v>637</v>
       </c>
     </row>
     <row r="231" spans="2:10">
@@ -6930,14 +6897,14 @@
       <c r="E231" s="8">
         <v>1101</v>
       </c>
-      <c r="G231" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H231" s="9" t="s">
-        <v>283</v>
+      <c r="G231" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H231" s="13" t="s">
+        <v>614</v>
       </c>
       <c r="J231" s="12" t="s">
-        <v>418</v>
+        <v>638</v>
       </c>
     </row>
     <row r="232" spans="2:10">
@@ -6950,15 +6917,8 @@
       <c r="E232" s="8">
         <v>1110</v>
       </c>
-      <c r="G232" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H232" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="J232" s="12" t="s">
-        <v>419</v>
-      </c>
+      <c r="G232" s="13"/>
+      <c r="H232" s="13"/>
     </row>
     <row r="233" spans="2:10">
       <c r="B233" s="1" t="s">
@@ -6970,15 +6930,12 @@
       <c r="E233" s="8">
         <v>1111</v>
       </c>
-      <c r="G233" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H233" s="9" t="s">
-        <v>389</v>
-      </c>
+      <c r="G233" s="13"/>
+      <c r="H233" s="13"/>
     </row>
     <row r="234" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G234" s="11"/>
+      <c r="G234" s="13"/>
+      <c r="H234" s="13"/>
     </row>
     <row r="235" spans="2:10">
       <c r="B235" s="1" t="s">
@@ -6990,14 +6947,14 @@
       <c r="E235" s="8">
         <v>0</v>
       </c>
-      <c r="G235" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H235" s="9" t="s">
-        <v>93</v>
+      <c r="G235" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H235" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="J235" s="12" t="s">
-        <v>420</v>
+        <v>639</v>
       </c>
     </row>
     <row r="236" spans="2:10">
@@ -7010,14 +6967,14 @@
       <c r="E236" s="8">
         <v>1</v>
       </c>
-      <c r="G236" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H236" s="9" t="s">
-        <v>94</v>
+      <c r="G236" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H236" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="J236" s="12" t="s">
-        <v>421</v>
+        <v>640</v>
       </c>
     </row>
     <row r="237" spans="2:10">
@@ -7030,14 +6987,14 @@
       <c r="E237" s="8">
         <v>10</v>
       </c>
-      <c r="G237" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H237" s="9" t="s">
-        <v>95</v>
+      <c r="G237" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H237" s="13" t="s">
+        <v>617</v>
       </c>
       <c r="J237" s="12" t="s">
-        <v>422</v>
+        <v>641</v>
       </c>
     </row>
     <row r="238" spans="2:10">
@@ -7050,14 +7007,14 @@
       <c r="E238" s="8">
         <v>11</v>
       </c>
-      <c r="G238" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H238" s="9" t="s">
-        <v>21</v>
+      <c r="G238" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H238" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="J238" s="12" t="s">
-        <v>423</v>
+        <v>642</v>
       </c>
     </row>
     <row r="239" spans="2:10">
@@ -7070,14 +7027,14 @@
       <c r="E239" s="8">
         <v>100</v>
       </c>
-      <c r="G239" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H239" s="9" t="s">
-        <v>96</v>
+      <c r="G239" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H239" s="13" t="s">
+        <v>619</v>
       </c>
       <c r="J239" s="12" t="s">
-        <v>424</v>
+        <v>643</v>
       </c>
     </row>
     <row r="240" spans="2:10">
@@ -7090,14 +7047,14 @@
       <c r="E240" s="8">
         <v>101</v>
       </c>
-      <c r="G240" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H240" s="9" t="s">
-        <v>97</v>
+      <c r="G240" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H240" s="13" t="s">
+        <v>620</v>
       </c>
       <c r="J240" s="12" t="s">
-        <v>425</v>
+        <v>562</v>
       </c>
     </row>
     <row r="241" spans="2:10">
@@ -7110,12 +7067,8 @@
       <c r="E241" s="8">
         <v>110</v>
       </c>
-      <c r="G241" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H241" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="G241" s="13"/>
+      <c r="H241" s="13"/>
     </row>
     <row r="242" spans="2:10">
       <c r="B242" s="1" t="s">
@@ -7127,14 +7080,13 @@
       <c r="E242" s="8">
         <v>111</v>
       </c>
-      <c r="G242" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H242" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="243" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G242" s="13"/>
+      <c r="H242" s="13"/>
+    </row>
+    <row r="243" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G243" s="13"/>
+      <c r="H243" s="13"/>
+    </row>
     <row r="244" spans="2:10">
       <c r="B244" s="1" t="s">
         <v>196</v>
@@ -7145,14 +7097,14 @@
       <c r="E244" s="8">
         <v>1000</v>
       </c>
-      <c r="G244" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H244" s="9" t="s">
-        <v>390</v>
+      <c r="G244" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H244" s="13" t="s">
+        <v>621</v>
       </c>
       <c r="J244" s="12" t="s">
-        <v>426</v>
+        <v>644</v>
       </c>
     </row>
     <row r="245" spans="2:10">
@@ -7165,14 +7117,14 @@
       <c r="E245" s="8">
         <v>1001</v>
       </c>
-      <c r="G245" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H245" s="9" t="s">
-        <v>391</v>
+      <c r="G245" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H245" s="13" t="s">
+        <v>622</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>427</v>
+        <v>645</v>
       </c>
     </row>
     <row r="246" spans="2:10">
@@ -7185,14 +7137,14 @@
       <c r="E246" s="8">
         <v>1010</v>
       </c>
-      <c r="G246" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H246" s="9" t="s">
-        <v>392</v>
+      <c r="G246" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H246" s="13" t="s">
+        <v>623</v>
       </c>
       <c r="J246" s="12" t="s">
-        <v>428</v>
+        <v>646</v>
       </c>
     </row>
     <row r="247" spans="2:10">
@@ -7205,14 +7157,14 @@
       <c r="E247" s="8">
         <v>1011</v>
       </c>
-      <c r="G247" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H247" s="9" t="s">
-        <v>393</v>
+      <c r="G247" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H247" s="13" t="s">
+        <v>624</v>
       </c>
       <c r="J247" s="12" t="s">
-        <v>429</v>
+        <v>647</v>
       </c>
     </row>
     <row r="248" spans="2:10">
@@ -7225,14 +7177,14 @@
       <c r="E248" s="8">
         <v>1100</v>
       </c>
-      <c r="G248" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H248" s="9" t="s">
-        <v>282</v>
+      <c r="G248" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H248" s="13" t="s">
+        <v>625</v>
       </c>
       <c r="J248" s="12" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
     </row>
     <row r="249" spans="2:10">
@@ -7245,14 +7197,14 @@
       <c r="E249" s="8">
         <v>1101</v>
       </c>
-      <c r="G249" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H249" s="9" t="s">
-        <v>283</v>
+      <c r="G249" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H249" s="13" t="s">
+        <v>626</v>
       </c>
       <c r="J249" s="12" t="s">
-        <v>431</v>
+        <v>649</v>
       </c>
     </row>
     <row r="250" spans="2:10">
@@ -7265,15 +7217,8 @@
       <c r="E250" s="8">
         <v>1110</v>
       </c>
-      <c r="G250" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H250" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="J250" s="12" t="s">
-        <v>432</v>
-      </c>
+      <c r="G250" s="13"/>
+      <c r="H250" s="13"/>
     </row>
     <row r="251" spans="2:10">
       <c r="B251" s="1" t="s">
@@ -7285,14 +7230,13 @@
       <c r="E251" s="8">
         <v>1111</v>
       </c>
-      <c r="G251" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H251" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="252" spans="2:10" ht="7.5" customHeight="1"/>
+      <c r="G251" s="13"/>
+      <c r="H251" s="13"/>
+    </row>
+    <row r="252" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G252" s="13"/>
+      <c r="H252" s="13"/>
+    </row>
     <row r="253" spans="2:10">
       <c r="B253" s="1" t="s">
         <v>204</v>
@@ -7303,15 +7247,8 @@
       <c r="E253" s="8">
         <v>0</v>
       </c>
-      <c r="G253" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H253" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J253" s="12" t="s">
-        <v>433</v>
-      </c>
+      <c r="G253" s="13"/>
+      <c r="H253" s="13"/>
     </row>
     <row r="254" spans="2:10">
       <c r="B254" s="1" t="s">
@@ -7323,14 +7260,14 @@
       <c r="E254" s="8">
         <v>1</v>
       </c>
-      <c r="G254" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H254" s="9" t="s">
-        <v>94</v>
+      <c r="G254" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H254" s="13" t="s">
+        <v>604</v>
       </c>
       <c r="J254" s="12" t="s">
-        <v>434</v>
+        <v>650</v>
       </c>
     </row>
     <row r="255" spans="2:10">
@@ -7343,14 +7280,14 @@
       <c r="E255" s="8">
         <v>10</v>
       </c>
-      <c r="G255" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H255" s="9" t="s">
-        <v>95</v>
+      <c r="G255" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H255" s="13" t="s">
+        <v>605</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>435</v>
+        <v>651</v>
       </c>
     </row>
     <row r="256" spans="2:10">
@@ -7363,14 +7300,14 @@
       <c r="E256" s="8">
         <v>11</v>
       </c>
-      <c r="G256" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H256" s="9" t="s">
-        <v>21</v>
+      <c r="G256" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H256" s="13" t="s">
+        <v>606</v>
       </c>
       <c r="J256" s="12" t="s">
-        <v>436</v>
+        <v>652</v>
       </c>
     </row>
     <row r="257" spans="2:10">
@@ -7383,14 +7320,14 @@
       <c r="E257" s="8">
         <v>100</v>
       </c>
-      <c r="G257" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H257" s="9" t="s">
-        <v>96</v>
+      <c r="G257" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H257" s="13" t="s">
+        <v>607</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>437</v>
+        <v>653</v>
       </c>
     </row>
     <row r="258" spans="2:10">
@@ -7403,14 +7340,14 @@
       <c r="E258" s="8">
         <v>101</v>
       </c>
-      <c r="G258" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H258" s="9" t="s">
-        <v>97</v>
+      <c r="G258" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H258" s="13" t="s">
+        <v>608</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>438</v>
+        <v>654</v>
       </c>
     </row>
     <row r="259" spans="2:10">
@@ -7423,12 +7360,8 @@
       <c r="E259" s="8">
         <v>110</v>
       </c>
-      <c r="G259" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H259" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="G259" s="13"/>
+      <c r="H259" s="13"/>
     </row>
     <row r="260" spans="2:10">
       <c r="B260" s="1" t="s">
@@ -7440,14 +7373,13 @@
       <c r="E260" s="8">
         <v>111</v>
       </c>
-      <c r="G260" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H260" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="261" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G260" s="13"/>
+      <c r="H260" s="13"/>
+    </row>
+    <row r="261" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G261" s="13"/>
+      <c r="H261" s="13"/>
+    </row>
     <row r="262" spans="2:10">
       <c r="B262" s="1" t="s">
         <v>213</v>
@@ -7458,14 +7390,14 @@
       <c r="E262" s="8">
         <v>1000</v>
       </c>
-      <c r="G262" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H262" s="9" t="s">
-        <v>390</v>
+      <c r="G262" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H262" s="13" t="s">
+        <v>609</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>439</v>
+        <v>655</v>
       </c>
     </row>
     <row r="263" spans="2:10">
@@ -7478,14 +7410,14 @@
       <c r="E263" s="8">
         <v>1001</v>
       </c>
-      <c r="G263" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H263" s="9" t="s">
-        <v>391</v>
+      <c r="G263" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H263" s="13" t="s">
+        <v>610</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>440</v>
+        <v>656</v>
       </c>
     </row>
     <row r="264" spans="2:10">
@@ -7498,14 +7430,14 @@
       <c r="E264" s="8">
         <v>1010</v>
       </c>
-      <c r="G264" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H264" s="9" t="s">
-        <v>392</v>
+      <c r="G264" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H264" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="J264" s="12" t="s">
-        <v>441</v>
+        <v>657</v>
       </c>
     </row>
     <row r="265" spans="2:10">
@@ -7518,14 +7450,14 @@
       <c r="E265" s="8">
         <v>1011</v>
       </c>
-      <c r="G265" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H265" s="9" t="s">
-        <v>393</v>
+      <c r="G265" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H265" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="J265" s="12" t="s">
-        <v>442</v>
+        <v>658</v>
       </c>
     </row>
     <row r="266" spans="2:10">
@@ -7538,14 +7470,14 @@
       <c r="E266" s="8">
         <v>1100</v>
       </c>
-      <c r="G266" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H266" s="9" t="s">
-        <v>282</v>
+      <c r="G266" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H266" s="13" t="s">
+        <v>613</v>
       </c>
       <c r="J266" s="12" t="s">
-        <v>443</v>
+        <v>659</v>
       </c>
     </row>
     <row r="267" spans="2:10">
@@ -7558,14 +7490,14 @@
       <c r="E267" s="8">
         <v>1101</v>
       </c>
-      <c r="G267" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H267" s="9" t="s">
-        <v>283</v>
+      <c r="G267" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H267" s="13" t="s">
+        <v>614</v>
       </c>
       <c r="J267" s="12" t="s">
-        <v>444</v>
+        <v>660</v>
       </c>
     </row>
     <row r="268" spans="2:10">
@@ -7578,15 +7510,8 @@
       <c r="E268" s="8">
         <v>1110</v>
       </c>
-      <c r="G268" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H268" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="J268" s="12" t="s">
-        <v>445</v>
-      </c>
+      <c r="G268" s="13"/>
+      <c r="H268" s="13"/>
     </row>
     <row r="269" spans="2:10">
       <c r="B269" s="1" t="s">
@@ -7598,14 +7523,13 @@
       <c r="E269" s="8">
         <v>1111</v>
       </c>
-      <c r="G269" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H269" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="270" spans="2:10" ht="7.5" customHeight="1"/>
+      <c r="G269" s="13"/>
+      <c r="H269" s="13"/>
+    </row>
+    <row r="270" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G270" s="13"/>
+      <c r="H270" s="13"/>
+    </row>
     <row r="271" spans="2:10">
       <c r="B271" s="1" t="s">
         <v>221</v>
@@ -7616,15 +7540,8 @@
       <c r="E271" s="8">
         <v>0</v>
       </c>
-      <c r="G271" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H271" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J271" s="12" t="s">
-        <v>446</v>
-      </c>
+      <c r="G271" s="13"/>
+      <c r="H271" s="13"/>
     </row>
     <row r="272" spans="2:10">
       <c r="B272" s="1" t="s">
@@ -7636,14 +7553,14 @@
       <c r="E272" s="8">
         <v>1</v>
       </c>
-      <c r="G272" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H272" s="9" t="s">
-        <v>94</v>
+      <c r="G272" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H272" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="J272" s="12" t="s">
-        <v>447</v>
+        <v>661</v>
       </c>
     </row>
     <row r="273" spans="2:10">
@@ -7656,14 +7573,14 @@
       <c r="E273" s="8">
         <v>10</v>
       </c>
-      <c r="G273" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H273" s="9" t="s">
-        <v>95</v>
+      <c r="G273" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H273" s="13" t="s">
+        <v>617</v>
       </c>
       <c r="J273" s="12" t="s">
-        <v>448</v>
+        <v>662</v>
       </c>
     </row>
     <row r="274" spans="2:10">
@@ -7676,14 +7593,14 @@
       <c r="E274" s="8">
         <v>11</v>
       </c>
-      <c r="G274" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H274" s="9" t="s">
-        <v>21</v>
+      <c r="G274" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H274" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="J274" s="12" t="s">
-        <v>449</v>
+        <v>663</v>
       </c>
     </row>
     <row r="275" spans="2:10">
@@ -7696,14 +7613,14 @@
       <c r="E275" s="8">
         <v>100</v>
       </c>
-      <c r="G275" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H275" s="9" t="s">
-        <v>96</v>
+      <c r="G275" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H275" s="13" t="s">
+        <v>619</v>
       </c>
       <c r="J275" s="12" t="s">
-        <v>450</v>
+        <v>664</v>
       </c>
     </row>
     <row r="276" spans="2:10">
@@ -7716,14 +7633,14 @@
       <c r="E276" s="8">
         <v>101</v>
       </c>
-      <c r="G276" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H276" s="9" t="s">
-        <v>97</v>
+      <c r="G276" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H276" s="13" t="s">
+        <v>620</v>
       </c>
       <c r="J276" s="12" t="s">
-        <v>451</v>
+        <v>665</v>
       </c>
     </row>
     <row r="277" spans="2:10">
@@ -7736,12 +7653,8 @@
       <c r="E277" s="8">
         <v>110</v>
       </c>
-      <c r="G277" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H277" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="G277" s="13"/>
+      <c r="H277" s="13"/>
     </row>
     <row r="278" spans="2:10">
       <c r="B278" s="1" t="s">
@@ -7753,14 +7666,13 @@
       <c r="E278" s="8">
         <v>111</v>
       </c>
-      <c r="G278" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H278" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="279" spans="2:10" ht="7.5" customHeight="1"/>
+      <c r="G278" s="13"/>
+      <c r="H278" s="13"/>
+    </row>
+    <row r="279" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G279" s="13"/>
+      <c r="H279" s="13"/>
+    </row>
     <row r="280" spans="2:10">
       <c r="B280" s="1" t="s">
         <v>230</v>
@@ -7771,14 +7683,14 @@
       <c r="E280" s="8">
         <v>1000</v>
       </c>
-      <c r="G280" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H280" s="9" t="s">
-        <v>390</v>
+      <c r="G280" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H280" s="13" t="s">
+        <v>621</v>
       </c>
       <c r="J280" s="12" t="s">
-        <v>452</v>
+        <v>666</v>
       </c>
     </row>
     <row r="281" spans="2:10">
@@ -7791,14 +7703,14 @@
       <c r="E281" s="8">
         <v>1001</v>
       </c>
-      <c r="G281" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H281" s="9" t="s">
-        <v>391</v>
+      <c r="G281" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H281" s="13" t="s">
+        <v>622</v>
       </c>
       <c r="J281" s="12" t="s">
-        <v>453</v>
+        <v>667</v>
       </c>
     </row>
     <row r="282" spans="2:10">
@@ -7811,14 +7723,14 @@
       <c r="E282" s="8">
         <v>1010</v>
       </c>
-      <c r="G282" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H282" s="9" t="s">
-        <v>392</v>
+      <c r="G282" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H282" s="13" t="s">
+        <v>623</v>
       </c>
       <c r="J282" s="12" t="s">
-        <v>454</v>
+        <v>668</v>
       </c>
     </row>
     <row r="283" spans="2:10">
@@ -7831,14 +7743,14 @@
       <c r="E283" s="8">
         <v>1011</v>
       </c>
-      <c r="G283" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H283" s="9" t="s">
-        <v>393</v>
+      <c r="G283" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H283" s="13" t="s">
+        <v>624</v>
       </c>
       <c r="J283" s="12" t="s">
-        <v>455</v>
+        <v>669</v>
       </c>
     </row>
     <row r="284" spans="2:10">
@@ -7851,14 +7763,14 @@
       <c r="E284" s="8">
         <v>1100</v>
       </c>
-      <c r="G284" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H284" s="9" t="s">
-        <v>282</v>
+      <c r="G284" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H284" s="13" t="s">
+        <v>625</v>
       </c>
       <c r="J284" s="12" t="s">
-        <v>456</v>
+        <v>670</v>
       </c>
     </row>
     <row r="285" spans="2:10">
@@ -7871,14 +7783,14 @@
       <c r="E285" s="8">
         <v>1101</v>
       </c>
-      <c r="G285" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H285" s="9" t="s">
-        <v>283</v>
+      <c r="G285" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H285" s="13" t="s">
+        <v>626</v>
       </c>
       <c r="J285" s="12" t="s">
-        <v>457</v>
+        <v>671</v>
       </c>
     </row>
     <row r="286" spans="2:10">
@@ -7891,15 +7803,8 @@
       <c r="E286" s="8">
         <v>1110</v>
       </c>
-      <c r="G286" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H286" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="J286" s="12" t="s">
-        <v>458</v>
-      </c>
+      <c r="G286" s="13"/>
+      <c r="H286" s="13"/>
     </row>
     <row r="287" spans="2:10">
       <c r="B287" s="1" t="s">
@@ -7911,21 +7816,17 @@
       <c r="E287" s="8">
         <v>1111</v>
       </c>
-      <c r="G287" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H287" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
+      <c r="G287" s="13"/>
+      <c r="H287" s="13"/>
+    </row>
+    <row r="288" spans="2:10" ht="6.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup scale="50" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7944,7 +7845,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="11" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -7959,103 +7860,103 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="11" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="11" t="s">
-        <v>460</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="11" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="11" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="11" t="s">
-        <v>463</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="11" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="11" t="s">
-        <v>465</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="11" t="s">
-        <v>466</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="11" t="s">
-        <v>467</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="11" t="s">
-        <v>468</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="7.5" customHeight="1"/>
     <row r="20" spans="2:2">
       <c r="B20" s="11" t="s">
-        <v>469</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="11" t="s">
-        <v>470</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="11" t="s">
-        <v>471</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="11" t="s">
-        <v>472</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="11" t="s">
-        <v>473</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="11" t="s">
-        <v>474</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="11" t="s">
-        <v>475</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="11" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="11" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="11" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="7.5" customHeight="1"/>
@@ -8133,12 +8034,12 @@
     <row r="50" spans="2:2" ht="7.5" customHeight="1"/>
     <row r="51" spans="2:2">
       <c r="B51" s="11" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="11" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="2:2">
@@ -8153,7 +8054,7 @@
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="11" t="s">
-        <v>487</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -8166,8 +8067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6264BB0-DA78-4BBE-9FB6-FCD05C9A8851}">
   <dimension ref="B2:AK254"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8214,10 +8115,10 @@
       <c r="B2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="15"/>
       <c r="G2" s="3" t="s">
         <v>240</v>
       </c>
@@ -8230,19 +8131,19 @@
       <c r="L2" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="2:37">
       <c r="B3" s="1">
@@ -8263,21 +8164,21 @@
       <c r="L3" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="W3" s="14" t="s">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="W3" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="AA3" s="15" t="s">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="AA3" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="2:37">
       <c r="B4" s="1">
@@ -8568,19 +8469,19 @@
       <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="3"/>
@@ -8603,19 +8504,19 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
@@ -8672,27 +8573,27 @@
       <c r="G17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="3"/>
@@ -8711,31 +8612,31 @@
       <c r="G18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="S18" s="13" t="s">
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="S18" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="W18" s="14" t="s">
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="W18" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="AA18" s="14" t="s">
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="AA18" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AE18" s="15" t="s">
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AE18" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="3"/>

--- a/Computer/OpCodes.xlsx
+++ b/Computer/OpCodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22E8D35-B904-4BF2-9EA7-A6064D21BEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C09532-EE25-4406-8F1E-4439414506C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="695">
   <si>
     <t>hlt</t>
   </si>
@@ -1469,78 +1469,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mov</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set the sign flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear the sign flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set the interrupt flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear the interrupt flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fsn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fcn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fsi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fci</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fca</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear all flags</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set the carry flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear the carry flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ret</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reti</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Return from function</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Return from interrupt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Delay 4.5ms</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1557,14 +1489,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bns</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bnc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Branch if negative set</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1581,10 +1505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>blt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Branch if less than</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1617,18 +1537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bs1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bs2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bs3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Branch if sense switch 1 is set</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1641,10 +1549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bs4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Branch if sense switch 4 is set</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1733,10 +1637,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>inc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1745,10 +1645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dec</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Decrement full word of implicit RT register</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1889,14 +1785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>st</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>syscall</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Call interrupt level 15</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1929,10 +1817,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ld</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AL, [AX]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2309,10 +2193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Load immediate address into byte ofBL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Load direct address into byte of BL register</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2487,6 +2367,185 @@
   <si>
     <t>Store word from BX register to memory address stored in SP</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load immediate address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set the overFlow flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear the overFlow flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set the Link/carry flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear the Link/carry flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HLT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FSF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FCF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FSI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FCI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set the interrupt flag (unsure)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear the interrupt flag (unsure)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toggle? Invert Link?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RETI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from interrupt (unsure, return if carry maybe?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DLY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BCS</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>BNS</t>
+  </si>
+  <si>
+    <t>BNC</t>
+  </si>
+  <si>
+    <t>BZS</t>
+  </si>
+  <si>
+    <t>BZC</t>
+  </si>
+  <si>
+    <t>BLT</t>
+  </si>
+  <si>
+    <t>BGE</t>
+  </si>
+  <si>
+    <t>BGT</t>
+  </si>
+  <si>
+    <t>BLE</t>
+  </si>
+  <si>
+    <t>BS1</t>
+  </si>
+  <si>
+    <t>BS2</t>
+  </si>
+  <si>
+    <t>BS3</t>
+  </si>
+  <si>
+    <t>BS4</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>RRC</t>
+  </si>
+  <si>
+    <t>RLC</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>JUMP</t>
+  </si>
+  <si>
+    <t>SYSCALL</t>
+  </si>
+  <si>
+    <t>CALL</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2557,7 @@
     <numFmt numFmtId="177" formatCode="0000"/>
     <numFmt numFmtId="178" formatCode="000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2513,6 +2572,19 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2537,7 +2609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2591,6 +2663,12 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2977,8 +3055,8 @@
   </sheetPr>
   <dimension ref="B2:N288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J286" sqref="J286"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3030,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>315</v>
+        <v>647</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>346</v>
@@ -3050,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>316</v>
+        <v>648</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>347</v>
@@ -3070,10 +3148,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>422</v>
+        <v>649</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>418</v>
+        <v>643</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>410</v>
@@ -3090,10 +3168,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>423</v>
+        <v>650</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>419</v>
+        <v>644</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>350</v>
@@ -3110,10 +3188,10 @@
         <v>100</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>424</v>
+        <v>651</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>420</v>
+        <v>653</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>409</v>
@@ -3130,10 +3208,10 @@
         <v>101</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>425</v>
+        <v>652</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>421</v>
+        <v>654</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>283</v>
@@ -3153,10 +3231,10 @@
         <v>110</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>390</v>
+        <v>655</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>428</v>
+        <v>645</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>411</v>
@@ -3173,10 +3251,10 @@
         <v>111</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>394</v>
+        <v>656</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>429</v>
+        <v>646</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>412</v>
@@ -3193,10 +3271,10 @@
         <v>1000</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>427</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -3210,10 +3288,10 @@
         <v>1001</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="N12" s="8"/>
     </row>
@@ -3228,10 +3306,10 @@
         <v>1010</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>431</v>
+        <v>659</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>433</v>
+        <v>660</v>
       </c>
       <c r="N13" s="8"/>
     </row>
@@ -3246,7 +3324,7 @@
         <v>1011</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="N14" s="8"/>
     </row>
@@ -3261,7 +3339,7 @@
         <v>1100</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="N15" s="8"/>
     </row>
@@ -3276,7 +3354,7 @@
         <v>1101</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="N16" s="8"/>
     </row>
@@ -3291,10 +3369,10 @@
         <v>1110</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>434</v>
+        <v>661</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="N17" s="8"/>
     </row>
@@ -3309,7 +3387,7 @@
         <v>1111</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="N18" s="8"/>
     </row>
@@ -3326,14 +3404,14 @@
       <c r="E20" s="8">
         <v>0</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>399</v>
+      <c r="G20" s="18" t="s">
+        <v>662</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="N20" s="8"/>
     </row>
@@ -3347,14 +3425,14 @@
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>400</v>
+      <c r="G21" s="18" t="s">
+        <v>663</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="N21" s="8"/>
     </row>
@@ -3368,14 +3446,14 @@
       <c r="E22" s="8">
         <v>10</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>439</v>
+      <c r="G22" s="18" t="s">
+        <v>664</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="N22" s="8"/>
     </row>
@@ -3389,14 +3467,14 @@
       <c r="E23" s="8">
         <v>11</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>440</v>
+      <c r="G23" s="18" t="s">
+        <v>665</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="N23" s="8"/>
     </row>
@@ -3410,14 +3488,14 @@
       <c r="E24" s="8">
         <v>100</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>403</v>
+      <c r="G24" s="18" t="s">
+        <v>666</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="N24" s="8"/>
     </row>
@@ -3431,14 +3509,14 @@
       <c r="E25" s="8">
         <v>101</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>404</v>
+      <c r="G25" s="18" t="s">
+        <v>667</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="N25" s="8"/>
     </row>
@@ -3452,14 +3530,14 @@
       <c r="E26" s="8">
         <v>110</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>445</v>
+      <c r="G26" s="18" t="s">
+        <v>668</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="N26" s="8"/>
     </row>
@@ -3473,14 +3551,14 @@
       <c r="E27" s="8">
         <v>111</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>406</v>
+      <c r="G27" s="18" t="s">
+        <v>669</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="N27" s="8"/>
     </row>
@@ -3494,14 +3572,14 @@
       <c r="E28" s="8">
         <v>1000</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>407</v>
+      <c r="G28" s="18" t="s">
+        <v>670</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="N28" s="8"/>
     </row>
@@ -3515,20 +3593,20 @@
       <c r="E29" s="8">
         <v>1001</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>408</v>
+      <c r="G29" s="18" t="s">
+        <v>671</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -3537,22 +3615,22 @@
         <v>1010</v>
       </c>
       <c r="F30" s="10"/>
-      <c r="G30" s="11" t="s">
-        <v>454</v>
+      <c r="G30" s="18" t="s">
+        <v>672</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="12" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="1" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
@@ -3561,22 +3639,22 @@
         <v>1011</v>
       </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="11" t="s">
-        <v>455</v>
+      <c r="G31" s="18" t="s">
+        <v>673</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="12" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -3585,22 +3663,22 @@
         <v>1100</v>
       </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="11" t="s">
-        <v>456</v>
+      <c r="G32" s="18" t="s">
+        <v>674</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="12" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="1" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -3609,15 +3687,15 @@
         <v>1101</v>
       </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="11" t="s">
-        <v>460</v>
+      <c r="G33" s="18" t="s">
+        <v>675</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="12" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="10"/>
@@ -3632,6 +3710,7 @@
       <c r="E34" s="8">
         <v>1110</v>
       </c>
+      <c r="G34" s="19"/>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="2:14">
@@ -3644,9 +3723,11 @@
       <c r="E35" s="8">
         <v>1111</v>
       </c>
+      <c r="G35" s="19"/>
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="2:14" ht="7.5" customHeight="1">
+      <c r="G36" s="19"/>
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="2:14">
@@ -3659,14 +3740,14 @@
       <c r="E37" s="8">
         <v>0</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>298</v>
+      <c r="G37" s="18" t="s">
+        <v>676</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -3682,14 +3763,14 @@
       <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>299</v>
+      <c r="G38" s="18" t="s">
+        <v>677</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
@@ -3705,14 +3786,14 @@
       <c r="E39" s="8">
         <v>10</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>300</v>
+      <c r="G39" s="18" t="s">
+        <v>678</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -3728,14 +3809,14 @@
       <c r="E40" s="8">
         <v>11</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>301</v>
+      <c r="G40" s="18" t="s">
+        <v>679</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
@@ -3751,14 +3832,14 @@
       <c r="E41" s="8">
         <v>100</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>302</v>
+      <c r="G41" s="18" t="s">
+        <v>680</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
@@ -3774,14 +3855,14 @@
       <c r="E42" s="8">
         <v>101</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>303</v>
+      <c r="G42" s="18" t="s">
+        <v>681</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
@@ -3797,14 +3878,14 @@
       <c r="E43" s="8">
         <v>110</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>305</v>
+      <c r="G43" s="18" t="s">
+        <v>682</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
@@ -3820,17 +3901,19 @@
       <c r="E44" s="8">
         <v>111</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>306</v>
+      <c r="G44" s="18" t="s">
+        <v>683</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="6.75" customHeight="1"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="6.75" customHeight="1">
+      <c r="G45" s="19"/>
+    </row>
     <row r="46" spans="2:14">
       <c r="B46" s="1">
         <v>28</v>
@@ -3841,14 +3924,14 @@
       <c r="E46" s="8">
         <v>1000</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>298</v>
+      <c r="G46" s="18" t="s">
+        <v>676</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="2:14">
@@ -3861,14 +3944,14 @@
       <c r="E47" s="8">
         <v>1001</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>299</v>
+      <c r="G47" s="18" t="s">
+        <v>677</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="2:14">
@@ -3881,14 +3964,14 @@
       <c r="E48" s="8">
         <v>1010</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>300</v>
+      <c r="G48" s="18" t="s">
+        <v>678</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -3901,14 +3984,14 @@
       <c r="E49" s="8">
         <v>1011</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>301</v>
+      <c r="G49" s="18" t="s">
+        <v>679</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -3921,14 +4004,14 @@
       <c r="E50" s="8">
         <v>1100</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>302</v>
+      <c r="G50" s="18" t="s">
+        <v>680</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -3941,14 +4024,14 @@
       <c r="E51" s="8">
         <v>1101</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>303</v>
+      <c r="G51" s="18" t="s">
+        <v>681</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="2:10">
@@ -3961,8 +4044,9 @@
       <c r="E52" s="8">
         <v>1110</v>
       </c>
+      <c r="G52" s="19"/>
       <c r="J52" s="12" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="2:10">
@@ -3975,11 +4059,14 @@
       <c r="E53" s="8">
         <v>1111</v>
       </c>
+      <c r="G53" s="19"/>
       <c r="J53" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="6.75" customHeight="1"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G54" s="19"/>
+    </row>
     <row r="55" spans="2:10">
       <c r="B55" s="1">
         <v>30</v>
@@ -3990,11 +4077,11 @@
       <c r="E55" s="8">
         <v>0</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>298</v>
+      <c r="G55" s="18" t="s">
+        <v>676</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>357</v>
@@ -4010,11 +4097,11 @@
       <c r="E56" s="8">
         <v>1</v>
       </c>
-      <c r="G56" s="11" t="s">
-        <v>299</v>
+      <c r="G56" s="18" t="s">
+        <v>677</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>358</v>
@@ -4030,11 +4117,11 @@
       <c r="E57" s="8">
         <v>10</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>300</v>
+      <c r="G57" s="18" t="s">
+        <v>678</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J57" s="12" t="s">
         <v>359</v>
@@ -4050,11 +4137,11 @@
       <c r="E58" s="8">
         <v>11</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>301</v>
+      <c r="G58" s="18" t="s">
+        <v>679</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>360</v>
@@ -4070,11 +4157,11 @@
       <c r="E59" s="8">
         <v>100</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>302</v>
+      <c r="G59" s="18" t="s">
+        <v>680</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J59" s="12" t="s">
         <v>361</v>
@@ -4090,11 +4177,11 @@
       <c r="E60" s="8">
         <v>101</v>
       </c>
-      <c r="G60" s="11" t="s">
-        <v>303</v>
+      <c r="G60" s="18" t="s">
+        <v>681</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>362</v>
@@ -4110,11 +4197,11 @@
       <c r="E61" s="8">
         <v>110</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>305</v>
+      <c r="G61" s="18" t="s">
+        <v>682</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>363</v>
@@ -4130,17 +4217,19 @@
       <c r="E62" s="8">
         <v>111</v>
       </c>
-      <c r="G62" s="11" t="s">
-        <v>306</v>
+      <c r="G62" s="18" t="s">
+        <v>683</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="63" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G63" s="19"/>
+    </row>
     <row r="64" spans="2:10">
       <c r="B64" s="1">
         <v>38</v>
@@ -4151,11 +4240,11 @@
       <c r="E64" s="8">
         <v>1000</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>298</v>
+      <c r="G64" s="18" t="s">
+        <v>676</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="J64" s="12" t="s">
         <v>351</v>
@@ -4171,11 +4260,11 @@
       <c r="E65" s="8">
         <v>1001</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>299</v>
+      <c r="G65" s="18" t="s">
+        <v>677</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="J65" s="12" t="s">
         <v>352</v>
@@ -4191,11 +4280,11 @@
       <c r="E66" s="8">
         <v>1010</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>300</v>
+      <c r="G66" s="18" t="s">
+        <v>678</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="J66" s="12" t="s">
         <v>353</v>
@@ -4211,11 +4300,11 @@
       <c r="E67" s="8">
         <v>1011</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>301</v>
+      <c r="G67" s="18" t="s">
+        <v>679</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="J67" s="12" t="s">
         <v>354</v>
@@ -4231,11 +4320,11 @@
       <c r="E68" s="8">
         <v>1100</v>
       </c>
-      <c r="G68" s="11" t="s">
-        <v>302</v>
+      <c r="G68" s="18" t="s">
+        <v>680</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="J68" s="12" t="s">
         <v>355</v>
@@ -4251,11 +4340,11 @@
       <c r="E69" s="8">
         <v>1101</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>303</v>
+      <c r="G69" s="18" t="s">
+        <v>681</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="J69" s="12" t="s">
         <v>356</v>
@@ -4271,14 +4360,14 @@
       <c r="E70" s="8">
         <v>1110</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>483</v>
+      <c r="G70" s="18" t="s">
+        <v>676</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -4291,17 +4380,19 @@
       <c r="E71" s="8">
         <v>1111</v>
       </c>
-      <c r="G71" s="9" t="s">
-        <v>486</v>
+      <c r="G71" s="18" t="s">
+        <v>677</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" ht="7.5" customHeight="1"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G72" s="19"/>
+    </row>
     <row r="73" spans="2:10">
       <c r="B73" s="1">
         <v>40</v>
@@ -4312,14 +4403,14 @@
       <c r="E73" s="8">
         <v>0</v>
       </c>
-      <c r="G73" s="9" t="s">
-        <v>250</v>
+      <c r="G73" s="18" t="s">
+        <v>684</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="2:10">
@@ -4332,14 +4423,14 @@
       <c r="E74" s="8">
         <v>1</v>
       </c>
-      <c r="G74" s="9" t="s">
-        <v>251</v>
+      <c r="G74" s="18" t="s">
+        <v>685</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -4352,14 +4443,14 @@
       <c r="E75" s="8">
         <v>10</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>252</v>
+      <c r="G75" s="18" t="s">
+        <v>686</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -4372,14 +4463,14 @@
       <c r="E76" s="8">
         <v>11</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>253</v>
+      <c r="G76" s="18" t="s">
+        <v>687</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -4392,14 +4483,14 @@
       <c r="E77" s="8">
         <v>100</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>254</v>
+      <c r="G77" s="18" t="s">
+        <v>688</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="2:10">
@@ -4412,14 +4503,14 @@
       <c r="E78" s="8">
         <v>101</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>256</v>
+      <c r="G78" s="18" t="s">
+        <v>689</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -4432,6 +4523,7 @@
       <c r="E79" s="8">
         <v>110</v>
       </c>
+      <c r="G79" s="19"/>
       <c r="H79" s="11"/>
     </row>
     <row r="80" spans="2:10">
@@ -4444,12 +4536,15 @@
       <c r="E80" s="8">
         <v>111</v>
       </c>
+      <c r="G80" s="19"/>
       <c r="H80" s="11"/>
       <c r="J80" s="12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" ht="7.5" customHeight="1"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G81" s="19"/>
+    </row>
     <row r="82" spans="2:10">
       <c r="B82" s="1">
         <v>48</v>
@@ -4460,14 +4555,14 @@
       <c r="E82" s="8">
         <v>1000</v>
       </c>
-      <c r="G82" s="11" t="s">
-        <v>250</v>
+      <c r="G82" s="18" t="s">
+        <v>684</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="2:10">
@@ -4480,14 +4575,14 @@
       <c r="E83" s="8">
         <v>1001</v>
       </c>
-      <c r="G83" s="11" t="s">
-        <v>251</v>
+      <c r="G83" s="18" t="s">
+        <v>685</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -4500,14 +4595,14 @@
       <c r="E84" s="8">
         <v>1010</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>252</v>
+      <c r="G84" s="18" t="s">
+        <v>686</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -4520,14 +4615,14 @@
       <c r="E85" s="8">
         <v>1011</v>
       </c>
-      <c r="G85" s="11" t="s">
-        <v>253</v>
+      <c r="G85" s="18" t="s">
+        <v>687</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="2:10">
@@ -4540,14 +4635,14 @@
       <c r="E86" s="8">
         <v>1100</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>254</v>
+      <c r="G86" s="18" t="s">
+        <v>688</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -4560,14 +4655,14 @@
       <c r="E87" s="8">
         <v>1101</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>256</v>
+      <c r="G87" s="18" t="s">
+        <v>689</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -4580,6 +4675,7 @@
       <c r="E88" s="8">
         <v>1110</v>
       </c>
+      <c r="G88" s="19"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="1" t="s">
@@ -4591,8 +4687,11 @@
       <c r="E89" s="8">
         <v>1111</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G89" s="19"/>
+    </row>
+    <row r="90" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G90" s="19"/>
+    </row>
     <row r="91" spans="2:10">
       <c r="B91" s="1">
         <v>50</v>
@@ -4603,14 +4702,14 @@
       <c r="E91" s="8">
         <v>0</v>
       </c>
-      <c r="G91" s="9" t="s">
-        <v>250</v>
+      <c r="G91" s="18" t="s">
+        <v>684</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -4623,14 +4722,14 @@
       <c r="E92" s="8">
         <v>1</v>
       </c>
-      <c r="G92" s="9" t="s">
-        <v>251</v>
+      <c r="G92" s="18" t="s">
+        <v>685</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="2:10">
@@ -4643,14 +4742,14 @@
       <c r="E93" s="8">
         <v>10</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>252</v>
+      <c r="G93" s="18" t="s">
+        <v>686</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -4663,14 +4762,14 @@
       <c r="E94" s="8">
         <v>11</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>253</v>
+      <c r="G94" s="18" t="s">
+        <v>687</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -4683,14 +4782,14 @@
       <c r="E95" s="8">
         <v>100</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>254</v>
+      <c r="G95" s="18" t="s">
+        <v>688</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -4703,14 +4802,14 @@
       <c r="E96" s="8">
         <v>101</v>
       </c>
-      <c r="G96" s="9" t="s">
-        <v>256</v>
+      <c r="G96" s="18" t="s">
+        <v>689</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="2:10">
@@ -4723,6 +4822,7 @@
       <c r="E97" s="8">
         <v>110</v>
       </c>
+      <c r="G97" s="19"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="1">
@@ -4734,8 +4834,11 @@
       <c r="E98" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" ht="7.5" customHeight="1"/>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G99" s="19"/>
+    </row>
     <row r="100" spans="2:10">
       <c r="B100" s="1">
         <v>58</v>
@@ -4746,14 +4849,14 @@
       <c r="E100" s="8">
         <v>1000</v>
       </c>
-      <c r="G100" s="11" t="s">
-        <v>250</v>
+      <c r="G100" s="18" t="s">
+        <v>684</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -4766,14 +4869,14 @@
       <c r="E101" s="8">
         <v>1001</v>
       </c>
-      <c r="G101" s="11" t="s">
-        <v>251</v>
+      <c r="G101" s="18" t="s">
+        <v>685</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -4786,14 +4889,14 @@
       <c r="E102" s="8">
         <v>1010</v>
       </c>
-      <c r="G102" s="11" t="s">
-        <v>252</v>
+      <c r="G102" s="18" t="s">
+        <v>686</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="2:10">
@@ -4806,14 +4909,14 @@
       <c r="E103" s="8">
         <v>1011</v>
       </c>
-      <c r="G103" s="11" t="s">
-        <v>253</v>
+      <c r="G103" s="18" t="s">
+        <v>687</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104" spans="2:10">
@@ -4826,14 +4929,14 @@
       <c r="E104" s="8">
         <v>1100</v>
       </c>
-      <c r="G104" s="9" t="s">
-        <v>417</v>
+      <c r="G104" s="18" t="s">
+        <v>689</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="2:10">
@@ -4846,14 +4949,14 @@
       <c r="E105" s="8">
         <v>1101</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>417</v>
+      <c r="G105" s="18" t="s">
+        <v>689</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106" spans="2:10">
@@ -4866,14 +4969,14 @@
       <c r="E106" s="8">
         <v>1110</v>
       </c>
-      <c r="G106" s="9" t="s">
-        <v>417</v>
+      <c r="G106" s="18" t="s">
+        <v>689</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="2:10">
@@ -4886,17 +4989,19 @@
       <c r="E107" s="8">
         <v>1111</v>
       </c>
-      <c r="G107" s="9" t="s">
-        <v>417</v>
+      <c r="G107" s="18" t="s">
+        <v>689</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" ht="7.5" customHeight="1"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G108" s="19"/>
+    </row>
     <row r="109" spans="2:10">
       <c r="B109" s="1">
         <v>60</v>
@@ -4907,11 +5012,11 @@
       <c r="E109" s="8">
         <v>0</v>
       </c>
-      <c r="G109" s="9" t="s">
-        <v>414</v>
+      <c r="G109" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="J109" s="12" t="s">
         <v>367</v>
@@ -4927,11 +5032,11 @@
       <c r="E110" s="8">
         <v>1</v>
       </c>
-      <c r="G110" s="11" t="s">
-        <v>414</v>
+      <c r="G110" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="J110" s="12" t="s">
         <v>365</v>
@@ -4947,11 +5052,11 @@
       <c r="E111" s="8">
         <v>10</v>
       </c>
-      <c r="G111" s="11" t="s">
-        <v>414</v>
+      <c r="G111" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="J111" s="12" t="s">
         <v>371</v>
@@ -4967,11 +5072,11 @@
       <c r="E112" s="8">
         <v>11</v>
       </c>
-      <c r="G112" s="11" t="s">
-        <v>414</v>
+      <c r="G112" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="J112" s="12" t="s">
         <v>372</v>
@@ -4987,11 +5092,11 @@
       <c r="E113" s="8">
         <v>100</v>
       </c>
-      <c r="G113" s="11" t="s">
-        <v>414</v>
+      <c r="G113" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="J113" s="12" t="s">
         <v>373</v>
@@ -5007,11 +5112,11 @@
       <c r="E114" s="8">
         <v>101</v>
       </c>
-      <c r="G114" s="11" t="s">
-        <v>414</v>
+      <c r="G114" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="J114" s="12" t="s">
         <v>374</v>
@@ -5027,7 +5132,7 @@
       <c r="E115" s="8">
         <v>110</v>
       </c>
-      <c r="G115" s="11"/>
+      <c r="G115" s="19"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="1">
@@ -5039,9 +5144,11 @@
       <c r="E116" s="8">
         <v>111</v>
       </c>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G116" s="19"/>
+    </row>
+    <row r="117" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G117" s="19"/>
+    </row>
     <row r="118" spans="2:10">
       <c r="B118" s="1">
         <v>68</v>
@@ -5052,11 +5159,11 @@
       <c r="E118" s="8">
         <v>1000</v>
       </c>
-      <c r="G118" s="9" t="s">
-        <v>522</v>
+      <c r="G118" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="J118" s="12" t="s">
         <v>368</v>
@@ -5072,11 +5179,11 @@
       <c r="E119" s="8">
         <v>1001</v>
       </c>
-      <c r="G119" s="11" t="s">
-        <v>522</v>
+      <c r="G119" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="J119" s="12" t="s">
         <v>366</v>
@@ -5092,11 +5199,11 @@
       <c r="E120" s="8">
         <v>1010</v>
       </c>
-      <c r="G120" s="11" t="s">
-        <v>522</v>
+      <c r="G120" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="J120" s="12" t="s">
         <v>369</v>
@@ -5112,11 +5219,11 @@
       <c r="E121" s="8">
         <v>1011</v>
       </c>
-      <c r="G121" s="11" t="s">
-        <v>522</v>
+      <c r="G121" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="J121" s="12" t="s">
         <v>375</v>
@@ -5132,11 +5239,11 @@
       <c r="E122" s="8">
         <v>1100</v>
       </c>
-      <c r="G122" s="11" t="s">
-        <v>522</v>
+      <c r="G122" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="J122" s="12" t="s">
         <v>376</v>
@@ -5152,11 +5259,11 @@
       <c r="E123" s="8">
         <v>1101</v>
       </c>
-      <c r="G123" s="11" t="s">
-        <v>522</v>
+      <c r="G123" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="J123" s="12" t="s">
         <v>370</v>
@@ -5172,6 +5279,7 @@
       <c r="E124" s="8">
         <v>1110</v>
       </c>
+      <c r="G124" s="19"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="1" t="s">
@@ -5183,8 +5291,11 @@
       <c r="E125" s="8">
         <v>1111</v>
       </c>
-    </row>
-    <row r="126" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G125" s="19"/>
+    </row>
+    <row r="126" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G126" s="19"/>
+    </row>
     <row r="127" spans="2:10">
       <c r="B127" s="1">
         <v>70</v>
@@ -5195,8 +5306,8 @@
       <c r="E127" s="8">
         <v>0</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>295</v>
+      <c r="G127" s="18" t="s">
+        <v>692</v>
       </c>
       <c r="H127" s="9" t="s">
         <v>93</v>
@@ -5215,8 +5326,8 @@
       <c r="E128" s="8">
         <v>1</v>
       </c>
-      <c r="G128" s="9" t="s">
-        <v>295</v>
+      <c r="G128" s="18" t="s">
+        <v>692</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>94</v>
@@ -5235,8 +5346,8 @@
       <c r="E129" s="8">
         <v>10</v>
       </c>
-      <c r="G129" s="9" t="s">
-        <v>295</v>
+      <c r="G129" s="18" t="s">
+        <v>692</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>95</v>
@@ -5255,8 +5366,8 @@
       <c r="E130" s="8">
         <v>11</v>
       </c>
-      <c r="G130" s="9" t="s">
-        <v>295</v>
+      <c r="G130" s="18" t="s">
+        <v>692</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>21</v>
@@ -5275,8 +5386,8 @@
       <c r="E131" s="8">
         <v>100</v>
       </c>
-      <c r="G131" s="9" t="s">
-        <v>295</v>
+      <c r="G131" s="18" t="s">
+        <v>692</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>96</v>
@@ -5295,8 +5406,8 @@
       <c r="E132" s="8">
         <v>101</v>
       </c>
-      <c r="G132" s="9" t="s">
-        <v>295</v>
+      <c r="G132" s="18" t="s">
+        <v>692</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>97</v>
@@ -5315,11 +5426,11 @@
       <c r="E133" s="8">
         <v>110</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>523</v>
+      <c r="G133" s="18" t="s">
+        <v>693</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="2:10">
@@ -5332,8 +5443,11 @@
       <c r="E134" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="135" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G134" s="19"/>
+    </row>
+    <row r="135" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G135" s="19"/>
+    </row>
     <row r="136" spans="2:10">
       <c r="B136" s="1">
         <v>78</v>
@@ -5344,8 +5458,8 @@
       <c r="E136" s="8">
         <v>1000</v>
       </c>
-      <c r="G136" s="9" t="s">
-        <v>296</v>
+      <c r="G136" s="18" t="s">
+        <v>694</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>93</v>
@@ -5364,8 +5478,8 @@
       <c r="E137" s="8">
         <v>1001</v>
       </c>
-      <c r="G137" s="9" t="s">
-        <v>296</v>
+      <c r="G137" s="18" t="s">
+        <v>694</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>94</v>
@@ -5384,8 +5498,8 @@
       <c r="E138" s="8">
         <v>1010</v>
       </c>
-      <c r="G138" s="9" t="s">
-        <v>296</v>
+      <c r="G138" s="18" t="s">
+        <v>694</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>95</v>
@@ -5404,8 +5518,8 @@
       <c r="E139" s="8">
         <v>1011</v>
       </c>
-      <c r="G139" s="9" t="s">
-        <v>296</v>
+      <c r="G139" s="18" t="s">
+        <v>694</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>21</v>
@@ -5424,8 +5538,8 @@
       <c r="E140" s="8">
         <v>1100</v>
       </c>
-      <c r="G140" s="9" t="s">
-        <v>296</v>
+      <c r="G140" s="18" t="s">
+        <v>694</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>96</v>
@@ -5444,8 +5558,8 @@
       <c r="E141" s="8">
         <v>1101</v>
       </c>
-      <c r="G141" s="9" t="s">
-        <v>296</v>
+      <c r="G141" s="18" t="s">
+        <v>694</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>97</v>
@@ -5464,8 +5578,9 @@
       <c r="E142" s="8">
         <v>1110</v>
       </c>
+      <c r="G142" s="19"/>
       <c r="J142" s="12" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="2:10">
@@ -5478,11 +5593,14 @@
       <c r="E143" s="8">
         <v>1111</v>
       </c>
+      <c r="G143" s="19"/>
       <c r="J143" s="12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" ht="7.5" customHeight="1"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G144" s="19"/>
+    </row>
     <row r="145" spans="2:10">
       <c r="B145" s="1">
         <v>80</v>
@@ -5493,14 +5611,14 @@
       <c r="E145" s="8">
         <v>0</v>
       </c>
-      <c r="G145" s="9" t="s">
-        <v>414</v>
+      <c r="G145" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="2:10">
@@ -5513,14 +5631,14 @@
       <c r="E146" s="8">
         <v>1</v>
       </c>
-      <c r="G146" s="11" t="s">
-        <v>414</v>
+      <c r="G146" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="2:10">
@@ -5533,14 +5651,14 @@
       <c r="E147" s="8">
         <v>10</v>
       </c>
-      <c r="G147" s="11" t="s">
-        <v>414</v>
+      <c r="G147" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="2:10">
@@ -5553,14 +5671,14 @@
       <c r="E148" s="8">
         <v>11</v>
       </c>
-      <c r="G148" s="11" t="s">
-        <v>414</v>
+      <c r="G148" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="2:10">
@@ -5573,14 +5691,14 @@
       <c r="E149" s="8">
         <v>100</v>
       </c>
-      <c r="G149" s="11" t="s">
-        <v>414</v>
+      <c r="G149" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="2:10">
@@ -5593,14 +5711,14 @@
       <c r="E150" s="8">
         <v>101</v>
       </c>
-      <c r="G150" s="11" t="s">
-        <v>414</v>
+      <c r="G150" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="2:10">
@@ -5613,6 +5731,7 @@
       <c r="E151" s="8">
         <v>110</v>
       </c>
+      <c r="G151" s="19"/>
     </row>
     <row r="152" spans="2:10">
       <c r="B152" s="1">
@@ -5624,8 +5743,11 @@
       <c r="E152" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="153" spans="2:10" ht="7.5" customHeight="1"/>
+      <c r="G152" s="19"/>
+    </row>
+    <row r="153" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G153" s="19"/>
+    </row>
     <row r="154" spans="2:10">
       <c r="B154" s="1">
         <v>88</v>
@@ -5636,14 +5758,14 @@
       <c r="E154" s="8">
         <v>1000</v>
       </c>
-      <c r="G154" s="9" t="s">
-        <v>532</v>
+      <c r="G154" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
     </row>
     <row r="155" spans="2:10">
@@ -5656,14 +5778,14 @@
       <c r="E155" s="8">
         <v>1001</v>
       </c>
-      <c r="G155" s="9" t="s">
-        <v>532</v>
+      <c r="G155" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
     </row>
     <row r="156" spans="2:10">
@@ -5676,14 +5798,14 @@
       <c r="E156" s="8">
         <v>1010</v>
       </c>
-      <c r="G156" s="11" t="s">
-        <v>532</v>
+      <c r="G156" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
     </row>
     <row r="157" spans="2:10">
@@ -5696,14 +5818,14 @@
       <c r="E157" s="8">
         <v>1011</v>
       </c>
-      <c r="G157" s="11" t="s">
-        <v>532</v>
+      <c r="G157" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
     </row>
     <row r="158" spans="2:10">
@@ -5716,14 +5838,14 @@
       <c r="E158" s="8">
         <v>1100</v>
       </c>
-      <c r="G158" s="11" t="s">
-        <v>532</v>
+      <c r="G158" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
     </row>
     <row r="159" spans="2:10">
@@ -5736,14 +5858,14 @@
       <c r="E159" s="8">
         <v>1101</v>
       </c>
-      <c r="G159" s="11" t="s">
-        <v>532</v>
+      <c r="G159" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
     </row>
     <row r="160" spans="2:10">
@@ -5756,7 +5878,7 @@
       <c r="E160" s="8">
         <v>1110</v>
       </c>
-      <c r="G160" s="11"/>
+      <c r="G160" s="19"/>
       <c r="H160" s="11"/>
     </row>
     <row r="161" spans="2:10">
@@ -5769,11 +5891,13 @@
       <c r="E161" s="8">
         <v>1111</v>
       </c>
-      <c r="G161" s="11"/>
+      <c r="G161" s="19"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
     </row>
-    <row r="162" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="162" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G162" s="19"/>
+    </row>
     <row r="163" spans="2:10">
       <c r="B163" s="1">
         <v>90</v>
@@ -5784,14 +5908,14 @@
       <c r="E163" s="8">
         <v>0</v>
       </c>
-      <c r="G163" s="11" t="s">
-        <v>532</v>
+      <c r="G163" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
     </row>
     <row r="164" spans="2:10">
@@ -5804,14 +5928,14 @@
       <c r="E164" s="8">
         <v>1</v>
       </c>
-      <c r="G164" s="11" t="s">
-        <v>532</v>
+      <c r="G164" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
     </row>
     <row r="165" spans="2:10">
@@ -5824,14 +5948,14 @@
       <c r="E165" s="8">
         <v>10</v>
       </c>
-      <c r="G165" s="11" t="s">
-        <v>532</v>
+      <c r="G165" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
     </row>
     <row r="166" spans="2:10">
@@ -5844,14 +5968,14 @@
       <c r="E166" s="8">
         <v>11</v>
       </c>
-      <c r="G166" s="11" t="s">
-        <v>532</v>
+      <c r="G166" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
     </row>
     <row r="167" spans="2:10">
@@ -5864,14 +5988,14 @@
       <c r="E167" s="8">
         <v>100</v>
       </c>
-      <c r="G167" s="11" t="s">
+      <c r="G167" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="J167" s="12" t="s">
         <v>532</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="J167" s="12" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="168" spans="2:10">
@@ -5884,14 +6008,14 @@
       <c r="E168" s="8">
         <v>101</v>
       </c>
-      <c r="G168" s="11" t="s">
-        <v>532</v>
+      <c r="G168" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" spans="2:10">
@@ -5904,6 +6028,7 @@
       <c r="E169" s="8">
         <v>110</v>
       </c>
+      <c r="G169" s="19"/>
     </row>
     <row r="170" spans="2:10">
       <c r="B170" s="1">
@@ -5915,8 +6040,11 @@
       <c r="E170" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="171" spans="2:10" ht="7.5" customHeight="1"/>
+      <c r="G170" s="19"/>
+    </row>
+    <row r="171" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G171" s="19"/>
+    </row>
     <row r="172" spans="2:10">
       <c r="B172" s="1">
         <v>98</v>
@@ -5927,15 +6055,15 @@
       <c r="E172" s="8">
         <v>1000</v>
       </c>
-      <c r="G172" s="11" t="s">
-        <v>532</v>
+      <c r="G172" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="12" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
     </row>
     <row r="173" spans="2:10">
@@ -5948,15 +6076,15 @@
       <c r="E173" s="8">
         <v>1001</v>
       </c>
-      <c r="G173" s="11" t="s">
-        <v>532</v>
+      <c r="G173" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="I173" s="11"/>
       <c r="J173" s="12" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
     </row>
     <row r="174" spans="2:10">
@@ -5969,15 +6097,15 @@
       <c r="E174" s="8">
         <v>1010</v>
       </c>
-      <c r="G174" s="11" t="s">
-        <v>532</v>
+      <c r="G174" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="I174" s="11"/>
       <c r="J174" s="12" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="2:10">
@@ -5990,15 +6118,15 @@
       <c r="E175" s="8">
         <v>1011</v>
       </c>
-      <c r="G175" s="11" t="s">
-        <v>532</v>
+      <c r="G175" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="I175" s="11"/>
       <c r="J175" s="12" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
     </row>
     <row r="176" spans="2:10">
@@ -6011,15 +6139,15 @@
       <c r="E176" s="8">
         <v>1100</v>
       </c>
-      <c r="G176" s="11" t="s">
-        <v>532</v>
+      <c r="G176" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="12" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
     </row>
     <row r="177" spans="2:10">
@@ -6032,15 +6160,15 @@
       <c r="E177" s="8">
         <v>1101</v>
       </c>
-      <c r="G177" s="11" t="s">
-        <v>532</v>
+      <c r="G177" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="I177" s="11"/>
       <c r="J177" s="12" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
     </row>
     <row r="178" spans="2:10">
@@ -6053,6 +6181,7 @@
       <c r="E178" s="8">
         <v>1110</v>
       </c>
+      <c r="G178" s="19"/>
     </row>
     <row r="179" spans="2:10">
       <c r="B179" s="1" t="s">
@@ -6064,8 +6193,11 @@
       <c r="E179" s="8">
         <v>1111</v>
       </c>
-    </row>
-    <row r="180" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G179" s="19"/>
+    </row>
+    <row r="180" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G180" s="19"/>
+    </row>
     <row r="181" spans="2:10">
       <c r="B181" s="1" t="s">
         <v>136</v>
@@ -6076,6 +6208,7 @@
       <c r="E181" s="8">
         <v>0</v>
       </c>
+      <c r="G181" s="19"/>
     </row>
     <row r="182" spans="2:10">
       <c r="B182" s="1" t="s">
@@ -6087,14 +6220,14 @@
       <c r="E182" s="8">
         <v>1</v>
       </c>
-      <c r="G182" s="11" t="s">
-        <v>415</v>
+      <c r="G182" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
     </row>
     <row r="183" spans="2:10">
@@ -6107,14 +6240,14 @@
       <c r="E183" s="8">
         <v>10</v>
       </c>
-      <c r="G183" s="11" t="s">
-        <v>415</v>
+      <c r="G183" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
     </row>
     <row r="184" spans="2:10">
@@ -6127,14 +6260,14 @@
       <c r="E184" s="8">
         <v>11</v>
       </c>
-      <c r="G184" s="11" t="s">
-        <v>415</v>
+      <c r="G184" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
     </row>
     <row r="185" spans="2:10">
@@ -6147,14 +6280,14 @@
       <c r="E185" s="8">
         <v>100</v>
       </c>
-      <c r="G185" s="11" t="s">
-        <v>415</v>
+      <c r="G185" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
     </row>
     <row r="186" spans="2:10">
@@ -6167,14 +6300,14 @@
       <c r="E186" s="8">
         <v>101</v>
       </c>
-      <c r="G186" s="11" t="s">
-        <v>415</v>
+      <c r="G186" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="2:10">
@@ -6187,6 +6320,7 @@
       <c r="E187" s="8">
         <v>110</v>
       </c>
+      <c r="G187" s="19"/>
     </row>
     <row r="188" spans="2:10">
       <c r="B188" s="1" t="s">
@@ -6198,8 +6332,11 @@
       <c r="E188" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="189" spans="2:10" ht="7.5" customHeight="1"/>
+      <c r="G188" s="19"/>
+    </row>
+    <row r="189" spans="2:10" ht="7.5" customHeight="1">
+      <c r="G189" s="19"/>
+    </row>
     <row r="190" spans="2:10">
       <c r="B190" s="1" t="s">
         <v>145</v>
@@ -6210,15 +6347,15 @@
       <c r="E190" s="8">
         <v>1000</v>
       </c>
-      <c r="G190" s="11" t="s">
-        <v>415</v>
+      <c r="G190" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="I190" s="11"/>
       <c r="J190" s="12" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
     </row>
     <row r="191" spans="2:10">
@@ -6231,15 +6368,15 @@
       <c r="E191" s="8">
         <v>1001</v>
       </c>
-      <c r="G191" s="11" t="s">
-        <v>415</v>
+      <c r="G191" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="I191" s="11"/>
       <c r="J191" s="12" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
     </row>
     <row r="192" spans="2:10">
@@ -6252,15 +6389,15 @@
       <c r="E192" s="8">
         <v>1010</v>
       </c>
-      <c r="G192" s="11" t="s">
-        <v>415</v>
+      <c r="G192" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="12" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
     </row>
     <row r="193" spans="2:10">
@@ -6273,15 +6410,15 @@
       <c r="E193" s="8">
         <v>1011</v>
       </c>
-      <c r="G193" s="11" t="s">
-        <v>415</v>
+      <c r="G193" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="I193" s="11"/>
       <c r="J193" s="12" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="2:10">
@@ -6294,15 +6431,15 @@
       <c r="E194" s="8">
         <v>1100</v>
       </c>
-      <c r="G194" s="11" t="s">
-        <v>415</v>
+      <c r="G194" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="I194" s="11"/>
       <c r="J194" s="12" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
     </row>
     <row r="195" spans="2:10">
@@ -6315,15 +6452,15 @@
       <c r="E195" s="8">
         <v>1101</v>
       </c>
-      <c r="G195" s="11" t="s">
-        <v>415</v>
+      <c r="G195" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="I195" s="11"/>
       <c r="J195" s="12" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
     </row>
     <row r="196" spans="2:10">
@@ -6336,6 +6473,7 @@
       <c r="E196" s="8">
         <v>1110</v>
       </c>
+      <c r="G196" s="19"/>
     </row>
     <row r="197" spans="2:10">
       <c r="B197" s="1" t="s">
@@ -6347,8 +6485,11 @@
       <c r="E197" s="8">
         <v>1111</v>
       </c>
-    </row>
-    <row r="198" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G197" s="19"/>
+    </row>
+    <row r="198" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G198" s="19"/>
+    </row>
     <row r="199" spans="2:10">
       <c r="B199" s="1" t="s">
         <v>153</v>
@@ -6359,6 +6500,7 @@
       <c r="E199" s="8">
         <v>0</v>
       </c>
+      <c r="G199" s="19"/>
     </row>
     <row r="200" spans="2:10">
       <c r="B200" s="1" t="s">
@@ -6370,15 +6512,15 @@
       <c r="E200" s="8">
         <v>1</v>
       </c>
-      <c r="G200" s="13" t="s">
-        <v>415</v>
+      <c r="G200" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H200" s="13" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="I200" s="13"/>
       <c r="J200" s="12" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
     </row>
     <row r="201" spans="2:10">
@@ -6391,15 +6533,15 @@
       <c r="E201" s="8">
         <v>10</v>
       </c>
-      <c r="G201" s="13" t="s">
-        <v>415</v>
+      <c r="G201" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H201" s="13" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="I201" s="13"/>
       <c r="J201" s="12" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
     </row>
     <row r="202" spans="2:10">
@@ -6412,15 +6554,15 @@
       <c r="E202" s="8">
         <v>11</v>
       </c>
-      <c r="G202" s="13" t="s">
-        <v>415</v>
+      <c r="G202" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H202" s="13" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="I202" s="13"/>
       <c r="J202" s="12" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
     </row>
     <row r="203" spans="2:10">
@@ -6433,15 +6575,15 @@
       <c r="E203" s="8">
         <v>100</v>
       </c>
-      <c r="G203" s="13" t="s">
-        <v>415</v>
+      <c r="G203" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H203" s="13" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="I203" s="13"/>
       <c r="J203" s="12" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
     </row>
     <row r="204" spans="2:10">
@@ -6454,15 +6596,15 @@
       <c r="E204" s="8">
         <v>101</v>
       </c>
-      <c r="G204" s="13" t="s">
-        <v>415</v>
+      <c r="G204" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H204" s="13" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="I204" s="13"/>
       <c r="J204" s="12" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
     </row>
     <row r="205" spans="2:10">
@@ -6475,6 +6617,7 @@
       <c r="E205" s="8">
         <v>110</v>
       </c>
+      <c r="G205" s="19"/>
     </row>
     <row r="206" spans="2:10">
       <c r="B206" s="1" t="s">
@@ -6486,8 +6629,11 @@
       <c r="E206" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="207" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G206" s="19"/>
+    </row>
+    <row r="207" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G207" s="19"/>
+    </row>
     <row r="208" spans="2:10">
       <c r="B208" s="1" t="s">
         <v>162</v>
@@ -6498,15 +6644,15 @@
       <c r="E208" s="8">
         <v>1000</v>
       </c>
-      <c r="G208" s="13" t="s">
-        <v>415</v>
+      <c r="G208" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H208" s="13" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="I208" s="13"/>
       <c r="J208" s="12" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="2:10">
@@ -6519,15 +6665,15 @@
       <c r="E209" s="8">
         <v>1001</v>
       </c>
-      <c r="G209" s="13" t="s">
-        <v>415</v>
+      <c r="G209" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H209" s="13" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="I209" s="13"/>
       <c r="J209" s="12" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
     </row>
     <row r="210" spans="2:10">
@@ -6540,15 +6686,15 @@
       <c r="E210" s="8">
         <v>1010</v>
       </c>
-      <c r="G210" s="13" t="s">
-        <v>415</v>
+      <c r="G210" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="I210" s="13"/>
       <c r="J210" s="12" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="2:10">
@@ -6561,15 +6707,15 @@
       <c r="E211" s="8">
         <v>1011</v>
       </c>
-      <c r="G211" s="13" t="s">
-        <v>415</v>
+      <c r="G211" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="12" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
     </row>
     <row r="212" spans="2:10">
@@ -6582,15 +6728,15 @@
       <c r="E212" s="8">
         <v>1100</v>
       </c>
-      <c r="G212" s="13" t="s">
-        <v>415</v>
+      <c r="G212" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="I212" s="13"/>
       <c r="J212" s="12" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
     </row>
     <row r="213" spans="2:10">
@@ -6603,15 +6749,15 @@
       <c r="E213" s="8">
         <v>1101</v>
       </c>
-      <c r="G213" s="13" t="s">
-        <v>415</v>
+      <c r="G213" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H213" s="13" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="I213" s="13"/>
       <c r="J213" s="12" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="2:10">
@@ -6624,6 +6770,7 @@
       <c r="E214" s="8">
         <v>1110</v>
       </c>
+      <c r="G214" s="19"/>
     </row>
     <row r="215" spans="2:10">
       <c r="B215" s="1" t="s">
@@ -6635,8 +6782,11 @@
       <c r="E215" s="8">
         <v>1111</v>
       </c>
-    </row>
-    <row r="216" spans="2:10" ht="6.75" customHeight="1"/>
+      <c r="G215" s="19"/>
+    </row>
+    <row r="216" spans="2:10" ht="6.75" customHeight="1">
+      <c r="G216" s="19"/>
+    </row>
     <row r="217" spans="2:10">
       <c r="B217" s="1" t="s">
         <v>170</v>
@@ -6647,14 +6797,14 @@
       <c r="E217" s="8">
         <v>0</v>
       </c>
-      <c r="G217" s="13" t="s">
-        <v>414</v>
+      <c r="G217" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H217" s="13" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
     </row>
     <row r="218" spans="2:10">
@@ -6667,14 +6817,14 @@
       <c r="E218" s="8">
         <v>1</v>
       </c>
-      <c r="G218" s="13" t="s">
-        <v>414</v>
+      <c r="G218" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="J218" s="12" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
     </row>
     <row r="219" spans="2:10">
@@ -6687,14 +6837,14 @@
       <c r="E219" s="8">
         <v>10</v>
       </c>
-      <c r="G219" s="13" t="s">
-        <v>414</v>
+      <c r="G219" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H219" s="13" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="J219" s="12" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
     </row>
     <row r="220" spans="2:10">
@@ -6707,14 +6857,14 @@
       <c r="E220" s="8">
         <v>11</v>
       </c>
-      <c r="G220" s="13" t="s">
-        <v>414</v>
+      <c r="G220" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H220" s="13" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="J220" s="12" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="221" spans="2:10">
@@ -6727,14 +6877,14 @@
       <c r="E221" s="8">
         <v>100</v>
       </c>
-      <c r="G221" s="13" t="s">
-        <v>414</v>
+      <c r="G221" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H221" s="13" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="J221" s="12" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="222" spans="2:10">
@@ -6747,14 +6897,14 @@
       <c r="E222" s="8">
         <v>101</v>
       </c>
-      <c r="G222" s="13" t="s">
-        <v>414</v>
+      <c r="G222" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H222" s="13" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="J222" s="12" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
     </row>
     <row r="223" spans="2:10">
@@ -6767,7 +6917,7 @@
       <c r="E223" s="8">
         <v>110</v>
       </c>
-      <c r="G223" s="13"/>
+      <c r="G223" s="19"/>
       <c r="H223" s="13"/>
     </row>
     <row r="224" spans="2:10">
@@ -6780,11 +6930,11 @@
       <c r="E224" s="8">
         <v>111</v>
       </c>
-      <c r="G224" s="13"/>
+      <c r="G224" s="19"/>
       <c r="H224" s="13"/>
     </row>
     <row r="225" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G225" s="13"/>
+      <c r="G225" s="19"/>
       <c r="H225" s="13"/>
     </row>
     <row r="226" spans="2:10">
@@ -6797,14 +6947,14 @@
       <c r="E226" s="8">
         <v>1000</v>
       </c>
-      <c r="G226" s="13" t="s">
-        <v>414</v>
+      <c r="G226" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H226" s="13" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
     </row>
     <row r="227" spans="2:10">
@@ -6817,14 +6967,14 @@
       <c r="E227" s="8">
         <v>1001</v>
       </c>
-      <c r="G227" s="13" t="s">
-        <v>414</v>
+      <c r="G227" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
     </row>
     <row r="228" spans="2:10">
@@ -6837,14 +6987,14 @@
       <c r="E228" s="8">
         <v>1010</v>
       </c>
-      <c r="G228" s="13" t="s">
-        <v>414</v>
+      <c r="G228" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="J228" s="12" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
     </row>
     <row r="229" spans="2:10">
@@ -6857,14 +7007,14 @@
       <c r="E229" s="8">
         <v>1011</v>
       </c>
-      <c r="G229" s="13" t="s">
-        <v>414</v>
+      <c r="G229" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H229" s="13" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
     </row>
     <row r="230" spans="2:10">
@@ -6877,14 +7027,14 @@
       <c r="E230" s="8">
         <v>1100</v>
       </c>
-      <c r="G230" s="13" t="s">
-        <v>414</v>
+      <c r="G230" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H230" s="13" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
     </row>
     <row r="231" spans="2:10">
@@ -6897,14 +7047,14 @@
       <c r="E231" s="8">
         <v>1101</v>
       </c>
-      <c r="G231" s="13" t="s">
-        <v>414</v>
+      <c r="G231" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="J231" s="12" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
     </row>
     <row r="232" spans="2:10">
@@ -6917,7 +7067,7 @@
       <c r="E232" s="8">
         <v>1110</v>
       </c>
-      <c r="G232" s="13"/>
+      <c r="G232" s="19"/>
       <c r="H232" s="13"/>
     </row>
     <row r="233" spans="2:10">
@@ -6930,11 +7080,11 @@
       <c r="E233" s="8">
         <v>1111</v>
       </c>
-      <c r="G233" s="13"/>
+      <c r="G233" s="19"/>
       <c r="H233" s="13"/>
     </row>
     <row r="234" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G234" s="13"/>
+      <c r="G234" s="19"/>
       <c r="H234" s="13"/>
     </row>
     <row r="235" spans="2:10">
@@ -6947,14 +7097,14 @@
       <c r="E235" s="8">
         <v>0</v>
       </c>
-      <c r="G235" s="13" t="s">
-        <v>414</v>
+      <c r="G235" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H235" s="13" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="J235" s="12" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
     </row>
     <row r="236" spans="2:10">
@@ -6967,14 +7117,14 @@
       <c r="E236" s="8">
         <v>1</v>
       </c>
-      <c r="G236" s="13" t="s">
-        <v>414</v>
+      <c r="G236" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H236" s="13" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="J236" s="12" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="2:10">
@@ -6987,14 +7137,14 @@
       <c r="E237" s="8">
         <v>10</v>
       </c>
-      <c r="G237" s="13" t="s">
-        <v>414</v>
+      <c r="G237" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H237" s="13" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="J237" s="12" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
     </row>
     <row r="238" spans="2:10">
@@ -7007,14 +7157,14 @@
       <c r="E238" s="8">
         <v>11</v>
       </c>
-      <c r="G238" s="13" t="s">
-        <v>414</v>
+      <c r="G238" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H238" s="13" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="J238" s="12" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
     </row>
     <row r="239" spans="2:10">
@@ -7027,14 +7177,14 @@
       <c r="E239" s="8">
         <v>100</v>
       </c>
-      <c r="G239" s="13" t="s">
-        <v>414</v>
+      <c r="G239" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H239" s="13" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="J239" s="12" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
     </row>
     <row r="240" spans="2:10">
@@ -7047,14 +7197,14 @@
       <c r="E240" s="8">
         <v>101</v>
       </c>
-      <c r="G240" s="13" t="s">
-        <v>414</v>
+      <c r="G240" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H240" s="13" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="J240" s="12" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
     </row>
     <row r="241" spans="2:10">
@@ -7067,7 +7217,7 @@
       <c r="E241" s="8">
         <v>110</v>
       </c>
-      <c r="G241" s="13"/>
+      <c r="G241" s="19"/>
       <c r="H241" s="13"/>
     </row>
     <row r="242" spans="2:10">
@@ -7080,11 +7230,11 @@
       <c r="E242" s="8">
         <v>111</v>
       </c>
-      <c r="G242" s="13"/>
+      <c r="G242" s="19"/>
       <c r="H242" s="13"/>
     </row>
     <row r="243" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G243" s="13"/>
+      <c r="G243" s="19"/>
       <c r="H243" s="13"/>
     </row>
     <row r="244" spans="2:10">
@@ -7097,14 +7247,14 @@
       <c r="E244" s="8">
         <v>1000</v>
       </c>
-      <c r="G244" s="13" t="s">
-        <v>414</v>
+      <c r="G244" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H244" s="13" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="J244" s="12" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
     </row>
     <row r="245" spans="2:10">
@@ -7117,14 +7267,14 @@
       <c r="E245" s="8">
         <v>1001</v>
       </c>
-      <c r="G245" s="13" t="s">
-        <v>414</v>
+      <c r="G245" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H245" s="13" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
     </row>
     <row r="246" spans="2:10">
@@ -7137,14 +7287,14 @@
       <c r="E246" s="8">
         <v>1010</v>
       </c>
-      <c r="G246" s="13" t="s">
-        <v>414</v>
+      <c r="G246" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H246" s="13" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="J246" s="12" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
     </row>
     <row r="247" spans="2:10">
@@ -7157,14 +7307,14 @@
       <c r="E247" s="8">
         <v>1011</v>
       </c>
-      <c r="G247" s="13" t="s">
-        <v>414</v>
+      <c r="G247" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H247" s="13" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="J247" s="12" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
     </row>
     <row r="248" spans="2:10">
@@ -7177,14 +7327,14 @@
       <c r="E248" s="8">
         <v>1100</v>
       </c>
-      <c r="G248" s="13" t="s">
-        <v>414</v>
+      <c r="G248" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H248" s="13" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="J248" s="12" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="249" spans="2:10">
@@ -7197,14 +7347,14 @@
       <c r="E249" s="8">
         <v>1101</v>
       </c>
-      <c r="G249" s="13" t="s">
-        <v>414</v>
+      <c r="G249" s="18" t="s">
+        <v>690</v>
       </c>
       <c r="H249" s="13" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="J249" s="12" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
     </row>
     <row r="250" spans="2:10">
@@ -7217,7 +7367,7 @@
       <c r="E250" s="8">
         <v>1110</v>
       </c>
-      <c r="G250" s="13"/>
+      <c r="G250" s="19"/>
       <c r="H250" s="13"/>
     </row>
     <row r="251" spans="2:10">
@@ -7230,11 +7380,11 @@
       <c r="E251" s="8">
         <v>1111</v>
       </c>
-      <c r="G251" s="13"/>
+      <c r="G251" s="19"/>
       <c r="H251" s="13"/>
     </row>
     <row r="252" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G252" s="13"/>
+      <c r="G252" s="19"/>
       <c r="H252" s="13"/>
     </row>
     <row r="253" spans="2:10">
@@ -7247,7 +7397,7 @@
       <c r="E253" s="8">
         <v>0</v>
       </c>
-      <c r="G253" s="13"/>
+      <c r="G253" s="19"/>
       <c r="H253" s="13"/>
     </row>
     <row r="254" spans="2:10">
@@ -7260,14 +7410,14 @@
       <c r="E254" s="8">
         <v>1</v>
       </c>
-      <c r="G254" s="13" t="s">
-        <v>415</v>
+      <c r="G254" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H254" s="13" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="J254" s="12" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
     </row>
     <row r="255" spans="2:10">
@@ -7280,14 +7430,14 @@
       <c r="E255" s="8">
         <v>10</v>
       </c>
-      <c r="G255" s="13" t="s">
-        <v>415</v>
+      <c r="G255" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H255" s="13" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
     </row>
     <row r="256" spans="2:10">
@@ -7300,14 +7450,14 @@
       <c r="E256" s="8">
         <v>11</v>
       </c>
-      <c r="G256" s="13" t="s">
-        <v>415</v>
+      <c r="G256" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H256" s="13" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="J256" s="12" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
     </row>
     <row r="257" spans="2:10">
@@ -7320,14 +7470,14 @@
       <c r="E257" s="8">
         <v>100</v>
       </c>
-      <c r="G257" s="13" t="s">
-        <v>415</v>
+      <c r="G257" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H257" s="13" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
     </row>
     <row r="258" spans="2:10">
@@ -7340,14 +7490,14 @@
       <c r="E258" s="8">
         <v>101</v>
       </c>
-      <c r="G258" s="13" t="s">
-        <v>415</v>
+      <c r="G258" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H258" s="13" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
     </row>
     <row r="259" spans="2:10">
@@ -7360,7 +7510,7 @@
       <c r="E259" s="8">
         <v>110</v>
       </c>
-      <c r="G259" s="13"/>
+      <c r="G259" s="19"/>
       <c r="H259" s="13"/>
     </row>
     <row r="260" spans="2:10">
@@ -7373,11 +7523,11 @@
       <c r="E260" s="8">
         <v>111</v>
       </c>
-      <c r="G260" s="13"/>
+      <c r="G260" s="19"/>
       <c r="H260" s="13"/>
     </row>
     <row r="261" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G261" s="13"/>
+      <c r="G261" s="19"/>
       <c r="H261" s="13"/>
     </row>
     <row r="262" spans="2:10">
@@ -7390,14 +7540,14 @@
       <c r="E262" s="8">
         <v>1000</v>
       </c>
-      <c r="G262" s="13" t="s">
-        <v>415</v>
+      <c r="G262" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H262" s="13" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" spans="2:10">
@@ -7410,14 +7560,14 @@
       <c r="E263" s="8">
         <v>1001</v>
       </c>
-      <c r="G263" s="13" t="s">
-        <v>415</v>
+      <c r="G263" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H263" s="13" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
     </row>
     <row r="264" spans="2:10">
@@ -7430,14 +7580,14 @@
       <c r="E264" s="8">
         <v>1010</v>
       </c>
-      <c r="G264" s="13" t="s">
-        <v>415</v>
+      <c r="G264" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H264" s="13" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="J264" s="12" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
     </row>
     <row r="265" spans="2:10">
@@ -7450,14 +7600,14 @@
       <c r="E265" s="8">
         <v>1011</v>
       </c>
-      <c r="G265" s="13" t="s">
-        <v>415</v>
+      <c r="G265" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H265" s="13" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="J265" s="12" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
     </row>
     <row r="266" spans="2:10">
@@ -7470,14 +7620,14 @@
       <c r="E266" s="8">
         <v>1100</v>
       </c>
-      <c r="G266" s="13" t="s">
-        <v>415</v>
+      <c r="G266" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H266" s="13" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="J266" s="12" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
     </row>
     <row r="267" spans="2:10">
@@ -7490,14 +7640,14 @@
       <c r="E267" s="8">
         <v>1101</v>
       </c>
-      <c r="G267" s="13" t="s">
-        <v>415</v>
+      <c r="G267" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H267" s="13" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="J267" s="12" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
     </row>
     <row r="268" spans="2:10">
@@ -7510,7 +7660,7 @@
       <c r="E268" s="8">
         <v>1110</v>
       </c>
-      <c r="G268" s="13"/>
+      <c r="G268" s="19"/>
       <c r="H268" s="13"/>
     </row>
     <row r="269" spans="2:10">
@@ -7523,11 +7673,11 @@
       <c r="E269" s="8">
         <v>1111</v>
       </c>
-      <c r="G269" s="13"/>
+      <c r="G269" s="19"/>
       <c r="H269" s="13"/>
     </row>
     <row r="270" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G270" s="13"/>
+      <c r="G270" s="19"/>
       <c r="H270" s="13"/>
     </row>
     <row r="271" spans="2:10">
@@ -7540,7 +7690,7 @@
       <c r="E271" s="8">
         <v>0</v>
       </c>
-      <c r="G271" s="13"/>
+      <c r="G271" s="19"/>
       <c r="H271" s="13"/>
     </row>
     <row r="272" spans="2:10">
@@ -7553,14 +7703,14 @@
       <c r="E272" s="8">
         <v>1</v>
       </c>
-      <c r="G272" s="13" t="s">
-        <v>415</v>
+      <c r="G272" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H272" s="13" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="J272" s="12" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
     </row>
     <row r="273" spans="2:10">
@@ -7573,14 +7723,14 @@
       <c r="E273" s="8">
         <v>10</v>
       </c>
-      <c r="G273" s="13" t="s">
-        <v>415</v>
+      <c r="G273" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H273" s="13" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="J273" s="12" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
     </row>
     <row r="274" spans="2:10">
@@ -7593,14 +7743,14 @@
       <c r="E274" s="8">
         <v>11</v>
       </c>
-      <c r="G274" s="13" t="s">
-        <v>415</v>
+      <c r="G274" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H274" s="13" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="J274" s="12" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
     </row>
     <row r="275" spans="2:10">
@@ -7613,14 +7763,14 @@
       <c r="E275" s="8">
         <v>100</v>
       </c>
-      <c r="G275" s="13" t="s">
-        <v>415</v>
+      <c r="G275" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H275" s="13" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="J275" s="12" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="2:10">
@@ -7633,14 +7783,14 @@
       <c r="E276" s="8">
         <v>101</v>
       </c>
-      <c r="G276" s="13" t="s">
-        <v>415</v>
+      <c r="G276" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H276" s="13" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="J276" s="12" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
     </row>
     <row r="277" spans="2:10">
@@ -7653,7 +7803,7 @@
       <c r="E277" s="8">
         <v>110</v>
       </c>
-      <c r="G277" s="13"/>
+      <c r="G277" s="19"/>
       <c r="H277" s="13"/>
     </row>
     <row r="278" spans="2:10">
@@ -7666,11 +7816,11 @@
       <c r="E278" s="8">
         <v>111</v>
       </c>
-      <c r="G278" s="13"/>
+      <c r="G278" s="19"/>
       <c r="H278" s="13"/>
     </row>
     <row r="279" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G279" s="13"/>
+      <c r="G279" s="19"/>
       <c r="H279" s="13"/>
     </row>
     <row r="280" spans="2:10">
@@ -7683,14 +7833,14 @@
       <c r="E280" s="8">
         <v>1000</v>
       </c>
-      <c r="G280" s="13" t="s">
-        <v>415</v>
+      <c r="G280" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H280" s="13" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="J280" s="12" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
     </row>
     <row r="281" spans="2:10">
@@ -7703,14 +7853,14 @@
       <c r="E281" s="8">
         <v>1001</v>
       </c>
-      <c r="G281" s="13" t="s">
-        <v>415</v>
+      <c r="G281" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H281" s="13" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="J281" s="12" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
     </row>
     <row r="282" spans="2:10">
@@ -7723,14 +7873,14 @@
       <c r="E282" s="8">
         <v>1010</v>
       </c>
-      <c r="G282" s="13" t="s">
-        <v>415</v>
+      <c r="G282" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H282" s="13" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="J282" s="12" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
     </row>
     <row r="283" spans="2:10">
@@ -7743,14 +7893,14 @@
       <c r="E283" s="8">
         <v>1011</v>
       </c>
-      <c r="G283" s="13" t="s">
-        <v>415</v>
+      <c r="G283" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H283" s="13" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="J283" s="12" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
     </row>
     <row r="284" spans="2:10">
@@ -7763,14 +7913,14 @@
       <c r="E284" s="8">
         <v>1100</v>
       </c>
-      <c r="G284" s="13" t="s">
-        <v>415</v>
+      <c r="G284" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H284" s="13" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="J284" s="12" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="2:10">
@@ -7783,14 +7933,14 @@
       <c r="E285" s="8">
         <v>1101</v>
       </c>
-      <c r="G285" s="13" t="s">
-        <v>415</v>
+      <c r="G285" s="18" t="s">
+        <v>691</v>
       </c>
       <c r="H285" s="13" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="J285" s="12" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
     </row>
     <row r="286" spans="2:10">
@@ -7803,7 +7953,7 @@
       <c r="E286" s="8">
         <v>1110</v>
       </c>
-      <c r="G286" s="13"/>
+      <c r="G286" s="19"/>
       <c r="H286" s="13"/>
     </row>
     <row r="287" spans="2:10">
@@ -7816,7 +7966,7 @@
       <c r="E287" s="8">
         <v>1111</v>
       </c>
-      <c r="G287" s="13"/>
+      <c r="G287" s="19"/>
       <c r="H287" s="13"/>
     </row>
     <row r="288" spans="2:10" ht="6.75" customHeight="1"/>

--- a/Computer/OpCodes.xlsx
+++ b/Computer/OpCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C09532-EE25-4406-8F1E-4439414506C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0767E3F-3CA3-4516-AA94-170EDCD9D507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="727">
   <si>
     <t>hlt</t>
   </si>
@@ -1469,10 +1469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Return from function</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Delay 4.5ms</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1481,46 +1477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Branch if carry set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if carry clear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if negative set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if negative clear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if zero set (Branch if equal)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if zero clear (Branch if not equal)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if less than</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if greater than or equal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if greater than</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Branch if less than or equal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1a</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1537,1015 +1493,1201 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>_L/H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment byte of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement byte of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invert byte of explicit register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of explicit register left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of explicit register right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate byte of explicit register right (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotate byte of explicit register left (wraps through carry)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invert byte of implicit AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of implicit AL register left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift byte of implicit AL register right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memory mapping?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear byte of explicit register (22 32 = CPU ID)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increment full word of implicit RT register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decrement full word of implicit RT register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Execute micro code?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR bytes of two explicit registers (left XOR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR bytes of two explicit registers (left OR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND bytes of two explicit registers (left AND right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract bytes of two explicit registers (left minus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_L/H, _L/H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one explicit register into other explicit register (right into left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, AL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR bytes of two implicit registers (AL XOR BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AL into BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_X, _X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add two explicit registers (left plus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract two explicit registers (left minus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND two explicit registers (left AND right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR two explicit registers (left OR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR two explicit registers (left XOR right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy one explicit register into other explicit register (right into left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add bytes of two explicit registers (left plus right stored in left)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add bytes of implicit AL and BL (AL plus BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract bytes of implicit AL and BL (AL minus BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND bytes of implicit AL and BL (AL AND BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR bytes of implicit AL and BL (AL OR BL stored in BL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add implicit AX and BX (AX plus BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subtract implicit AX and BX (AX minus BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND implicit AX and BX (AX AND BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR implicit AX and BX (AX OR BX stored in BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DX, AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EX, AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SP, AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AX into DX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AX into BX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AX into SP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy byte of one implicit register into other explicit register (AX into EX)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Call interrupt level 15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memory banking?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load immediate address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indexed register into byte of AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, [AX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, Addr.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, [Addr.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, #Imm.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, [BX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, [RT]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, [DX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, [EX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, [SP]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in AX into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in BX into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in RT into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in DX into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in EX into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in SP into AL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, #Imm.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, Addr.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, [Addr.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, [PC+N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL, _[R]_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, [PC+N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, _[R]_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load immediate address into full word of AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct address into full word of AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into full word of AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into full word of AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into full word of AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indexed register into full word of AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, [AX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, [BX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, [RT]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, [DX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, [EX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AX, [SP]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in AX into AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in BX into AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in RT into AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in DX into AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in EX into AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in SP into AX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of AL register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of AL register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of AL register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of AL register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of AL register into indexed register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from AL register to memory address stored in AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from AL register to memory address stored in BX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from AL register to memory address stored in RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from AL register to memory address stored in DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from AL register to memory address stored in EX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from AL register to memory address stored in SP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store AX register into indexed register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in BX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in EX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from AX register to memory address stored in SP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, #Imm.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, Addr.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, [Addr.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, [PC+N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CX, _[R]_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, #Imm.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, Addr.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [Addr.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [PC+N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, _[R]_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [AX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [BX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [RT]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [DX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [EX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL, [SP]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, #Imm.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, Addr.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [Addr.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [PC+N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, _[R]_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [AX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [BX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [RT]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [DX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [EX]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX, [SP]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indexed register into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in AX into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in BX into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in RT into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in DX into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in EX into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load byte from memory address stored in SP into BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load immediate address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load direct Program Counter offset by N address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load indirect Program Counter offset by N address into full word of BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in AX into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in BX into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in RT into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in DX into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in EX into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load word from memory address stored in SP into BX register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte of BL register into indexed register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in BX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in EX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store byte from BL register to memory address stored in SP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into direct address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into indirect address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into direct Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into indirect Program Counter offset by N address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store BX register into indexed register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in AX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in BX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in EX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store word from BX register to memory address stored in SP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load immediate address into byte of BL register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HLT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DLY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>RRC</t>
+  </si>
+  <si>
+    <t>RLC</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>JUMP</t>
+  </si>
+  <si>
+    <t>SYSCALL</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set Fault</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reset Fault</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enable Interrupt System</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disable Interrupt System</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set Link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reset Link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Complement Link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from interrupt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from subroutine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RIM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from Interrupt Modified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ELO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enable Link Out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer PC to X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if link set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BNL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BNF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if fault set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if link not set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if fault not set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BNZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BTM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC+N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if equal to zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if not equal to zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if minus set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch on positive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if greater than zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch if less than or equal to zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Branch if sense switch 1 is set</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>BS2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Branch if sense switch 2 is set</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>BS3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Branch if sense switch 3 is set</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>BS4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Branch if sense switch 4 is set</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>_L/H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Increment byte of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement byte of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invert byte of explicit register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of explicit register left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of explicit register right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rotate byte of explicit register right (wraps through carry)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rotate byte of explicit register left (wraps through carry)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Increment byte of implicit AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement byte of implicit AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear byte of implicit AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invert byte of implicit AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of implicit AL register left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shift byte of implicit AL register right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Memory mapping?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DMA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear byte of explicit register (22 32 = CPU ID)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Increment full word of implicit RT register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decrement full word of implicit RT register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Execute micro code?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XOR bytes of two explicit registers (left XOR right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OR bytes of two explicit registers (left OR right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AND bytes of two explicit registers (left AND right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subtract bytes of two explicit registers (left minus right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_L/H, _L/H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one explicit register into other explicit register (right into left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, AL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XOR bytes of two implicit registers (AL XOR BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AL into BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_X, _X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add two explicit registers (left plus right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subtract two explicit registers (left minus right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AND two explicit registers (left AND right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OR two explicit registers (left OR right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XOR two explicit registers (left XOR right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy one explicit register into other explicit register (right into left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add bytes of two explicit registers (left plus right stored in left)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add bytes of implicit AL and BL (AL plus BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subtract bytes of implicit AL and BL (AL minus BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AND bytes of implicit AL and BL (AL AND BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OR bytes of implicit AL and BL (AL OR BL stored in BL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add implicit AX and BX (AX plus BX stored in BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subtract implicit AX and BX (AX minus BX stored in BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AND implicit AX and BX (AX AND BX stored in BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OR implicit AX and BX (AX OR BX stored in BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DX, AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EX, AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SP, AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AX into DX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AX into BX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AX into SP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy byte of one implicit register into other explicit register (AX into EX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Call interrupt level 15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Memory banking?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load immediate address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct Program Counter offset by N address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect Program Counter offset by N address into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indexed register into byte of AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, [AX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, Addr.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, [Addr.]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, #Imm.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, [BX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, [RT]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, [DX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, [EX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, [SP]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in AX into AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in BX into AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in RT into AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in DX into AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in EX into AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in SP into AL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, #Imm.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, Addr.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, [Addr.]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, PC+N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, [PC+N]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL, _[R]_</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, PC+N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, [PC+N]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, _[R]_</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load immediate address into full word of AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct address into full word of AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect address into full word of AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct Program Counter offset by N address into full word of AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect Program Counter offset by N address into full word of AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indexed register into full word of AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, [AX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, [BX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, [RT]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, [DX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, [EX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AX, [SP]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in AX into AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in BX into AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in RT into AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in DX into AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in EX into AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in SP into AX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of AL register into direct address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of AL register into indirect address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of AL register into direct Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of AL register into indirect Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of AL register into indexed register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from AL register to memory address stored in AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from AL register to memory address stored in BX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from AL register to memory address stored in RT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from AL register to memory address stored in DX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from AL register to memory address stored in EX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from AL register to memory address stored in SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store AX register into direct address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store AX register into indirect address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store AX register into direct Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store AX register into indirect Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store AX register into indexed register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from AX register to memory address stored in AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from AX register to memory address stored in BX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from AX register to memory address stored in RT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from AX register to memory address stored in DX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from AX register to memory address stored in EX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from AX register to memory address stored in SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CX, #Imm.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CX, Addr.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CX, [Addr.]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CX, PC+N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CX, [PC+N]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CX, _[R]_</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, #Imm.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, Addr.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, [Addr.]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, PC+N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, [PC+N]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, _[R]_</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, [AX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, [BX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, [RT]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, [DX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, [EX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL, [SP]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, #Imm.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, Addr.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, [Addr.]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, PC+N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, [PC+N]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, _[R]_</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, [AX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, [BX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, [RT]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, [DX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, [EX]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BX, [SP]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct address into byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect address into byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct Program Counter offset by N address into byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect Program Counter offset by N address into byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indexed register into byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in AX into BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in BX into BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in RT into BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in DX into BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in EX into BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load byte from memory address stored in SP into BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load immediate address into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct address into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect address into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load direct Program Counter offset by N address into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load indirect Program Counter offset by N address into full word of BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in AX into BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in BX into BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in RT into BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in DX into BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in EX into BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load word from memory address stored in SP into BX register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of BL register into direct address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of BL register into indirect address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of BL register into direct Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of BL register into indirect Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte of BL register into indexed register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from BL register to memory address stored in AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from BL register to memory address stored in BX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from BL register to memory address stored in RT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from BL register to memory address stored in DX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from BL register to memory address stored in EX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store byte from BL register to memory address stored in SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store BX register into direct address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store BX register into indirect address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store BX register into direct Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store BX register into indirect Program Counter offset by N address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store BX register into indexed register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from BX register to memory address stored in AX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from BX register to memory address stored in BX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from BX register to memory address stored in RT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from BX register to memory address stored in DX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from BX register to memory address stored in EX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store word from BX register to memory address stored in SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load immediate address into byte of BL register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set the overFlow flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear the overFlow flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set the Link/carry flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear the Link/carry flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HLT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NOP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FSF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FCF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FSI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FCI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set the interrupt flag (unsure)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear the interrupt flag (unsure)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FSL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FCL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Toggle? Invert Link?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RETI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Return from interrupt (unsure, return if carry maybe?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DLY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BCS</t>
-  </si>
-  <si>
-    <t>BCC</t>
-  </si>
-  <si>
-    <t>BNS</t>
-  </si>
-  <si>
-    <t>BNC</t>
-  </si>
-  <si>
-    <t>BZS</t>
-  </si>
-  <si>
-    <t>BZC</t>
-  </si>
-  <si>
-    <t>BLT</t>
-  </si>
-  <si>
-    <t>BGE</t>
-  </si>
-  <si>
-    <t>BGT</t>
-  </si>
-  <si>
-    <t>BLE</t>
-  </si>
-  <si>
-    <t>BS1</t>
-  </si>
-  <si>
-    <t>BS2</t>
-  </si>
-  <si>
-    <t>BS3</t>
-  </si>
-  <si>
-    <t>BS4</t>
-  </si>
-  <si>
-    <t>INC</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>CLR</t>
-  </si>
-  <si>
-    <t>NOT</t>
-  </si>
-  <si>
-    <t>LSL</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>RRC</t>
-  </si>
-  <si>
-    <t>RLC</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>SUB</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>XOR</t>
-  </si>
-  <si>
-    <t>MOV</t>
-  </si>
-  <si>
-    <t>LD</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>JUMP</t>
-  </si>
-  <si>
-    <t>SYSCALL</t>
-  </si>
-  <si>
-    <t>CALL</t>
+    <t>Branch on even parity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Branch on teletype MARK</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2609,7 +2751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2661,14 +2803,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3053,10 +3201,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:N288"/>
+  <dimension ref="B2:P288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G287"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3072,17 +3220,18 @@
     <col min="10" max="10" width="76.125" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.5" style="12" customWidth="1"/>
     <col min="12" max="12" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9" style="16" customWidth="1"/>
+    <col min="14" max="16" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="19"/>
       <c r="G2" s="9" t="s">
         <v>314</v>
       </c>
@@ -3097,7 +3246,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:16">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -3108,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>346</v>
@@ -3117,7 +3266,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:16">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -3128,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>347</v>
@@ -3137,7 +3286,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:16">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -3148,16 +3297,16 @@
         <v>10</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:16">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -3168,16 +3317,16 @@
         <v>11</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:16">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -3188,16 +3337,16 @@
         <v>100</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:16">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -3208,19 +3357,19 @@
         <v>101</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="16" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:16">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -3231,16 +3380,16 @@
         <v>110</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:16">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -3251,16 +3400,28 @@
         <v>111</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="M10" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -3271,13 +3432,25 @@
         <v>1000</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>419</v>
+        <v>682</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
+        <v>683</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -3288,14 +3461,19 @@
         <v>1001</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="2:14">
+        <v>687</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3306,14 +3484,25 @@
         <v>1010</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="2:14">
+        <v>686</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="1" t="s">
         <v>297</v>
       </c>
@@ -3324,11 +3513,25 @@
         <v>1011</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="2:14">
+        <v>688</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3339,11 +3542,19 @@
         <v>1100</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="2:14">
+        <v>690</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3354,9 +3565,17 @@
         <v>1101</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="N16" s="8"/>
+        <v>692</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
@@ -3369,12 +3588,17 @@
         <v>1110</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>661</v>
+        <v>630</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="N17" s="8"/>
+        <v>417</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
@@ -3387,12 +3611,12 @@
         <v>1111</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="N18" s="8"/>
+        <v>418</v>
+      </c>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="2:14" ht="7.5" customHeight="1">
-      <c r="N19" s="8"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="1">
@@ -3404,16 +3628,16 @@
       <c r="E20" s="8">
         <v>0</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>662</v>
+      <c r="G20" s="17" t="s">
+        <v>663</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="N20" s="8"/>
+        <v>695</v>
+      </c>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="1">
@@ -3425,16 +3649,16 @@
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>663</v>
+      <c r="G21" s="17" t="s">
+        <v>696</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="N21" s="8"/>
+        <v>700</v>
+      </c>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="1">
@@ -3446,16 +3670,16 @@
       <c r="E22" s="8">
         <v>10</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>664</v>
+      <c r="G22" s="17" t="s">
+        <v>697</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="N22" s="8"/>
+        <v>699</v>
+      </c>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1">
@@ -3467,16 +3691,16 @@
       <c r="E23" s="8">
         <v>11</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>665</v>
+      <c r="G23" s="17" t="s">
+        <v>698</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="N23" s="8"/>
+        <v>701</v>
+      </c>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1">
@@ -3488,16 +3712,16 @@
       <c r="E24" s="8">
         <v>100</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>666</v>
+      <c r="G24" s="17" t="s">
+        <v>702</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="N24" s="8"/>
+        <v>711</v>
+      </c>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="1">
@@ -3509,16 +3733,16 @@
       <c r="E25" s="8">
         <v>101</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>667</v>
+      <c r="G25" s="17" t="s">
+        <v>703</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="N25" s="8"/>
+        <v>712</v>
+      </c>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="1">
@@ -3530,16 +3754,16 @@
       <c r="E26" s="8">
         <v>110</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>668</v>
+      <c r="G26" s="17" t="s">
+        <v>704</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="N26" s="8"/>
+        <v>713</v>
+      </c>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="1">
@@ -3551,16 +3775,16 @@
       <c r="E27" s="8">
         <v>111</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>669</v>
+      <c r="G27" s="17" t="s">
+        <v>705</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="N27" s="8"/>
+        <v>714</v>
+      </c>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1">
@@ -3572,16 +3796,16 @@
       <c r="E28" s="8">
         <v>1000</v>
       </c>
-      <c r="G28" s="18" t="s">
-        <v>670</v>
+      <c r="G28" s="17" t="s">
+        <v>706</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="N28" s="8"/>
+        <v>715</v>
+      </c>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1">
@@ -3593,20 +3817,20 @@
       <c r="E29" s="8">
         <v>1001</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>671</v>
+      <c r="G29" s="17" t="s">
+        <v>707</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="N29" s="8"/>
+        <v>716</v>
+      </c>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -3615,22 +3839,21 @@
         <v>1010</v>
       </c>
       <c r="F30" s="10"/>
-      <c r="G30" s="18" t="s">
-        <v>672</v>
+      <c r="G30" s="17" t="s">
+        <v>717</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="10"/>
+        <v>718</v>
+      </c>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
@@ -3639,22 +3862,21 @@
         <v>1011</v>
       </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="18" t="s">
-        <v>673</v>
+      <c r="G31" s="17" t="s">
+        <v>719</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="10"/>
+        <v>720</v>
+      </c>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -3663,22 +3885,21 @@
         <v>1100</v>
       </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="18" t="s">
-        <v>674</v>
+      <c r="G32" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="10"/>
+        <v>722</v>
+      </c>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -3687,18 +3908,17 @@
         <v>1101</v>
       </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="18" t="s">
-        <v>675</v>
+      <c r="G33" s="17" t="s">
+        <v>723</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="10"/>
+        <v>724</v>
+      </c>
+      <c r="N33" s="15"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="1" t="s">
@@ -3710,8 +3930,16 @@
       <c r="E34" s="8">
         <v>1110</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="N34" s="8"/>
+      <c r="G34" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="1" t="s">
@@ -3723,12 +3951,20 @@
       <c r="E35" s="8">
         <v>1111</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="N35" s="8"/>
+      <c r="G35" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="N35" s="15"/>
     </row>
     <row r="36" spans="2:14" ht="7.5" customHeight="1">
-      <c r="G36" s="19"/>
-      <c r="N36" s="8"/>
+      <c r="G36" s="18"/>
+      <c r="N36" s="15"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="1">
@@ -3740,18 +3976,16 @@
       <c r="E37" s="8">
         <v>0</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>676</v>
+      <c r="G37" s="17" t="s">
+        <v>631</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="1">
@@ -3763,18 +3997,16 @@
       <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>677</v>
+      <c r="G38" s="17" t="s">
+        <v>632</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="1">
@@ -3786,18 +4018,16 @@
       <c r="E39" s="8">
         <v>10</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>678</v>
+      <c r="G39" s="17" t="s">
+        <v>633</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="2:14">
       <c r="B40" s="1">
@@ -3809,18 +4039,16 @@
       <c r="E40" s="8">
         <v>11</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>679</v>
+      <c r="G40" s="17" t="s">
+        <v>634</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="2:14">
       <c r="B41" s="1">
@@ -3832,18 +4060,16 @@
       <c r="E41" s="8">
         <v>100</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>680</v>
+      <c r="G41" s="17" t="s">
+        <v>635</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="1">
@@ -3855,18 +4081,16 @@
       <c r="E42" s="8">
         <v>101</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>681</v>
+      <c r="G42" s="17" t="s">
+        <v>636</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="1">
@@ -3878,18 +4102,16 @@
       <c r="E43" s="8">
         <v>110</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>682</v>
+      <c r="G43" s="17" t="s">
+        <v>637</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="1">
@@ -3901,18 +4123,18 @@
       <c r="E44" s="8">
         <v>111</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>683</v>
+      <c r="G44" s="17" t="s">
+        <v>638</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="6.75" customHeight="1">
-      <c r="G45" s="19"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="1">
@@ -3924,14 +4146,14 @@
       <c r="E46" s="8">
         <v>1000</v>
       </c>
-      <c r="G46" s="18" t="s">
-        <v>676</v>
+      <c r="G46" s="17" t="s">
+        <v>631</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="2:14">
@@ -3944,14 +4166,14 @@
       <c r="E47" s="8">
         <v>1001</v>
       </c>
-      <c r="G47" s="18" t="s">
-        <v>677</v>
+      <c r="G47" s="17" t="s">
+        <v>632</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="2:14">
@@ -3964,14 +4186,14 @@
       <c r="E48" s="8">
         <v>1010</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>678</v>
+      <c r="G48" s="17" t="s">
+        <v>633</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -3984,14 +4206,14 @@
       <c r="E49" s="8">
         <v>1011</v>
       </c>
-      <c r="G49" s="18" t="s">
-        <v>679</v>
+      <c r="G49" s="17" t="s">
+        <v>634</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -4004,14 +4226,14 @@
       <c r="E50" s="8">
         <v>1100</v>
       </c>
-      <c r="G50" s="18" t="s">
-        <v>680</v>
+      <c r="G50" s="17" t="s">
+        <v>635</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -4024,14 +4246,14 @@
       <c r="E51" s="8">
         <v>1101</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>681</v>
+      <c r="G51" s="17" t="s">
+        <v>636</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="2:10">
@@ -4044,9 +4266,9 @@
       <c r="E52" s="8">
         <v>1110</v>
       </c>
-      <c r="G52" s="19"/>
+      <c r="G52" s="18"/>
       <c r="J52" s="12" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="2:10">
@@ -4059,13 +4281,13 @@
       <c r="E53" s="8">
         <v>1111</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="18"/>
       <c r="J53" s="12" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G54" s="19"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="1">
@@ -4077,11 +4299,11 @@
       <c r="E55" s="8">
         <v>0</v>
       </c>
-      <c r="G55" s="18" t="s">
-        <v>676</v>
+      <c r="G55" s="17" t="s">
+        <v>631</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>357</v>
@@ -4097,11 +4319,11 @@
       <c r="E56" s="8">
         <v>1</v>
       </c>
-      <c r="G56" s="18" t="s">
-        <v>677</v>
+      <c r="G56" s="17" t="s">
+        <v>632</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>358</v>
@@ -4117,11 +4339,11 @@
       <c r="E57" s="8">
         <v>10</v>
       </c>
-      <c r="G57" s="18" t="s">
-        <v>678</v>
+      <c r="G57" s="17" t="s">
+        <v>633</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J57" s="12" t="s">
         <v>359</v>
@@ -4137,11 +4359,11 @@
       <c r="E58" s="8">
         <v>11</v>
       </c>
-      <c r="G58" s="18" t="s">
-        <v>679</v>
+      <c r="G58" s="17" t="s">
+        <v>634</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>360</v>
@@ -4157,11 +4379,11 @@
       <c r="E59" s="8">
         <v>100</v>
       </c>
-      <c r="G59" s="18" t="s">
-        <v>680</v>
+      <c r="G59" s="17" t="s">
+        <v>635</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J59" s="12" t="s">
         <v>361</v>
@@ -4177,11 +4399,11 @@
       <c r="E60" s="8">
         <v>101</v>
       </c>
-      <c r="G60" s="18" t="s">
-        <v>681</v>
+      <c r="G60" s="17" t="s">
+        <v>636</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>362</v>
@@ -4197,11 +4419,11 @@
       <c r="E61" s="8">
         <v>110</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>682</v>
+      <c r="G61" s="17" t="s">
+        <v>637</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>363</v>
@@ -4217,18 +4439,18 @@
       <c r="E62" s="8">
         <v>111</v>
       </c>
-      <c r="G62" s="18" t="s">
-        <v>683</v>
+      <c r="G62" s="17" t="s">
+        <v>638</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G63" s="19"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="1">
@@ -4240,11 +4462,11 @@
       <c r="E64" s="8">
         <v>1000</v>
       </c>
-      <c r="G64" s="18" t="s">
-        <v>676</v>
+      <c r="G64" s="17" t="s">
+        <v>631</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="J64" s="12" t="s">
         <v>351</v>
@@ -4260,11 +4482,11 @@
       <c r="E65" s="8">
         <v>1001</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>677</v>
+      <c r="G65" s="17" t="s">
+        <v>632</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="J65" s="12" t="s">
         <v>352</v>
@@ -4280,11 +4502,11 @@
       <c r="E66" s="8">
         <v>1010</v>
       </c>
-      <c r="G66" s="18" t="s">
-        <v>678</v>
+      <c r="G66" s="17" t="s">
+        <v>633</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="J66" s="12" t="s">
         <v>353</v>
@@ -4300,11 +4522,11 @@
       <c r="E67" s="8">
         <v>1011</v>
       </c>
-      <c r="G67" s="18" t="s">
-        <v>679</v>
+      <c r="G67" s="17" t="s">
+        <v>634</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="J67" s="12" t="s">
         <v>354</v>
@@ -4320,11 +4542,11 @@
       <c r="E68" s="8">
         <v>1100</v>
       </c>
-      <c r="G68" s="18" t="s">
-        <v>680</v>
+      <c r="G68" s="17" t="s">
+        <v>635</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="J68" s="12" t="s">
         <v>355</v>
@@ -4340,11 +4562,11 @@
       <c r="E69" s="8">
         <v>1101</v>
       </c>
-      <c r="G69" s="18" t="s">
-        <v>681</v>
+      <c r="G69" s="17" t="s">
+        <v>636</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="J69" s="12" t="s">
         <v>356</v>
@@ -4360,14 +4582,14 @@
       <c r="E70" s="8">
         <v>1110</v>
       </c>
-      <c r="G70" s="18" t="s">
-        <v>676</v>
+      <c r="G70" s="17" t="s">
+        <v>631</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -4380,18 +4602,18 @@
       <c r="E71" s="8">
         <v>1111</v>
       </c>
-      <c r="G71" s="18" t="s">
-        <v>677</v>
+      <c r="G71" s="17" t="s">
+        <v>632</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G72" s="19"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="1">
@@ -4403,14 +4625,14 @@
       <c r="E73" s="8">
         <v>0</v>
       </c>
-      <c r="G73" s="18" t="s">
-        <v>684</v>
+      <c r="G73" s="17" t="s">
+        <v>639</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="2:10">
@@ -4423,14 +4645,14 @@
       <c r="E74" s="8">
         <v>1</v>
       </c>
-      <c r="G74" s="18" t="s">
-        <v>685</v>
+      <c r="G74" s="17" t="s">
+        <v>640</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -4443,14 +4665,14 @@
       <c r="E75" s="8">
         <v>10</v>
       </c>
-      <c r="G75" s="18" t="s">
-        <v>686</v>
+      <c r="G75" s="17" t="s">
+        <v>641</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -4463,14 +4685,14 @@
       <c r="E76" s="8">
         <v>11</v>
       </c>
-      <c r="G76" s="18" t="s">
-        <v>687</v>
+      <c r="G76" s="17" t="s">
+        <v>642</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -4483,14 +4705,14 @@
       <c r="E77" s="8">
         <v>100</v>
       </c>
-      <c r="G77" s="18" t="s">
-        <v>688</v>
+      <c r="G77" s="17" t="s">
+        <v>643</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="2:10">
@@ -4503,14 +4725,14 @@
       <c r="E78" s="8">
         <v>101</v>
       </c>
-      <c r="G78" s="18" t="s">
-        <v>689</v>
+      <c r="G78" s="17" t="s">
+        <v>644</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -4523,7 +4745,7 @@
       <c r="E79" s="8">
         <v>110</v>
       </c>
-      <c r="G79" s="19"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="11"/>
     </row>
     <row r="80" spans="2:10">
@@ -4536,14 +4758,14 @@
       <c r="E80" s="8">
         <v>111</v>
       </c>
-      <c r="G80" s="19"/>
+      <c r="G80" s="18"/>
       <c r="H80" s="11"/>
       <c r="J80" s="12" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G81" s="19"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="1">
@@ -4555,14 +4777,14 @@
       <c r="E82" s="8">
         <v>1000</v>
       </c>
-      <c r="G82" s="18" t="s">
-        <v>684</v>
+      <c r="G82" s="17" t="s">
+        <v>639</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="2:10">
@@ -4575,14 +4797,14 @@
       <c r="E83" s="8">
         <v>1001</v>
       </c>
-      <c r="G83" s="18" t="s">
-        <v>685</v>
+      <c r="G83" s="17" t="s">
+        <v>640</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -4595,14 +4817,14 @@
       <c r="E84" s="8">
         <v>1010</v>
       </c>
-      <c r="G84" s="18" t="s">
-        <v>686</v>
+      <c r="G84" s="17" t="s">
+        <v>641</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -4615,14 +4837,14 @@
       <c r="E85" s="8">
         <v>1011</v>
       </c>
-      <c r="G85" s="18" t="s">
-        <v>687</v>
+      <c r="G85" s="17" t="s">
+        <v>642</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="2:10">
@@ -4635,14 +4857,14 @@
       <c r="E86" s="8">
         <v>1100</v>
       </c>
-      <c r="G86" s="18" t="s">
-        <v>688</v>
+      <c r="G86" s="17" t="s">
+        <v>643</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -4655,14 +4877,14 @@
       <c r="E87" s="8">
         <v>1101</v>
       </c>
-      <c r="G87" s="18" t="s">
-        <v>689</v>
+      <c r="G87" s="17" t="s">
+        <v>644</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -4675,7 +4897,7 @@
       <c r="E88" s="8">
         <v>1110</v>
       </c>
-      <c r="G88" s="19"/>
+      <c r="G88" s="18"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="1" t="s">
@@ -4687,10 +4909,10 @@
       <c r="E89" s="8">
         <v>1111</v>
       </c>
-      <c r="G89" s="19"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G90" s="19"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="1">
@@ -4702,14 +4924,14 @@
       <c r="E91" s="8">
         <v>0</v>
       </c>
-      <c r="G91" s="18" t="s">
-        <v>684</v>
+      <c r="G91" s="17" t="s">
+        <v>639</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -4722,14 +4944,14 @@
       <c r="E92" s="8">
         <v>1</v>
       </c>
-      <c r="G92" s="18" t="s">
-        <v>685</v>
+      <c r="G92" s="17" t="s">
+        <v>640</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="2:10">
@@ -4742,14 +4964,14 @@
       <c r="E93" s="8">
         <v>10</v>
       </c>
-      <c r="G93" s="18" t="s">
-        <v>686</v>
+      <c r="G93" s="17" t="s">
+        <v>641</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -4762,14 +4984,14 @@
       <c r="E94" s="8">
         <v>11</v>
       </c>
-      <c r="G94" s="18" t="s">
-        <v>687</v>
+      <c r="G94" s="17" t="s">
+        <v>642</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -4782,14 +5004,14 @@
       <c r="E95" s="8">
         <v>100</v>
       </c>
-      <c r="G95" s="18" t="s">
-        <v>688</v>
+      <c r="G95" s="17" t="s">
+        <v>643</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -4802,14 +5024,14 @@
       <c r="E96" s="8">
         <v>101</v>
       </c>
-      <c r="G96" s="18" t="s">
-        <v>689</v>
+      <c r="G96" s="17" t="s">
+        <v>644</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="2:10">
@@ -4822,7 +5044,7 @@
       <c r="E97" s="8">
         <v>110</v>
       </c>
-      <c r="G97" s="19"/>
+      <c r="G97" s="18"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="1">
@@ -4834,10 +5056,10 @@
       <c r="E98" s="8">
         <v>111</v>
       </c>
-      <c r="G98" s="19"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G99" s="19"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="1">
@@ -4849,14 +5071,14 @@
       <c r="E100" s="8">
         <v>1000</v>
       </c>
-      <c r="G100" s="18" t="s">
-        <v>684</v>
+      <c r="G100" s="17" t="s">
+        <v>639</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -4869,14 +5091,14 @@
       <c r="E101" s="8">
         <v>1001</v>
       </c>
-      <c r="G101" s="18" t="s">
-        <v>685</v>
+      <c r="G101" s="17" t="s">
+        <v>640</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -4889,14 +5111,14 @@
       <c r="E102" s="8">
         <v>1010</v>
       </c>
-      <c r="G102" s="18" t="s">
-        <v>686</v>
+      <c r="G102" s="17" t="s">
+        <v>641</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="2:10">
@@ -4909,14 +5131,14 @@
       <c r="E103" s="8">
         <v>1011</v>
       </c>
-      <c r="G103" s="18" t="s">
-        <v>687</v>
+      <c r="G103" s="17" t="s">
+        <v>642</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="104" spans="2:10">
@@ -4929,14 +5151,14 @@
       <c r="E104" s="8">
         <v>1100</v>
       </c>
-      <c r="G104" s="18" t="s">
-        <v>689</v>
+      <c r="G104" s="17" t="s">
+        <v>644</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="2:10">
@@ -4949,14 +5171,14 @@
       <c r="E105" s="8">
         <v>1101</v>
       </c>
-      <c r="G105" s="18" t="s">
-        <v>689</v>
+      <c r="G105" s="17" t="s">
+        <v>644</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="2:10">
@@ -4969,14 +5191,14 @@
       <c r="E106" s="8">
         <v>1110</v>
       </c>
-      <c r="G106" s="18" t="s">
-        <v>689</v>
+      <c r="G106" s="17" t="s">
+        <v>644</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="2:10">
@@ -4989,18 +5211,18 @@
       <c r="E107" s="8">
         <v>1111</v>
       </c>
-      <c r="G107" s="18" t="s">
-        <v>689</v>
+      <c r="G107" s="17" t="s">
+        <v>644</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G108" s="19"/>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="1">
@@ -5012,11 +5234,11 @@
       <c r="E109" s="8">
         <v>0</v>
       </c>
-      <c r="G109" s="18" t="s">
-        <v>690</v>
+      <c r="G109" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="J109" s="12" t="s">
         <v>367</v>
@@ -5032,11 +5254,11 @@
       <c r="E110" s="8">
         <v>1</v>
       </c>
-      <c r="G110" s="18" t="s">
-        <v>690</v>
+      <c r="G110" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="J110" s="12" t="s">
         <v>365</v>
@@ -5052,11 +5274,11 @@
       <c r="E111" s="8">
         <v>10</v>
       </c>
-      <c r="G111" s="18" t="s">
-        <v>690</v>
+      <c r="G111" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="J111" s="12" t="s">
         <v>371</v>
@@ -5072,11 +5294,11 @@
       <c r="E112" s="8">
         <v>11</v>
       </c>
-      <c r="G112" s="18" t="s">
-        <v>690</v>
+      <c r="G112" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="J112" s="12" t="s">
         <v>372</v>
@@ -5092,11 +5314,11 @@
       <c r="E113" s="8">
         <v>100</v>
       </c>
-      <c r="G113" s="18" t="s">
-        <v>690</v>
+      <c r="G113" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="J113" s="12" t="s">
         <v>373</v>
@@ -5112,11 +5334,11 @@
       <c r="E114" s="8">
         <v>101</v>
       </c>
-      <c r="G114" s="18" t="s">
-        <v>690</v>
+      <c r="G114" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="J114" s="12" t="s">
         <v>374</v>
@@ -5132,7 +5354,7 @@
       <c r="E115" s="8">
         <v>110</v>
       </c>
-      <c r="G115" s="19"/>
+      <c r="G115" s="18"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="1">
@@ -5144,10 +5366,10 @@
       <c r="E116" s="8">
         <v>111</v>
       </c>
-      <c r="G116" s="19"/>
+      <c r="G116" s="18"/>
     </row>
     <row r="117" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G117" s="19"/>
+      <c r="G117" s="18"/>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="1">
@@ -5159,11 +5381,11 @@
       <c r="E118" s="8">
         <v>1000</v>
       </c>
-      <c r="G118" s="18" t="s">
-        <v>691</v>
+      <c r="G118" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="J118" s="12" t="s">
         <v>368</v>
@@ -5179,11 +5401,11 @@
       <c r="E119" s="8">
         <v>1001</v>
       </c>
-      <c r="G119" s="18" t="s">
-        <v>691</v>
+      <c r="G119" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="J119" s="12" t="s">
         <v>366</v>
@@ -5199,11 +5421,11 @@
       <c r="E120" s="8">
         <v>1010</v>
       </c>
-      <c r="G120" s="18" t="s">
-        <v>691</v>
+      <c r="G120" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="J120" s="12" t="s">
         <v>369</v>
@@ -5219,11 +5441,11 @@
       <c r="E121" s="8">
         <v>1011</v>
       </c>
-      <c r="G121" s="18" t="s">
-        <v>691</v>
+      <c r="G121" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="J121" s="12" t="s">
         <v>375</v>
@@ -5239,11 +5461,11 @@
       <c r="E122" s="8">
         <v>1100</v>
       </c>
-      <c r="G122" s="18" t="s">
-        <v>691</v>
+      <c r="G122" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="J122" s="12" t="s">
         <v>376</v>
@@ -5259,11 +5481,11 @@
       <c r="E123" s="8">
         <v>1101</v>
       </c>
-      <c r="G123" s="18" t="s">
-        <v>691</v>
+      <c r="G123" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="J123" s="12" t="s">
         <v>370</v>
@@ -5279,7 +5501,7 @@
       <c r="E124" s="8">
         <v>1110</v>
       </c>
-      <c r="G124" s="19"/>
+      <c r="G124" s="18"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="1" t="s">
@@ -5291,10 +5513,10 @@
       <c r="E125" s="8">
         <v>1111</v>
       </c>
-      <c r="G125" s="19"/>
+      <c r="G125" s="18"/>
     </row>
     <row r="126" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G126" s="19"/>
+      <c r="G126" s="18"/>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="1">
@@ -5306,8 +5528,8 @@
       <c r="E127" s="8">
         <v>0</v>
       </c>
-      <c r="G127" s="18" t="s">
-        <v>692</v>
+      <c r="G127" s="17" t="s">
+        <v>647</v>
       </c>
       <c r="H127" s="9" t="s">
         <v>93</v>
@@ -5326,8 +5548,8 @@
       <c r="E128" s="8">
         <v>1</v>
       </c>
-      <c r="G128" s="18" t="s">
-        <v>692</v>
+      <c r="G128" s="17" t="s">
+        <v>647</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>94</v>
@@ -5346,8 +5568,8 @@
       <c r="E129" s="8">
         <v>10</v>
       </c>
-      <c r="G129" s="18" t="s">
-        <v>692</v>
+      <c r="G129" s="17" t="s">
+        <v>647</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>95</v>
@@ -5366,8 +5588,8 @@
       <c r="E130" s="8">
         <v>11</v>
       </c>
-      <c r="G130" s="18" t="s">
-        <v>692</v>
+      <c r="G130" s="17" t="s">
+        <v>647</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>21</v>
@@ -5386,8 +5608,8 @@
       <c r="E131" s="8">
         <v>100</v>
       </c>
-      <c r="G131" s="18" t="s">
-        <v>692</v>
+      <c r="G131" s="17" t="s">
+        <v>647</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>96</v>
@@ -5406,8 +5628,8 @@
       <c r="E132" s="8">
         <v>101</v>
       </c>
-      <c r="G132" s="18" t="s">
-        <v>692</v>
+      <c r="G132" s="17" t="s">
+        <v>647</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>97</v>
@@ -5426,11 +5648,11 @@
       <c r="E133" s="8">
         <v>110</v>
       </c>
-      <c r="G133" s="18" t="s">
-        <v>693</v>
+      <c r="G133" s="17" t="s">
+        <v>648</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="2:10">
@@ -5443,10 +5665,10 @@
       <c r="E134" s="8">
         <v>111</v>
       </c>
-      <c r="G134" s="19"/>
+      <c r="G134" s="18"/>
     </row>
     <row r="135" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G135" s="19"/>
+      <c r="G135" s="18"/>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="1">
@@ -5458,8 +5680,8 @@
       <c r="E136" s="8">
         <v>1000</v>
       </c>
-      <c r="G136" s="18" t="s">
-        <v>694</v>
+      <c r="G136" s="17" t="s">
+        <v>649</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>93</v>
@@ -5478,8 +5700,8 @@
       <c r="E137" s="8">
         <v>1001</v>
       </c>
-      <c r="G137" s="18" t="s">
-        <v>694</v>
+      <c r="G137" s="17" t="s">
+        <v>649</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>94</v>
@@ -5498,8 +5720,8 @@
       <c r="E138" s="8">
         <v>1010</v>
       </c>
-      <c r="G138" s="18" t="s">
-        <v>694</v>
+      <c r="G138" s="17" t="s">
+        <v>649</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>95</v>
@@ -5518,8 +5740,8 @@
       <c r="E139" s="8">
         <v>1011</v>
       </c>
-      <c r="G139" s="18" t="s">
-        <v>694</v>
+      <c r="G139" s="17" t="s">
+        <v>649</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>21</v>
@@ -5538,8 +5760,8 @@
       <c r="E140" s="8">
         <v>1100</v>
       </c>
-      <c r="G140" s="18" t="s">
-        <v>694</v>
+      <c r="G140" s="17" t="s">
+        <v>649</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>96</v>
@@ -5558,8 +5780,8 @@
       <c r="E141" s="8">
         <v>1101</v>
       </c>
-      <c r="G141" s="18" t="s">
-        <v>694</v>
+      <c r="G141" s="17" t="s">
+        <v>649</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>97</v>
@@ -5578,9 +5800,9 @@
       <c r="E142" s="8">
         <v>1110</v>
       </c>
-      <c r="G142" s="19"/>
+      <c r="G142" s="18"/>
       <c r="J142" s="12" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="143" spans="2:10">
@@ -5593,13 +5815,13 @@
       <c r="E143" s="8">
         <v>1111</v>
       </c>
-      <c r="G143" s="19"/>
+      <c r="G143" s="18"/>
       <c r="J143" s="12" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G144" s="19"/>
+      <c r="G144" s="18"/>
     </row>
     <row r="145" spans="2:10">
       <c r="B145" s="1">
@@ -5611,14 +5833,14 @@
       <c r="E145" s="8">
         <v>0</v>
       </c>
-      <c r="G145" s="18" t="s">
-        <v>690</v>
+      <c r="G145" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="2:10">
@@ -5631,14 +5853,14 @@
       <c r="E146" s="8">
         <v>1</v>
       </c>
-      <c r="G146" s="18" t="s">
-        <v>690</v>
+      <c r="G146" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="2:10">
@@ -5651,14 +5873,14 @@
       <c r="E147" s="8">
         <v>10</v>
       </c>
-      <c r="G147" s="18" t="s">
-        <v>690</v>
+      <c r="G147" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" spans="2:10">
@@ -5671,14 +5893,14 @@
       <c r="E148" s="8">
         <v>11</v>
       </c>
-      <c r="G148" s="18" t="s">
-        <v>690</v>
+      <c r="G148" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="2:10">
@@ -5691,14 +5913,14 @@
       <c r="E149" s="8">
         <v>100</v>
       </c>
-      <c r="G149" s="18" t="s">
-        <v>690</v>
+      <c r="G149" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="150" spans="2:10">
@@ -5711,14 +5933,14 @@
       <c r="E150" s="8">
         <v>101</v>
       </c>
-      <c r="G150" s="18" t="s">
-        <v>690</v>
+      <c r="G150" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="2:10">
@@ -5731,7 +5953,7 @@
       <c r="E151" s="8">
         <v>110</v>
       </c>
-      <c r="G151" s="19"/>
+      <c r="G151" s="18"/>
     </row>
     <row r="152" spans="2:10">
       <c r="B152" s="1">
@@ -5743,10 +5965,10 @@
       <c r="E152" s="8">
         <v>111</v>
       </c>
-      <c r="G152" s="19"/>
+      <c r="G152" s="18"/>
     </row>
     <row r="153" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G153" s="19"/>
+      <c r="G153" s="18"/>
     </row>
     <row r="154" spans="2:10">
       <c r="B154" s="1">
@@ -5758,14 +5980,14 @@
       <c r="E154" s="8">
         <v>1000</v>
       </c>
-      <c r="G154" s="18" t="s">
-        <v>690</v>
+      <c r="G154" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="2:10">
@@ -5778,14 +6000,14 @@
       <c r="E155" s="8">
         <v>1001</v>
       </c>
-      <c r="G155" s="18" t="s">
-        <v>690</v>
+      <c r="G155" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="156" spans="2:10">
@@ -5798,14 +6020,14 @@
       <c r="E156" s="8">
         <v>1010</v>
       </c>
-      <c r="G156" s="18" t="s">
-        <v>690</v>
+      <c r="G156" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="2:10">
@@ -5818,14 +6040,14 @@
       <c r="E157" s="8">
         <v>1011</v>
       </c>
-      <c r="G157" s="18" t="s">
-        <v>690</v>
+      <c r="G157" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="158" spans="2:10">
@@ -5838,14 +6060,14 @@
       <c r="E158" s="8">
         <v>1100</v>
       </c>
-      <c r="G158" s="18" t="s">
-        <v>690</v>
+      <c r="G158" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="2:10">
@@ -5858,14 +6080,14 @@
       <c r="E159" s="8">
         <v>1101</v>
       </c>
-      <c r="G159" s="18" t="s">
-        <v>690</v>
+      <c r="G159" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="160" spans="2:10">
@@ -5878,7 +6100,7 @@
       <c r="E160" s="8">
         <v>1110</v>
       </c>
-      <c r="G160" s="19"/>
+      <c r="G160" s="18"/>
       <c r="H160" s="11"/>
     </row>
     <row r="161" spans="2:10">
@@ -5891,12 +6113,12 @@
       <c r="E161" s="8">
         <v>1111</v>
       </c>
-      <c r="G161" s="19"/>
+      <c r="G161" s="18"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
     </row>
     <row r="162" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G162" s="19"/>
+      <c r="G162" s="18"/>
     </row>
     <row r="163" spans="2:10">
       <c r="B163" s="1">
@@ -5908,14 +6130,14 @@
       <c r="E163" s="8">
         <v>0</v>
       </c>
-      <c r="G163" s="18" t="s">
-        <v>690</v>
+      <c r="G163" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="164" spans="2:10">
@@ -5928,14 +6150,14 @@
       <c r="E164" s="8">
         <v>1</v>
       </c>
-      <c r="G164" s="18" t="s">
-        <v>690</v>
+      <c r="G164" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="165" spans="2:10">
@@ -5948,14 +6170,14 @@
       <c r="E165" s="8">
         <v>10</v>
       </c>
-      <c r="G165" s="18" t="s">
-        <v>690</v>
+      <c r="G165" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="166" spans="2:10">
@@ -5968,14 +6190,14 @@
       <c r="E166" s="8">
         <v>11</v>
       </c>
-      <c r="G166" s="18" t="s">
-        <v>690</v>
+      <c r="G166" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="167" spans="2:10">
@@ -5988,14 +6210,14 @@
       <c r="E167" s="8">
         <v>100</v>
       </c>
-      <c r="G167" s="18" t="s">
-        <v>690</v>
+      <c r="G167" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="168" spans="2:10">
@@ -6008,14 +6230,14 @@
       <c r="E168" s="8">
         <v>101</v>
       </c>
-      <c r="G168" s="18" t="s">
-        <v>690</v>
+      <c r="G168" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="169" spans="2:10">
@@ -6028,7 +6250,7 @@
       <c r="E169" s="8">
         <v>110</v>
       </c>
-      <c r="G169" s="19"/>
+      <c r="G169" s="18"/>
     </row>
     <row r="170" spans="2:10">
       <c r="B170" s="1">
@@ -6040,10 +6262,10 @@
       <c r="E170" s="8">
         <v>111</v>
       </c>
-      <c r="G170" s="19"/>
+      <c r="G170" s="18"/>
     </row>
     <row r="171" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G171" s="19"/>
+      <c r="G171" s="18"/>
     </row>
     <row r="172" spans="2:10">
       <c r="B172" s="1">
@@ -6055,15 +6277,15 @@
       <c r="E172" s="8">
         <v>1000</v>
       </c>
-      <c r="G172" s="18" t="s">
-        <v>690</v>
+      <c r="G172" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="12" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="173" spans="2:10">
@@ -6076,15 +6298,15 @@
       <c r="E173" s="8">
         <v>1001</v>
       </c>
-      <c r="G173" s="18" t="s">
-        <v>690</v>
+      <c r="G173" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="I173" s="11"/>
       <c r="J173" s="12" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="174" spans="2:10">
@@ -6097,15 +6319,15 @@
       <c r="E174" s="8">
         <v>1010</v>
       </c>
-      <c r="G174" s="18" t="s">
-        <v>690</v>
+      <c r="G174" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="I174" s="11"/>
       <c r="J174" s="12" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="175" spans="2:10">
@@ -6118,15 +6340,15 @@
       <c r="E175" s="8">
         <v>1011</v>
       </c>
-      <c r="G175" s="18" t="s">
-        <v>690</v>
+      <c r="G175" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="I175" s="11"/>
       <c r="J175" s="12" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="176" spans="2:10">
@@ -6139,15 +6361,15 @@
       <c r="E176" s="8">
         <v>1100</v>
       </c>
-      <c r="G176" s="18" t="s">
-        <v>690</v>
+      <c r="G176" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="12" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="177" spans="2:10">
@@ -6160,15 +6382,15 @@
       <c r="E177" s="8">
         <v>1101</v>
       </c>
-      <c r="G177" s="18" t="s">
-        <v>690</v>
+      <c r="G177" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="I177" s="11"/>
       <c r="J177" s="12" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="178" spans="2:10">
@@ -6181,7 +6403,7 @@
       <c r="E178" s="8">
         <v>1110</v>
       </c>
-      <c r="G178" s="19"/>
+      <c r="G178" s="18"/>
     </row>
     <row r="179" spans="2:10">
       <c r="B179" s="1" t="s">
@@ -6193,10 +6415,10 @@
       <c r="E179" s="8">
         <v>1111</v>
       </c>
-      <c r="G179" s="19"/>
+      <c r="G179" s="18"/>
     </row>
     <row r="180" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G180" s="19"/>
+      <c r="G180" s="18"/>
     </row>
     <row r="181" spans="2:10">
       <c r="B181" s="1" t="s">
@@ -6208,7 +6430,7 @@
       <c r="E181" s="8">
         <v>0</v>
       </c>
-      <c r="G181" s="19"/>
+      <c r="G181" s="18"/>
     </row>
     <row r="182" spans="2:10">
       <c r="B182" s="1" t="s">
@@ -6220,14 +6442,14 @@
       <c r="E182" s="8">
         <v>1</v>
       </c>
-      <c r="G182" s="18" t="s">
-        <v>691</v>
+      <c r="G182" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="183" spans="2:10">
@@ -6240,14 +6462,14 @@
       <c r="E183" s="8">
         <v>10</v>
       </c>
-      <c r="G183" s="18" t="s">
-        <v>691</v>
+      <c r="G183" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="184" spans="2:10">
@@ -6260,14 +6482,14 @@
       <c r="E184" s="8">
         <v>11</v>
       </c>
-      <c r="G184" s="18" t="s">
-        <v>691</v>
+      <c r="G184" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="185" spans="2:10">
@@ -6280,14 +6502,14 @@
       <c r="E185" s="8">
         <v>100</v>
       </c>
-      <c r="G185" s="18" t="s">
-        <v>691</v>
+      <c r="G185" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="186" spans="2:10">
@@ -6300,14 +6522,14 @@
       <c r="E186" s="8">
         <v>101</v>
       </c>
-      <c r="G186" s="18" t="s">
-        <v>691</v>
+      <c r="G186" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="187" spans="2:10">
@@ -6320,7 +6542,7 @@
       <c r="E187" s="8">
         <v>110</v>
       </c>
-      <c r="G187" s="19"/>
+      <c r="G187" s="18"/>
     </row>
     <row r="188" spans="2:10">
       <c r="B188" s="1" t="s">
@@ -6332,10 +6554,10 @@
       <c r="E188" s="8">
         <v>111</v>
       </c>
-      <c r="G188" s="19"/>
+      <c r="G188" s="18"/>
     </row>
     <row r="189" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G189" s="19"/>
+      <c r="G189" s="18"/>
     </row>
     <row r="190" spans="2:10">
       <c r="B190" s="1" t="s">
@@ -6347,15 +6569,15 @@
       <c r="E190" s="8">
         <v>1000</v>
       </c>
-      <c r="G190" s="18" t="s">
-        <v>691</v>
+      <c r="G190" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="I190" s="11"/>
       <c r="J190" s="12" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="2:10">
@@ -6368,15 +6590,15 @@
       <c r="E191" s="8">
         <v>1001</v>
       </c>
-      <c r="G191" s="18" t="s">
-        <v>691</v>
+      <c r="G191" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="I191" s="11"/>
       <c r="J191" s="12" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="192" spans="2:10">
@@ -6389,15 +6611,15 @@
       <c r="E192" s="8">
         <v>1010</v>
       </c>
-      <c r="G192" s="18" t="s">
-        <v>691</v>
+      <c r="G192" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="12" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="193" spans="2:10">
@@ -6410,15 +6632,15 @@
       <c r="E193" s="8">
         <v>1011</v>
       </c>
-      <c r="G193" s="18" t="s">
-        <v>691</v>
+      <c r="G193" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="I193" s="11"/>
       <c r="J193" s="12" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="194" spans="2:10">
@@ -6431,15 +6653,15 @@
       <c r="E194" s="8">
         <v>1100</v>
       </c>
-      <c r="G194" s="18" t="s">
-        <v>691</v>
+      <c r="G194" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="I194" s="11"/>
       <c r="J194" s="12" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="195" spans="2:10">
@@ -6452,15 +6674,15 @@
       <c r="E195" s="8">
         <v>1101</v>
       </c>
-      <c r="G195" s="18" t="s">
-        <v>691</v>
+      <c r="G195" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="I195" s="11"/>
       <c r="J195" s="12" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="196" spans="2:10">
@@ -6473,7 +6695,7 @@
       <c r="E196" s="8">
         <v>1110</v>
       </c>
-      <c r="G196" s="19"/>
+      <c r="G196" s="18"/>
     </row>
     <row r="197" spans="2:10">
       <c r="B197" s="1" t="s">
@@ -6485,10 +6707,10 @@
       <c r="E197" s="8">
         <v>1111</v>
       </c>
-      <c r="G197" s="19"/>
+      <c r="G197" s="18"/>
     </row>
     <row r="198" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G198" s="19"/>
+      <c r="G198" s="18"/>
     </row>
     <row r="199" spans="2:10">
       <c r="B199" s="1" t="s">
@@ -6500,7 +6722,7 @@
       <c r="E199" s="8">
         <v>0</v>
       </c>
-      <c r="G199" s="19"/>
+      <c r="G199" s="18"/>
     </row>
     <row r="200" spans="2:10">
       <c r="B200" s="1" t="s">
@@ -6512,15 +6734,15 @@
       <c r="E200" s="8">
         <v>1</v>
       </c>
-      <c r="G200" s="18" t="s">
-        <v>691</v>
+      <c r="G200" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H200" s="13" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="I200" s="13"/>
       <c r="J200" s="12" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="2:10">
@@ -6533,15 +6755,15 @@
       <c r="E201" s="8">
         <v>10</v>
       </c>
-      <c r="G201" s="18" t="s">
-        <v>691</v>
+      <c r="G201" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H201" s="13" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="I201" s="13"/>
       <c r="J201" s="12" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="2:10">
@@ -6554,15 +6776,15 @@
       <c r="E202" s="8">
         <v>11</v>
       </c>
-      <c r="G202" s="18" t="s">
-        <v>691</v>
+      <c r="G202" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H202" s="13" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="I202" s="13"/>
       <c r="J202" s="12" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="203" spans="2:10">
@@ -6575,15 +6797,15 @@
       <c r="E203" s="8">
         <v>100</v>
       </c>
-      <c r="G203" s="18" t="s">
-        <v>691</v>
+      <c r="G203" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H203" s="13" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="I203" s="13"/>
       <c r="J203" s="12" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="2:10">
@@ -6596,15 +6818,15 @@
       <c r="E204" s="8">
         <v>101</v>
       </c>
-      <c r="G204" s="18" t="s">
-        <v>691</v>
+      <c r="G204" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H204" s="13" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="I204" s="13"/>
       <c r="J204" s="12" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="205" spans="2:10">
@@ -6617,7 +6839,7 @@
       <c r="E205" s="8">
         <v>110</v>
       </c>
-      <c r="G205" s="19"/>
+      <c r="G205" s="18"/>
     </row>
     <row r="206" spans="2:10">
       <c r="B206" s="1" t="s">
@@ -6629,10 +6851,10 @@
       <c r="E206" s="8">
         <v>111</v>
       </c>
-      <c r="G206" s="19"/>
+      <c r="G206" s="18"/>
     </row>
     <row r="207" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G207" s="19"/>
+      <c r="G207" s="18"/>
     </row>
     <row r="208" spans="2:10">
       <c r="B208" s="1" t="s">
@@ -6644,15 +6866,15 @@
       <c r="E208" s="8">
         <v>1000</v>
       </c>
-      <c r="G208" s="18" t="s">
-        <v>691</v>
+      <c r="G208" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H208" s="13" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="I208" s="13"/>
       <c r="J208" s="12" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="209" spans="2:10">
@@ -6665,15 +6887,15 @@
       <c r="E209" s="8">
         <v>1001</v>
       </c>
-      <c r="G209" s="18" t="s">
-        <v>691</v>
+      <c r="G209" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H209" s="13" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="I209" s="13"/>
       <c r="J209" s="12" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="210" spans="2:10">
@@ -6686,15 +6908,15 @@
       <c r="E210" s="8">
         <v>1010</v>
       </c>
-      <c r="G210" s="18" t="s">
-        <v>691</v>
+      <c r="G210" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="I210" s="13"/>
       <c r="J210" s="12" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="211" spans="2:10">
@@ -6707,15 +6929,15 @@
       <c r="E211" s="8">
         <v>1011</v>
       </c>
-      <c r="G211" s="18" t="s">
-        <v>691</v>
+      <c r="G211" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="12" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="212" spans="2:10">
@@ -6728,15 +6950,15 @@
       <c r="E212" s="8">
         <v>1100</v>
       </c>
-      <c r="G212" s="18" t="s">
-        <v>691</v>
+      <c r="G212" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="I212" s="13"/>
       <c r="J212" s="12" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="213" spans="2:10">
@@ -6749,15 +6971,15 @@
       <c r="E213" s="8">
         <v>1101</v>
       </c>
-      <c r="G213" s="18" t="s">
-        <v>691</v>
+      <c r="G213" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H213" s="13" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="I213" s="13"/>
       <c r="J213" s="12" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
     </row>
     <row r="214" spans="2:10">
@@ -6770,7 +6992,7 @@
       <c r="E214" s="8">
         <v>1110</v>
       </c>
-      <c r="G214" s="19"/>
+      <c r="G214" s="18"/>
     </row>
     <row r="215" spans="2:10">
       <c r="B215" s="1" t="s">
@@ -6782,10 +7004,10 @@
       <c r="E215" s="8">
         <v>1111</v>
       </c>
-      <c r="G215" s="19"/>
+      <c r="G215" s="18"/>
     </row>
     <row r="216" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G216" s="19"/>
+      <c r="G216" s="18"/>
     </row>
     <row r="217" spans="2:10">
       <c r="B217" s="1" t="s">
@@ -6797,14 +7019,14 @@
       <c r="E217" s="8">
         <v>0</v>
       </c>
-      <c r="G217" s="18" t="s">
-        <v>690</v>
+      <c r="G217" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H217" s="13" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="218" spans="2:10">
@@ -6817,14 +7039,14 @@
       <c r="E218" s="8">
         <v>1</v>
       </c>
-      <c r="G218" s="18" t="s">
-        <v>690</v>
+      <c r="G218" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="J218" s="12" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="219" spans="2:10">
@@ -6837,14 +7059,14 @@
       <c r="E219" s="8">
         <v>10</v>
       </c>
-      <c r="G219" s="18" t="s">
-        <v>690</v>
+      <c r="G219" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H219" s="13" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="J219" s="12" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="220" spans="2:10">
@@ -6857,14 +7079,14 @@
       <c r="E220" s="8">
         <v>11</v>
       </c>
-      <c r="G220" s="18" t="s">
-        <v>690</v>
+      <c r="G220" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H220" s="13" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="J220" s="12" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="221" spans="2:10">
@@ -6877,14 +7099,14 @@
       <c r="E221" s="8">
         <v>100</v>
       </c>
-      <c r="G221" s="18" t="s">
-        <v>690</v>
+      <c r="G221" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H221" s="13" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="J221" s="12" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="222" spans="2:10">
@@ -6897,14 +7119,14 @@
       <c r="E222" s="8">
         <v>101</v>
       </c>
-      <c r="G222" s="18" t="s">
-        <v>690</v>
+      <c r="G222" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H222" s="13" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="J222" s="12" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="223" spans="2:10">
@@ -6917,7 +7139,7 @@
       <c r="E223" s="8">
         <v>110</v>
       </c>
-      <c r="G223" s="19"/>
+      <c r="G223" s="18"/>
       <c r="H223" s="13"/>
     </row>
     <row r="224" spans="2:10">
@@ -6930,11 +7152,11 @@
       <c r="E224" s="8">
         <v>111</v>
       </c>
-      <c r="G224" s="19"/>
+      <c r="G224" s="18"/>
       <c r="H224" s="13"/>
     </row>
     <row r="225" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G225" s="19"/>
+      <c r="G225" s="18"/>
       <c r="H225" s="13"/>
     </row>
     <row r="226" spans="2:10">
@@ -6947,14 +7169,14 @@
       <c r="E226" s="8">
         <v>1000</v>
       </c>
-      <c r="G226" s="18" t="s">
-        <v>690</v>
+      <c r="G226" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H226" s="13" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="227" spans="2:10">
@@ -6967,14 +7189,14 @@
       <c r="E227" s="8">
         <v>1001</v>
       </c>
-      <c r="G227" s="18" t="s">
-        <v>690</v>
+      <c r="G227" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="228" spans="2:10">
@@ -6987,14 +7209,14 @@
       <c r="E228" s="8">
         <v>1010</v>
       </c>
-      <c r="G228" s="18" t="s">
-        <v>690</v>
+      <c r="G228" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="J228" s="12" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="229" spans="2:10">
@@ -7007,14 +7229,14 @@
       <c r="E229" s="8">
         <v>1011</v>
       </c>
-      <c r="G229" s="18" t="s">
-        <v>690</v>
+      <c r="G229" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H229" s="13" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="230" spans="2:10">
@@ -7027,14 +7249,14 @@
       <c r="E230" s="8">
         <v>1100</v>
       </c>
-      <c r="G230" s="18" t="s">
-        <v>690</v>
+      <c r="G230" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H230" s="13" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="231" spans="2:10">
@@ -7047,14 +7269,14 @@
       <c r="E231" s="8">
         <v>1101</v>
       </c>
-      <c r="G231" s="18" t="s">
-        <v>690</v>
+      <c r="G231" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="J231" s="12" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="232" spans="2:10">
@@ -7067,7 +7289,7 @@
       <c r="E232" s="8">
         <v>1110</v>
       </c>
-      <c r="G232" s="19"/>
+      <c r="G232" s="18"/>
       <c r="H232" s="13"/>
     </row>
     <row r="233" spans="2:10">
@@ -7080,11 +7302,11 @@
       <c r="E233" s="8">
         <v>1111</v>
       </c>
-      <c r="G233" s="19"/>
+      <c r="G233" s="18"/>
       <c r="H233" s="13"/>
     </row>
     <row r="234" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G234" s="19"/>
+      <c r="G234" s="18"/>
       <c r="H234" s="13"/>
     </row>
     <row r="235" spans="2:10">
@@ -7097,14 +7319,14 @@
       <c r="E235" s="8">
         <v>0</v>
       </c>
-      <c r="G235" s="18" t="s">
-        <v>690</v>
+      <c r="G235" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H235" s="13" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="J235" s="12" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="236" spans="2:10">
@@ -7117,14 +7339,14 @@
       <c r="E236" s="8">
         <v>1</v>
       </c>
-      <c r="G236" s="18" t="s">
-        <v>690</v>
+      <c r="G236" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H236" s="13" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="J236" s="12" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="237" spans="2:10">
@@ -7137,14 +7359,14 @@
       <c r="E237" s="8">
         <v>10</v>
       </c>
-      <c r="G237" s="18" t="s">
-        <v>690</v>
+      <c r="G237" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H237" s="13" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="J237" s="12" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="238" spans="2:10">
@@ -7157,14 +7379,14 @@
       <c r="E238" s="8">
         <v>11</v>
       </c>
-      <c r="G238" s="18" t="s">
-        <v>690</v>
+      <c r="G238" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H238" s="13" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="J238" s="12" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="239" spans="2:10">
@@ -7177,14 +7399,14 @@
       <c r="E239" s="8">
         <v>100</v>
       </c>
-      <c r="G239" s="18" t="s">
-        <v>690</v>
+      <c r="G239" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H239" s="13" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="J239" s="12" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="240" spans="2:10">
@@ -7197,14 +7419,14 @@
       <c r="E240" s="8">
         <v>101</v>
       </c>
-      <c r="G240" s="18" t="s">
-        <v>690</v>
+      <c r="G240" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H240" s="13" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="J240" s="12" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="241" spans="2:10">
@@ -7217,7 +7439,7 @@
       <c r="E241" s="8">
         <v>110</v>
       </c>
-      <c r="G241" s="19"/>
+      <c r="G241" s="18"/>
       <c r="H241" s="13"/>
     </row>
     <row r="242" spans="2:10">
@@ -7230,11 +7452,11 @@
       <c r="E242" s="8">
         <v>111</v>
       </c>
-      <c r="G242" s="19"/>
+      <c r="G242" s="18"/>
       <c r="H242" s="13"/>
     </row>
     <row r="243" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G243" s="19"/>
+      <c r="G243" s="18"/>
       <c r="H243" s="13"/>
     </row>
     <row r="244" spans="2:10">
@@ -7247,14 +7469,14 @@
       <c r="E244" s="8">
         <v>1000</v>
       </c>
-      <c r="G244" s="18" t="s">
-        <v>690</v>
+      <c r="G244" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H244" s="13" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="J244" s="12" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="245" spans="2:10">
@@ -7267,14 +7489,14 @@
       <c r="E245" s="8">
         <v>1001</v>
       </c>
-      <c r="G245" s="18" t="s">
-        <v>690</v>
+      <c r="G245" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H245" s="13" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="246" spans="2:10">
@@ -7287,14 +7509,14 @@
       <c r="E246" s="8">
         <v>1010</v>
       </c>
-      <c r="G246" s="18" t="s">
-        <v>690</v>
+      <c r="G246" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H246" s="13" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="J246" s="12" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="247" spans="2:10">
@@ -7307,14 +7529,14 @@
       <c r="E247" s="8">
         <v>1011</v>
       </c>
-      <c r="G247" s="18" t="s">
-        <v>690</v>
+      <c r="G247" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H247" s="13" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="J247" s="12" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="248" spans="2:10">
@@ -7327,14 +7549,14 @@
       <c r="E248" s="8">
         <v>1100</v>
       </c>
-      <c r="G248" s="18" t="s">
-        <v>690</v>
+      <c r="G248" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H248" s="13" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="J248" s="12" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="249" spans="2:10">
@@ -7347,14 +7569,14 @@
       <c r="E249" s="8">
         <v>1101</v>
       </c>
-      <c r="G249" s="18" t="s">
-        <v>690</v>
+      <c r="G249" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="H249" s="13" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="J249" s="12" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="250" spans="2:10">
@@ -7367,7 +7589,7 @@
       <c r="E250" s="8">
         <v>1110</v>
       </c>
-      <c r="G250" s="19"/>
+      <c r="G250" s="18"/>
       <c r="H250" s="13"/>
     </row>
     <row r="251" spans="2:10">
@@ -7380,11 +7602,11 @@
       <c r="E251" s="8">
         <v>1111</v>
       </c>
-      <c r="G251" s="19"/>
+      <c r="G251" s="18"/>
       <c r="H251" s="13"/>
     </row>
     <row r="252" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G252" s="19"/>
+      <c r="G252" s="18"/>
       <c r="H252" s="13"/>
     </row>
     <row r="253" spans="2:10">
@@ -7397,7 +7619,7 @@
       <c r="E253" s="8">
         <v>0</v>
       </c>
-      <c r="G253" s="19"/>
+      <c r="G253" s="18"/>
       <c r="H253" s="13"/>
     </row>
     <row r="254" spans="2:10">
@@ -7410,14 +7632,14 @@
       <c r="E254" s="8">
         <v>1</v>
       </c>
-      <c r="G254" s="18" t="s">
-        <v>691</v>
+      <c r="G254" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H254" s="13" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="J254" s="12" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
     <row r="255" spans="2:10">
@@ -7430,14 +7652,14 @@
       <c r="E255" s="8">
         <v>10</v>
       </c>
-      <c r="G255" s="18" t="s">
-        <v>691</v>
+      <c r="G255" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H255" s="13" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="256" spans="2:10">
@@ -7450,14 +7672,14 @@
       <c r="E256" s="8">
         <v>11</v>
       </c>
-      <c r="G256" s="18" t="s">
-        <v>691</v>
+      <c r="G256" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H256" s="13" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="J256" s="12" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257" spans="2:10">
@@ -7470,14 +7692,14 @@
       <c r="E257" s="8">
         <v>100</v>
       </c>
-      <c r="G257" s="18" t="s">
-        <v>691</v>
+      <c r="G257" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H257" s="13" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
     </row>
     <row r="258" spans="2:10">
@@ -7490,14 +7712,14 @@
       <c r="E258" s="8">
         <v>101</v>
       </c>
-      <c r="G258" s="18" t="s">
-        <v>691</v>
+      <c r="G258" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H258" s="13" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="259" spans="2:10">
@@ -7510,7 +7732,7 @@
       <c r="E259" s="8">
         <v>110</v>
       </c>
-      <c r="G259" s="19"/>
+      <c r="G259" s="18"/>
       <c r="H259" s="13"/>
     </row>
     <row r="260" spans="2:10">
@@ -7523,11 +7745,11 @@
       <c r="E260" s="8">
         <v>111</v>
       </c>
-      <c r="G260" s="19"/>
+      <c r="G260" s="18"/>
       <c r="H260" s="13"/>
     </row>
     <row r="261" spans="2:10" ht="6.75" customHeight="1">
-      <c r="G261" s="19"/>
+      <c r="G261" s="18"/>
       <c r="H261" s="13"/>
     </row>
     <row r="262" spans="2:10">
@@ -7540,14 +7762,14 @@
       <c r="E262" s="8">
         <v>1000</v>
       </c>
-      <c r="G262" s="18" t="s">
-        <v>691</v>
+      <c r="G262" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H262" s="13" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
     <row r="263" spans="2:10">
@@ -7560,14 +7782,14 @@
       <c r="E263" s="8">
         <v>1001</v>
       </c>
-      <c r="G263" s="18" t="s">
-        <v>691</v>
+      <c r="G263" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H263" s="13" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
     </row>
     <row r="264" spans="2:10">
@@ -7580,14 +7802,14 @@
       <c r="E264" s="8">
         <v>1010</v>
       </c>
-      <c r="G264" s="18" t="s">
-        <v>691</v>
+      <c r="G264" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H264" s="13" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="J264" s="12" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="265" spans="2:10">
@@ -7600,14 +7822,14 @@
       <c r="E265" s="8">
         <v>1011</v>
       </c>
-      <c r="G265" s="18" t="s">
-        <v>691</v>
+      <c r="G265" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H265" s="13" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="J265" s="12" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="266" spans="2:10">
@@ -7620,14 +7842,14 @@
       <c r="E266" s="8">
         <v>1100</v>
       </c>
-      <c r="G266" s="18" t="s">
-        <v>691</v>
+      <c r="G266" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H266" s="13" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="J266" s="12" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="267" spans="2:10">
@@ -7640,14 +7862,14 @@
       <c r="E267" s="8">
         <v>1101</v>
       </c>
-      <c r="G267" s="18" t="s">
-        <v>691</v>
+      <c r="G267" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H267" s="13" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="J267" s="12" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="268" spans="2:10">
@@ -7660,7 +7882,7 @@
       <c r="E268" s="8">
         <v>1110</v>
       </c>
-      <c r="G268" s="19"/>
+      <c r="G268" s="18"/>
       <c r="H268" s="13"/>
     </row>
     <row r="269" spans="2:10">
@@ -7673,11 +7895,11 @@
       <c r="E269" s="8">
         <v>1111</v>
       </c>
-      <c r="G269" s="19"/>
+      <c r="G269" s="18"/>
       <c r="H269" s="13"/>
     </row>
     <row r="270" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G270" s="19"/>
+      <c r="G270" s="18"/>
       <c r="H270" s="13"/>
     </row>
     <row r="271" spans="2:10">
@@ -7690,7 +7912,7 @@
       <c r="E271" s="8">
         <v>0</v>
       </c>
-      <c r="G271" s="19"/>
+      <c r="G271" s="18"/>
       <c r="H271" s="13"/>
     </row>
     <row r="272" spans="2:10">
@@ -7703,14 +7925,14 @@
       <c r="E272" s="8">
         <v>1</v>
       </c>
-      <c r="G272" s="18" t="s">
-        <v>691</v>
+      <c r="G272" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H272" s="13" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="J272" s="12" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
     </row>
     <row r="273" spans="2:10">
@@ -7723,14 +7945,14 @@
       <c r="E273" s="8">
         <v>10</v>
       </c>
-      <c r="G273" s="18" t="s">
-        <v>691</v>
+      <c r="G273" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H273" s="13" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="J273" s="12" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
     <row r="274" spans="2:10">
@@ -7743,14 +7965,14 @@
       <c r="E274" s="8">
         <v>11</v>
       </c>
-      <c r="G274" s="18" t="s">
-        <v>691</v>
+      <c r="G274" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H274" s="13" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="J274" s="12" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="275" spans="2:10">
@@ -7763,14 +7985,14 @@
       <c r="E275" s="8">
         <v>100</v>
       </c>
-      <c r="G275" s="18" t="s">
-        <v>691</v>
+      <c r="G275" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H275" s="13" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="J275" s="12" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="276" spans="2:10">
@@ -7783,14 +8005,14 @@
       <c r="E276" s="8">
         <v>101</v>
       </c>
-      <c r="G276" s="18" t="s">
-        <v>691</v>
+      <c r="G276" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H276" s="13" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="J276" s="12" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="277" spans="2:10">
@@ -7803,7 +8025,7 @@
       <c r="E277" s="8">
         <v>110</v>
       </c>
-      <c r="G277" s="19"/>
+      <c r="G277" s="18"/>
       <c r="H277" s="13"/>
     </row>
     <row r="278" spans="2:10">
@@ -7816,11 +8038,11 @@
       <c r="E278" s="8">
         <v>111</v>
       </c>
-      <c r="G278" s="19"/>
+      <c r="G278" s="18"/>
       <c r="H278" s="13"/>
     </row>
     <row r="279" spans="2:10" ht="7.5" customHeight="1">
-      <c r="G279" s="19"/>
+      <c r="G279" s="18"/>
       <c r="H279" s="13"/>
     </row>
     <row r="280" spans="2:10">
@@ -7833,14 +8055,14 @@
       <c r="E280" s="8">
         <v>1000</v>
       </c>
-      <c r="G280" s="18" t="s">
-        <v>691</v>
+      <c r="G280" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H280" s="13" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="J280" s="12" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="281" spans="2:10">
@@ -7853,14 +8075,14 @@
       <c r="E281" s="8">
         <v>1001</v>
       </c>
-      <c r="G281" s="18" t="s">
-        <v>691</v>
+      <c r="G281" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H281" s="13" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="J281" s="12" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282" spans="2:10">
@@ -7873,14 +8095,14 @@
       <c r="E282" s="8">
         <v>1010</v>
       </c>
-      <c r="G282" s="18" t="s">
-        <v>691</v>
+      <c r="G282" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H282" s="13" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="J282" s="12" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
     </row>
     <row r="283" spans="2:10">
@@ -7893,14 +8115,14 @@
       <c r="E283" s="8">
         <v>1011</v>
       </c>
-      <c r="G283" s="18" t="s">
-        <v>691</v>
+      <c r="G283" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H283" s="13" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="J283" s="12" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
     </row>
     <row r="284" spans="2:10">
@@ -7913,14 +8135,14 @@
       <c r="E284" s="8">
         <v>1100</v>
       </c>
-      <c r="G284" s="18" t="s">
-        <v>691</v>
+      <c r="G284" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H284" s="13" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="J284" s="12" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="285" spans="2:10">
@@ -7933,14 +8155,14 @@
       <c r="E285" s="8">
         <v>1101</v>
       </c>
-      <c r="G285" s="18" t="s">
-        <v>691</v>
+      <c r="G285" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H285" s="13" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="J285" s="12" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="286" spans="2:10">
@@ -7953,7 +8175,7 @@
       <c r="E286" s="8">
         <v>1110</v>
       </c>
-      <c r="G286" s="19"/>
+      <c r="G286" s="18"/>
       <c r="H286" s="13"/>
     </row>
     <row r="287" spans="2:10">
@@ -7966,7 +8188,7 @@
       <c r="E287" s="8">
         <v>1111</v>
       </c>
-      <c r="G287" s="19"/>
+      <c r="G287" s="18"/>
       <c r="H287" s="13"/>
     </row>
     <row r="288" spans="2:10" ht="6.75" customHeight="1"/>
@@ -8265,10 +8487,10 @@
       <c r="B2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="19"/>
       <c r="G2" s="3" t="s">
         <v>240</v>
       </c>
@@ -8281,19 +8503,19 @@
       <c r="L2" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
     </row>
     <row r="3" spans="2:37">
       <c r="B3" s="1">
@@ -8314,21 +8536,21 @@
       <c r="L3" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="W3" s="16" t="s">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="W3" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="AA3" s="17" t="s">
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="AA3" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
     </row>
     <row r="4" spans="2:37">
       <c r="B4" s="1">
@@ -8619,19 +8841,19 @@
       <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="S13" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="3"/>
@@ -8654,19 +8876,19 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="15" t="s">
+      <c r="S14" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
@@ -8723,27 +8945,27 @@
       <c r="G17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="3"/>
@@ -8762,31 +8984,31 @@
       <c r="G18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O18" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="S18" s="15" t="s">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="S18" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="W18" s="16" t="s">
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="W18" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="AA18" s="16" t="s">
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="AA18" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AE18" s="17" t="s">
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AE18" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="3"/>
